--- a/R_files/Rresults/statsRelPos/stats_Oct11/zscores_Oct11.xlsx
+++ b/R_files/Rresults/statsRelPos/stats_Oct11/zscores_Oct11.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="zscores_Oct11" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2186" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="564">
   <si>
     <t>Aeschylus</t>
   </si>
@@ -1701,6 +1701,12 @@
   <si>
     <t>z-score</t>
   </si>
+  <si>
+    <t>Column mean</t>
+  </si>
+  <si>
+    <t>Column standard deviation</t>
+  </si>
 </sst>
 </file>
 
@@ -2184,9 +2190,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2529,13 +2537,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AOS18"/>
+  <dimension ref="A1:AOS21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="T4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="AA15" sqref="AA15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -48700,6517 +48708,6517 @@
         <v>-2.2887776747468301E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:1085" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="15" spans="1:1085" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>3.71458317840411E-2</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>-1.1930265711558601</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>2.6511489551572801E-2</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>-1.0739247496076501</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>2.9486130735479999E-2</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="2">
         <v>-0.93117239051933298</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="2">
         <v>1.5579683200713901E-2</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="2">
         <v>-0.79530006220175997</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="2">
         <v>8.7008254629285294E-3</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="2">
         <v>-1.02856289972648</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="2">
         <v>1.4055179593961501E-2</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="2">
         <v>1.3148672877504999E-2</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="2">
         <v>1.7587565999851298E-2</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="2">
         <v>1.5503992933998101</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="2">
         <v>8.5892764185320093E-3</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="2">
         <v>-0.64844149156238096</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="2">
         <v>1.3794898490369601E-2</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="2">
         <v>0.89253384198342001</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="2">
         <v>6.1723804566074202E-3</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="2">
         <v>-0.80831819858374998</v>
       </c>
-      <c r="V15">
+      <c r="V15" s="2">
         <v>5.3915371458317799E-3</v>
       </c>
-      <c r="W15">
+      <c r="W15" s="2">
         <v>-0.71181694621114699</v>
       </c>
-      <c r="X15">
+      <c r="X15" s="2">
         <v>4.4247787610619503E-3</v>
       </c>
-      <c r="Y15">
+      <c r="Y15" s="2">
         <v>-0.719824368618868</v>
       </c>
-      <c r="Z15">
+      <c r="Z15" s="2">
         <v>1.0039413995686799E-2</v>
       </c>
-      <c r="AA15">
+      <c r="AA15" s="2">
         <v>1.5242136297482101</v>
       </c>
-      <c r="AB15">
+      <c r="AB15" s="2">
         <v>6.5070275897969798E-3</v>
       </c>
-      <c r="AC15">
+      <c r="AC15" s="2">
         <v>0.14977645854232699</v>
       </c>
-      <c r="AD15">
+      <c r="AD15" s="2">
         <v>2.9746411839071899E-3</v>
       </c>
-      <c r="AE15">
+      <c r="AE15" s="2">
         <v>-0.96429037583116395</v>
       </c>
-      <c r="AF15">
+      <c r="AF15" s="2">
         <v>4.1273146426712296E-3</v>
       </c>
-      <c r="AG15">
+      <c r="AG15" s="2">
         <v>-0.52729061107361797</v>
       </c>
-      <c r="AH15">
+      <c r="AH15" s="2">
         <v>1.5988696363501199E-3</v>
       </c>
-      <c r="AI15">
+      <c r="AI15" s="2">
         <v>-1.19299606711103</v>
       </c>
-      <c r="AJ15">
+      <c r="AJ15" s="2">
         <v>1.89633375474083E-3</v>
       </c>
-      <c r="AK15">
+      <c r="AK15" s="2">
         <v>-0.94101754811808802</v>
       </c>
-      <c r="AL15">
+      <c r="AL15" s="2">
         <v>3.9042165538781901E-3</v>
       </c>
-      <c r="AM15">
+      <c r="AM15" s="2">
         <v>-0.43170962107356697</v>
       </c>
-      <c r="AN15">
+      <c r="AN15" s="2">
         <v>1.1526734587640401E-3</v>
       </c>
-      <c r="AO15">
+      <c r="AO15" s="2">
         <v>-0.77016100229382001</v>
       </c>
-      <c r="AP15">
+      <c r="AP15" s="2">
         <v>2.0450658139361901E-3</v>
       </c>
-      <c r="AQ15">
+      <c r="AQ15" s="2">
         <v>-1.2676571828718599</v>
       </c>
-      <c r="AR15">
+      <c r="AR15" s="2">
         <v>6.2839295010039403E-3</v>
       </c>
-      <c r="AS15">
+      <c r="AS15" s="2">
         <v>0.95308165905064801</v>
       </c>
-      <c r="AT15">
+      <c r="AT15" s="2">
         <v>1.89633375474083E-3</v>
       </c>
-      <c r="AU15">
+      <c r="AU15" s="2">
         <v>-0.74381609838650398</v>
       </c>
-      <c r="AV15">
+      <c r="AV15" s="2">
         <v>2.7887261099129898E-3</v>
       </c>
-      <c r="AW15">
+      <c r="AW15" s="2">
         <v>-0.40283737365119299</v>
       </c>
-      <c r="AX15">
+      <c r="AX15" s="2">
         <v>1.11920874544508E-2</v>
       </c>
-      <c r="AY15">
+      <c r="AY15" s="2">
         <v>2.1997572422849401</v>
       </c>
-      <c r="AZ15">
+      <c r="AZ15" s="2">
         <v>3.1977392727002298E-3</v>
       </c>
-      <c r="BA15">
+      <c r="BA15" s="2">
         <v>-0.33587940909116598</v>
       </c>
-      <c r="BB15">
+      <c r="BB15" s="2">
         <v>4.7222428794526702E-3</v>
       </c>
-      <c r="BC15">
+      <c r="BC15" s="2">
         <v>0.47279026964680798</v>
       </c>
-      <c r="BD15">
+      <c r="BD15" s="2">
         <v>2.1937978731315501E-3</v>
       </c>
-      <c r="BE15">
+      <c r="BE15" s="2">
         <v>-0.91784227852969402</v>
       </c>
-      <c r="BF15">
+      <c r="BF15" s="2">
         <v>1.00394139956868E-3</v>
       </c>
-      <c r="BG15">
+      <c r="BG15" s="2">
         <v>-0.93842179919258595</v>
       </c>
-      <c r="BH15">
+      <c r="BH15" s="2">
         <v>1.85915073994199E-3</v>
       </c>
-      <c r="BI15">
+      <c r="BI15" s="2">
         <v>-0.74805175401017998</v>
       </c>
-      <c r="BJ15">
+      <c r="BJ15" s="2">
         <v>6.5070275897969798E-3</v>
       </c>
-      <c r="BK15">
+      <c r="BK15" s="2">
         <v>0.94550357658986295</v>
       </c>
-      <c r="BL15">
+      <c r="BL15" s="2">
         <v>6.6185766341934999E-3</v>
       </c>
-      <c r="BM15">
+      <c r="BM15" s="2">
         <v>2.5784427698225101</v>
       </c>
-      <c r="BN15">
+      <c r="BN15" s="2">
         <v>3.5323864058897899E-3</v>
       </c>
-      <c r="BO15">
+      <c r="BO15" s="2">
         <v>0.49315658400229301</v>
       </c>
-      <c r="BP15">
+      <c r="BP15" s="2">
         <v>2.8630921395106702E-3</v>
       </c>
-      <c r="BQ15">
+      <c r="BQ15" s="2">
         <v>8.8781536596680394E-2</v>
       </c>
-      <c r="BR15">
+      <c r="BR15" s="2">
         <v>1.2270394883617201E-3</v>
       </c>
-      <c r="BS15">
+      <c r="BS15" s="2">
         <v>-0.79289819127529204</v>
       </c>
-      <c r="BT15">
+      <c r="BT15" s="2">
         <v>2.8630921395106702E-3</v>
       </c>
-      <c r="BU15">
+      <c r="BU15" s="2">
         <v>0.31907438151401002</v>
       </c>
-      <c r="BV15">
+      <c r="BV15" s="2">
         <v>8.5520934037331699E-4</v>
       </c>
-      <c r="BW15">
+      <c r="BW15" s="2">
         <v>-0.76394177979978195</v>
       </c>
-      <c r="BX15">
+      <c r="BX15" s="2">
         <v>2.4540789767234302E-3</v>
       </c>
-      <c r="BY15">
+      <c r="BY15" s="2">
         <v>3.7158704136171297E-2</v>
       </c>
-      <c r="BZ15">
+      <c r="BZ15" s="2">
         <v>4.0901316278723899E-4</v>
       </c>
-      <c r="CA15">
+      <c r="CA15" s="2">
         <v>-0.72816000258135605</v>
       </c>
-      <c r="CB15">
+      <c r="CB15" s="2">
         <v>2.2309808879303898E-3</v>
       </c>
-      <c r="CC15">
+      <c r="CC15" s="2">
         <v>-0.116008190645357</v>
       </c>
-      <c r="CD15">
+      <c r="CD15" s="2">
         <v>1.82196772514315E-3</v>
       </c>
-      <c r="CE15">
+      <c r="CE15" s="2">
         <v>-0.26088269303794798</v>
       </c>
-      <c r="CF15">
+      <c r="CF15" s="2">
         <v>4.3504127314642699E-3</v>
       </c>
-      <c r="CG15">
+      <c r="CG15" s="2">
         <v>1.1453008244426199</v>
       </c>
-      <c r="CH15">
+      <c r="CH15" s="2">
         <v>1.0411244143675199E-3</v>
       </c>
-      <c r="CI15">
+      <c r="CI15" s="2">
         <v>-0.78883357038809998</v>
       </c>
-      <c r="CJ15">
+      <c r="CJ15" s="2">
         <v>1.41295456235592E-3</v>
       </c>
-      <c r="CK15">
+      <c r="CK15" s="2">
         <v>-0.59470587256478802</v>
       </c>
-      <c r="CL15">
+      <c r="CL15" s="2">
         <v>9.6675838476983705E-4</v>
       </c>
-      <c r="CM15">
+      <c r="CM15" s="2">
         <v>-0.63361990668227897</v>
       </c>
-      <c r="CN15">
+      <c r="CN15" s="2">
         <v>1.7104186807466301E-3</v>
       </c>
-      <c r="CO15">
+      <c r="CO15" s="2">
         <v>-0.528653300061942</v>
       </c>
-      <c r="CP15">
+      <c r="CP15" s="2">
         <v>1.5245036067524399E-3</v>
       </c>
-      <c r="CQ15">
+      <c r="CQ15" s="2">
         <v>-0.59400876486989396</v>
       </c>
-      <c r="CR15">
+      <c r="CR15" s="2">
         <v>3.30928831709675E-3</v>
       </c>
-      <c r="CS15">
+      <c r="CS15" s="2">
         <v>0.57710771936771599</v>
       </c>
-      <c r="CT15">
+      <c r="CT15" s="2">
         <v>1.0411244143675199E-3</v>
       </c>
-      <c r="CU15">
+      <c r="CU15" s="2">
         <v>-0.74245128729346399</v>
       </c>
-      <c r="CV15">
+      <c r="CV15" s="2">
         <v>1.4873205919535999E-3</v>
       </c>
-      <c r="CW15">
+      <c r="CW15" s="2">
         <v>-0.239394635091671</v>
       </c>
-      <c r="CX15">
+      <c r="CX15" s="2">
         <v>1.6360526511489601E-3</v>
       </c>
-      <c r="CY15">
+      <c r="CY15" s="2">
         <v>-0.17438142562994699</v>
       </c>
-      <c r="CZ15">
+      <c r="CZ15" s="2">
         <v>2.1937978731315501E-3</v>
       </c>
-      <c r="DA15">
+      <c r="DA15" s="2">
         <v>0.31098510417177799</v>
       </c>
-      <c r="DB15">
+      <c r="DB15" s="2">
         <v>2.6399940507176299E-3</v>
       </c>
-      <c r="DC15">
+      <c r="DC15" s="2">
         <v>0.88145437218674105</v>
       </c>
-      <c r="DD15">
+      <c r="DD15" s="2">
         <v>1.6732356659478001E-3</v>
       </c>
-      <c r="DE15">
+      <c r="DE15" s="2">
         <v>-0.13899496756888699</v>
       </c>
-      <c r="DF15">
+      <c r="DF15" s="2">
         <v>1.2270394883617201E-3</v>
       </c>
-      <c r="DG15">
+      <c r="DG15" s="2">
         <v>-0.41452648385825902</v>
       </c>
-      <c r="DH15">
-        <v>0</v>
-      </c>
-      <c r="DI15">
+      <c r="DH15" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI15" s="2">
         <v>-0.94033138671957495</v>
       </c>
-      <c r="DJ15">
+      <c r="DJ15" s="2">
         <v>2.9746411839071899E-4</v>
       </c>
-      <c r="DK15">
+      <c r="DK15" s="2">
         <v>-0.87526869649117101</v>
       </c>
-      <c r="DL15">
+      <c r="DL15" s="2">
         <v>4.8337919238491901E-4</v>
       </c>
-      <c r="DM15">
+      <c r="DM15" s="2">
         <v>-0.79205918707591505</v>
       </c>
-      <c r="DN15">
+      <c r="DN15" s="2">
         <v>3.3464713318955897E-4</v>
       </c>
-      <c r="DO15">
+      <c r="DO15" s="2">
         <v>-0.72647902695936395</v>
       </c>
-      <c r="DP15">
+      <c r="DP15" s="2">
         <v>1.1154904439652E-4</v>
       </c>
-      <c r="DQ15">
+      <c r="DQ15" s="2">
         <v>-0.81556949015821101</v>
       </c>
-      <c r="DR15">
+      <c r="DR15" s="2">
         <v>6.3211125158027797E-4</v>
       </c>
-      <c r="DS15">
+      <c r="DS15" s="2">
         <v>-0.83482279561081796</v>
       </c>
-      <c r="DT15">
+      <c r="DT15" s="2">
         <v>1.37577154755708E-3</v>
       </c>
-      <c r="DU15">
+      <c r="DU15" s="2">
         <v>-7.8490747252030299E-2</v>
       </c>
-      <c r="DV15">
+      <c r="DV15" s="2">
         <v>1.0783074291663599E-3</v>
       </c>
-      <c r="DW15">
+      <c r="DW15" s="2">
         <v>-0.45145726670180503</v>
       </c>
-      <c r="DX15">
+      <c r="DX15" s="2">
         <v>3.5323864058897899E-3</v>
       </c>
-      <c r="DY15">
+      <c r="DY15" s="2">
         <v>2.3592807987346101</v>
       </c>
-      <c r="DZ15">
+      <c r="DZ15" s="2">
         <v>1.2270394883617201E-3</v>
       </c>
-      <c r="EA15">
+      <c r="EA15" s="2">
         <v>-0.262610803254826</v>
       </c>
-      <c r="EB15">
+      <c r="EB15" s="2">
         <v>1.7104186807466301E-3</v>
       </c>
-      <c r="EC15">
+      <c r="EC15" s="2">
         <v>0.30739372707863699</v>
       </c>
-      <c r="ED15">
+      <c r="ED15" s="2">
         <v>1.7476016955454701E-3</v>
       </c>
-      <c r="EE15">
+      <c r="EE15" s="2">
         <v>0.29903751748749302</v>
       </c>
-      <c r="EF15">
+      <c r="EF15" s="2">
         <v>1.2270394883617201E-3</v>
       </c>
-      <c r="EG15">
+      <c r="EG15" s="2">
         <v>-0.380265249314723</v>
       </c>
-      <c r="EH15">
+      <c r="EH15" s="2">
         <v>3.8670335390793499E-3</v>
       </c>
-      <c r="EI15">
+      <c r="EI15" s="2">
         <v>1.7293008482804799</v>
       </c>
-      <c r="EJ15">
+      <c r="EJ15" s="2">
         <v>1.0411244143675199E-3</v>
       </c>
-      <c r="EK15">
+      <c r="EK15" s="2">
         <v>-0.48032019066757098</v>
       </c>
-      <c r="EL15">
+      <c r="EL15" s="2">
         <v>1.0411244143675199E-3</v>
       </c>
-      <c r="EM15">
+      <c r="EM15" s="2">
         <v>-0.29076589573121198</v>
       </c>
-      <c r="EN15">
+      <c r="EN15" s="2">
         <v>7.80843310775638E-4</v>
       </c>
-      <c r="EO15">
+      <c r="EO15" s="2">
         <v>-0.69876641281195795</v>
       </c>
-      <c r="EP15">
+      <c r="EP15" s="2">
         <v>1.37577154755708E-3</v>
       </c>
-      <c r="EQ15">
+      <c r="EQ15" s="2">
         <v>0.109397001694684</v>
       </c>
-      <c r="ER15">
+      <c r="ER15" s="2">
         <v>4.0901316278723899E-4</v>
       </c>
-      <c r="ES15">
+      <c r="ES15" s="2">
         <v>-1.1495932302315801</v>
       </c>
-      <c r="ET15">
+      <c r="ET15" s="2">
         <v>1.45013757715476E-3</v>
       </c>
-      <c r="EU15">
+      <c r="EU15" s="2">
         <v>0.29810275467506803</v>
       </c>
-      <c r="EV15">
+      <c r="EV15" s="2">
         <v>1.37577154755708E-3</v>
       </c>
-      <c r="EW15">
+      <c r="EW15" s="2">
         <v>0.27149161555752299</v>
       </c>
-      <c r="EX15">
+      <c r="EX15" s="2">
         <v>6.3211125158027797E-4</v>
       </c>
-      <c r="EY15">
+      <c r="EY15" s="2">
         <v>-0.57620372770921202</v>
       </c>
-      <c r="EZ15">
+      <c r="EZ15" s="2">
         <v>3.0490072135048699E-3</v>
       </c>
-      <c r="FA15">
+      <c r="FA15" s="2">
         <v>1.8029462594501899</v>
       </c>
-      <c r="FB15">
+      <c r="FB15" s="2">
         <v>3.4952033910909501E-3</v>
       </c>
-      <c r="FC15">
+      <c r="FC15" s="2">
         <v>2.2224977148792999</v>
       </c>
-      <c r="FD15">
+      <c r="FD15" s="2">
         <v>8.5520934037331699E-4</v>
       </c>
-      <c r="FE15">
+      <c r="FE15" s="2">
         <v>-0.37609145327678201</v>
       </c>
-      <c r="FF15">
+      <c r="FF15" s="2">
         <v>2.0450658139361901E-3</v>
       </c>
-      <c r="FG15">
+      <c r="FG15" s="2">
         <v>1.46829142574352</v>
       </c>
-      <c r="FH15">
+      <c r="FH15" s="2">
         <v>1.89633375474083E-3</v>
       </c>
-      <c r="FI15">
+      <c r="FI15" s="2">
         <v>0.81007859131724502</v>
       </c>
-      <c r="FJ15">
+      <c r="FJ15" s="2">
         <v>2.6771770655164701E-3</v>
       </c>
-      <c r="FK15">
+      <c r="FK15" s="2">
         <v>2.0327831674877501</v>
       </c>
-      <c r="FL15">
+      <c r="FL15" s="2">
         <v>1.3014055179594E-3</v>
       </c>
-      <c r="FM15">
+      <c r="FM15" s="2">
         <v>0.388493768589871</v>
       </c>
-      <c r="FN15">
+      <c r="FN15" s="2">
         <v>2.6399940507176299E-3</v>
       </c>
-      <c r="FO15">
+      <c r="FO15" s="2">
         <v>2.3711084213365501</v>
       </c>
-      <c r="FP15">
+      <c r="FP15" s="2">
         <v>7.0647728117795804E-4</v>
       </c>
-      <c r="FQ15">
+      <c r="FQ15" s="2">
         <v>-0.68640811990445005</v>
       </c>
-      <c r="FR15">
+      <c r="FR15" s="2">
         <v>3.64393545028631E-3</v>
       </c>
-      <c r="FS15">
+      <c r="FS15" s="2">
         <v>2.2967797979919902</v>
       </c>
-      <c r="FT15">
+      <c r="FT15" s="2">
         <v>2.0078827991373499E-3</v>
       </c>
-      <c r="FU15">
+      <c r="FU15" s="2">
         <v>1.1522171890317301</v>
       </c>
-      <c r="FV15">
+      <c r="FV15" s="2">
         <v>1.8591507399419899E-4</v>
       </c>
-      <c r="FW15">
+      <c r="FW15" s="2">
         <v>-0.57204338482477302</v>
       </c>
-      <c r="FX15">
+      <c r="FX15" s="2">
         <v>1.45013757715476E-3</v>
       </c>
-      <c r="FY15">
+      <c r="FY15" s="2">
         <v>0.74385979686067205</v>
       </c>
-      <c r="FZ15">
+      <c r="FZ15" s="2">
         <v>1.37577154755708E-3</v>
       </c>
-      <c r="GA15">
+      <c r="GA15" s="2">
         <v>0.38885000064869402</v>
       </c>
-      <c r="GB15">
+      <c r="GB15" s="2">
         <v>3.9785825834758697E-3</v>
       </c>
-      <c r="GC15">
+      <c r="GC15" s="2">
         <v>2.68103370069948</v>
       </c>
-      <c r="GD15">
+      <c r="GD15" s="2">
         <v>2.9746411839071899E-4</v>
       </c>
-      <c r="GE15">
+      <c r="GE15" s="2">
         <v>-0.36458910873510703</v>
       </c>
-      <c r="GF15">
+      <c r="GF15" s="2">
         <v>1.2270394883617201E-3</v>
       </c>
-      <c r="GG15">
+      <c r="GG15" s="2">
         <v>0.386948516306861</v>
       </c>
-      <c r="GH15">
+      <c r="GH15" s="2">
         <v>8.5520934037331699E-4</v>
       </c>
-      <c r="GI15">
+      <c r="GI15" s="2">
         <v>-0.14462978520970299</v>
       </c>
-      <c r="GJ15">
+      <c r="GJ15" s="2">
         <v>3.7183014798839901E-4</v>
       </c>
-      <c r="GK15">
+      <c r="GK15" s="2">
         <v>-1.0114782553255699</v>
       </c>
-      <c r="GL15">
+      <c r="GL15" s="2">
         <v>2.23098088793039E-4</v>
       </c>
-      <c r="GM15">
+      <c r="GM15" s="2">
         <v>-0.52617876550924803</v>
       </c>
-      <c r="GN15">
+      <c r="GN15" s="2">
         <v>3.3464713318955897E-4</v>
       </c>
-      <c r="GO15">
+      <c r="GO15" s="2">
         <v>-0.50466463384949201</v>
       </c>
-      <c r="GP15">
+      <c r="GP15" s="2">
         <v>2.1194318435338701E-3</v>
       </c>
-      <c r="GQ15">
+      <c r="GQ15" s="2">
         <v>1.1185452282477999</v>
       </c>
-      <c r="GR15">
+      <c r="GR15" s="2">
         <v>2.9746411839071899E-4</v>
       </c>
-      <c r="GS15">
+      <c r="GS15" s="2">
         <v>-1.0380442369029399</v>
       </c>
-      <c r="GT15">
+      <c r="GT15" s="2">
         <v>2.6028110359187901E-4</v>
       </c>
-      <c r="GU15">
+      <c r="GU15" s="2">
         <v>-1.1385152705255901</v>
       </c>
-      <c r="GV15">
+      <c r="GV15" s="2">
         <v>1.8591507399419899E-4</v>
       </c>
-      <c r="GW15">
+      <c r="GW15" s="2">
         <v>-0.293637226151096</v>
       </c>
-      <c r="GX15">
+      <c r="GX15" s="2">
         <v>1.1154904439652E-4</v>
       </c>
-      <c r="GY15">
+      <c r="GY15" s="2">
         <v>-0.97664892560858596</v>
       </c>
-      <c r="GZ15">
+      <c r="GZ15" s="2">
         <v>3.3464713318955897E-4</v>
       </c>
-      <c r="HA15">
+      <c r="HA15" s="2">
         <v>-0.87173474072123702</v>
       </c>
-      <c r="HB15">
+      <c r="HB15" s="2">
         <v>2.0078827991373499E-3</v>
       </c>
-      <c r="HC15">
+      <c r="HC15" s="2">
         <v>1.1283228672672201</v>
       </c>
-      <c r="HD15" s="1">
+      <c r="HD15" s="3">
         <v>3.7183014798839901E-5</v>
       </c>
-      <c r="HE15">
+      <c r="HE15" s="2">
         <v>-0.35013452684005703</v>
       </c>
-      <c r="HF15">
+      <c r="HF15" s="2">
         <v>8.1802632557447799E-4</v>
       </c>
-      <c r="HG15">
+      <c r="HG15" s="2">
         <v>-7.4189315409420697E-2</v>
       </c>
-      <c r="HH15">
+      <c r="HH15" s="2">
         <v>1.1898564735628801E-3</v>
       </c>
-      <c r="HI15">
+      <c r="HI15" s="2">
         <v>0.35812936102243198</v>
       </c>
-      <c r="HJ15" s="1">
+      <c r="HJ15" s="3">
         <v>3.7183014798839901E-5</v>
       </c>
-      <c r="HK15">
+      <c r="HK15" s="2">
         <v>-0.26087967917719301</v>
       </c>
-      <c r="HL15">
+      <c r="HL15" s="2">
         <v>3.3464713318955897E-4</v>
       </c>
-      <c r="HM15">
+      <c r="HM15" s="2">
         <v>-0.80476025977973198</v>
       </c>
-      <c r="HN15">
+      <c r="HN15" s="2">
         <v>1.7104186807466301E-3</v>
       </c>
-      <c r="HO15">
+      <c r="HO15" s="2">
         <v>2.03612342291694</v>
       </c>
-      <c r="HP15">
+      <c r="HP15" s="2">
         <v>1.1526734587640401E-3</v>
       </c>
-      <c r="HQ15">
+      <c r="HQ15" s="2">
         <v>1.2806726486132201</v>
       </c>
-      <c r="HR15">
+      <c r="HR15" s="2">
         <v>1.1154904439652E-4</v>
       </c>
-      <c r="HS15">
+      <c r="HS15" s="2">
         <v>-0.749139105497443</v>
       </c>
-      <c r="HT15">
+      <c r="HT15" s="2">
         <v>1.1526734587640401E-3</v>
       </c>
-      <c r="HU15">
+      <c r="HU15" s="2">
         <v>0.49432818012761298</v>
       </c>
-      <c r="HV15">
+      <c r="HV15" s="2">
         <v>5.9492823678143798E-4</v>
       </c>
-      <c r="HW15">
+      <c r="HW15" s="2">
         <v>-0.536288543480272</v>
       </c>
-      <c r="HX15">
-        <v>0</v>
-      </c>
-      <c r="HY15">
+      <c r="HX15" s="2">
+        <v>0</v>
+      </c>
+      <c r="HY15" s="2">
         <v>-0.57530005402878104</v>
       </c>
-      <c r="HZ15">
+      <c r="HZ15" s="2">
         <v>5.9492823678143798E-4</v>
       </c>
-      <c r="IA15">
+      <c r="IA15" s="2">
         <v>-0.21809771316662799</v>
       </c>
-      <c r="IB15">
-        <v>0</v>
-      </c>
-      <c r="IC15">
+      <c r="IB15" s="2">
+        <v>0</v>
+      </c>
+      <c r="IC15" s="2">
         <v>-0.60315337871734598</v>
       </c>
-      <c r="ID15">
+      <c r="ID15" s="2">
         <v>5.57745221982598E-4</v>
       </c>
-      <c r="IE15">
+      <c r="IE15" s="2">
         <v>-0.43126545815321699</v>
       </c>
-      <c r="IF15" s="1">
+      <c r="IF15" s="3">
         <v>3.7183014798839901E-5</v>
       </c>
-      <c r="IG15">
+      <c r="IG15" s="2">
         <v>-0.54485387344708602</v>
       </c>
-      <c r="IH15">
+      <c r="IH15" s="2">
         <v>9.6675838476983705E-4</v>
       </c>
-      <c r="II15">
+      <c r="II15" s="2">
         <v>0.40795841445439301</v>
       </c>
-      <c r="IJ15">
+      <c r="IJ15" s="2">
         <v>4.4619617758607898E-4</v>
       </c>
-      <c r="IK15">
+      <c r="IK15" s="2">
         <v>-0.689587024708609</v>
       </c>
-      <c r="IL15">
+      <c r="IL15" s="2">
         <v>3.7183014798839901E-4</v>
       </c>
-      <c r="IM15">
+      <c r="IM15" s="2">
         <v>-0.61366536885663303</v>
       </c>
-      <c r="IN15">
+      <c r="IN15" s="2">
         <v>3.7183014798839901E-4</v>
       </c>
-      <c r="IO15">
+      <c r="IO15" s="2">
         <v>-0.74115170321852997</v>
       </c>
-      <c r="IP15">
+      <c r="IP15" s="2">
         <v>4.8337919238491901E-4</v>
       </c>
-      <c r="IQ15">
+      <c r="IQ15" s="2">
         <v>-0.56605727208239398</v>
       </c>
-      <c r="IR15">
+      <c r="IR15" s="2">
         <v>5.2056220718375802E-4</v>
       </c>
-      <c r="IS15">
+      <c r="IS15" s="2">
         <v>-0.48347837325166099</v>
       </c>
-      <c r="IT15">
+      <c r="IT15" s="2">
         <v>4.8337919238491901E-4</v>
       </c>
-      <c r="IU15">
+      <c r="IU15" s="2">
         <v>-0.56458018127946996</v>
       </c>
-      <c r="IV15">
+      <c r="IV15" s="2">
         <v>1.4873205919536001E-4</v>
       </c>
-      <c r="IW15">
+      <c r="IW15" s="2">
         <v>-0.591972510553613</v>
       </c>
-      <c r="IX15">
+      <c r="IX15" s="2">
         <v>1.4873205919536001E-4</v>
       </c>
-      <c r="IY15">
+      <c r="IY15" s="2">
         <v>-1.15782475333039</v>
       </c>
-      <c r="IZ15">
+      <c r="IZ15" s="2">
         <v>7.80843310775638E-4</v>
       </c>
-      <c r="JA15">
+      <c r="JA15" s="2">
         <v>0.101914581780226</v>
       </c>
-      <c r="JB15">
+      <c r="JB15" s="2">
         <v>8.1802632557447799E-4</v>
       </c>
-      <c r="JC15">
+      <c r="JC15" s="2">
         <v>0.30984741276651701</v>
       </c>
-      <c r="JD15">
+      <c r="JD15" s="2">
         <v>4.0901316278723899E-4</v>
       </c>
-      <c r="JE15">
+      <c r="JE15" s="2">
         <v>-0.45821349492077501</v>
       </c>
-      <c r="JF15">
+      <c r="JF15" s="2">
         <v>5.57745221982598E-4</v>
       </c>
-      <c r="JG15">
+      <c r="JG15" s="2">
         <v>-0.26656244782474298</v>
       </c>
-      <c r="JH15">
+      <c r="JH15" s="2">
         <v>1.4873205919536001E-4</v>
       </c>
-      <c r="JI15">
+      <c r="JI15" s="2">
         <v>-0.59943872513964802</v>
       </c>
-      <c r="JJ15">
+      <c r="JJ15" s="2">
         <v>1.2270394883617201E-3</v>
       </c>
-      <c r="JK15">
+      <c r="JK15" s="2">
         <v>0.94794816409163696</v>
       </c>
-      <c r="JL15">
+      <c r="JL15" s="2">
         <v>5.57745221982598E-4</v>
       </c>
-      <c r="JM15">
+      <c r="JM15" s="2">
         <v>-0.201321325984921</v>
       </c>
-      <c r="JN15">
+      <c r="JN15" s="2">
         <v>2.7143600803153098E-3</v>
       </c>
-      <c r="JO15">
+      <c r="JO15" s="2">
         <v>2.4397071022682</v>
       </c>
-      <c r="JP15">
+      <c r="JP15" s="2">
         <v>4.8337919238491901E-4</v>
       </c>
-      <c r="JQ15">
+      <c r="JQ15" s="2">
         <v>-0.35376845452990702</v>
       </c>
-      <c r="JR15">
+      <c r="JR15" s="2">
         <v>2.6028110359187901E-4</v>
       </c>
-      <c r="JS15">
+      <c r="JS15" s="2">
         <v>-0.69436353522198002</v>
       </c>
-      <c r="JT15">
+      <c r="JT15" s="2">
         <v>3.7183014798839901E-4</v>
       </c>
-      <c r="JU15">
+      <c r="JU15" s="2">
         <v>-0.78194445614016495</v>
       </c>
-      <c r="JV15">
+      <c r="JV15" s="2">
         <v>9.2957536997099696E-4</v>
       </c>
-      <c r="JW15">
+      <c r="JW15" s="2">
         <v>0.69304463951712303</v>
       </c>
-      <c r="JX15">
+      <c r="JX15" s="2">
         <v>1.1154904439652E-4</v>
       </c>
-      <c r="JY15">
+      <c r="JY15" s="2">
         <v>-0.69561239829020505</v>
       </c>
-      <c r="JZ15">
+      <c r="JZ15" s="2">
         <v>4.0901316278723899E-4</v>
       </c>
-      <c r="KA15">
+      <c r="KA15" s="2">
         <v>-0.310137822869131</v>
       </c>
-      <c r="KB15">
+      <c r="KB15" s="2">
         <v>2.9746411839071899E-4</v>
       </c>
-      <c r="KC15">
+      <c r="KC15" s="2">
         <v>-0.50025920228901399</v>
       </c>
-      <c r="KD15">
+      <c r="KD15" s="2">
         <v>4.4619617758607898E-4</v>
       </c>
-      <c r="KE15">
+      <c r="KE15" s="2">
         <v>-0.39900664376581402</v>
       </c>
-      <c r="KF15">
+      <c r="KF15" s="2">
         <v>4.8337919238491901E-4</v>
       </c>
-      <c r="KG15">
+      <c r="KG15" s="2">
         <v>-0.26714381929731301</v>
       </c>
-      <c r="KH15" s="1">
+      <c r="KH15" s="3">
         <v>3.7183014798839901E-5</v>
       </c>
-      <c r="KI15">
+      <c r="KI15" s="2">
         <v>-0.57840338624728005</v>
       </c>
-      <c r="KJ15">
+      <c r="KJ15" s="2">
         <v>4.8337919238491901E-4</v>
       </c>
-      <c r="KK15">
+      <c r="KK15" s="2">
         <v>-0.25284062603957402</v>
       </c>
-      <c r="KL15">
+      <c r="KL15" s="2">
         <v>5.9492823678143798E-4</v>
       </c>
-      <c r="KM15">
+      <c r="KM15" s="2">
         <v>-3.0241087004502201E-2</v>
       </c>
-      <c r="KN15">
+      <c r="KN15" s="2">
         <v>2.4912619915222699E-3</v>
       </c>
-      <c r="KO15">
+      <c r="KO15" s="2">
         <v>2.4142310629664698</v>
       </c>
-      <c r="KP15" s="1">
+      <c r="KP15" s="3">
         <v>7.4366029597679802E-5</v>
       </c>
-      <c r="KQ15">
+      <c r="KQ15" s="2">
         <v>-0.89282761614900197</v>
       </c>
-      <c r="KR15">
+      <c r="KR15" s="2">
         <v>9.2957536997099696E-4</v>
       </c>
-      <c r="KS15">
+      <c r="KS15" s="2">
         <v>1.4629768267203</v>
       </c>
-      <c r="KT15">
+      <c r="KT15" s="2">
         <v>1.4873205919536001E-4</v>
       </c>
-      <c r="KU15">
+      <c r="KU15" s="2">
         <v>-0.87791263983741896</v>
       </c>
-      <c r="KV15">
+      <c r="KV15" s="2">
         <v>2.23098088793039E-4</v>
       </c>
-      <c r="KW15">
+      <c r="KW15" s="2">
         <v>-1.1186501192095999</v>
       </c>
-      <c r="KX15">
+      <c r="KX15" s="2">
         <v>2.0450658139361901E-3</v>
       </c>
-      <c r="KY15">
+      <c r="KY15" s="2">
         <v>2.08758288994055</v>
       </c>
-      <c r="KZ15" s="1">
+      <c r="KZ15" s="3">
         <v>3.7183014798839901E-5</v>
       </c>
-      <c r="LA15">
+      <c r="LA15" s="2">
         <v>-0.59774847746231097</v>
       </c>
-      <c r="LB15">
+      <c r="LB15" s="2">
         <v>4.8337919238491901E-4</v>
       </c>
-      <c r="LC15">
+      <c r="LC15" s="2">
         <v>-0.22908487325023399</v>
       </c>
-      <c r="LD15">
+      <c r="LD15" s="2">
         <v>1.8591507399419899E-4</v>
       </c>
-      <c r="LE15">
+      <c r="LE15" s="2">
         <v>-0.52007518875480996</v>
       </c>
-      <c r="LF15">
+      <c r="LF15" s="2">
         <v>7.80843310775638E-4</v>
       </c>
-      <c r="LG15">
+      <c r="LG15" s="2">
         <v>0.309666486040999</v>
       </c>
-      <c r="LH15" s="1">
+      <c r="LH15" s="3">
         <v>7.4366029597679802E-5</v>
       </c>
-      <c r="LI15">
+      <c r="LI15" s="2">
         <v>-0.53110386942048504</v>
       </c>
-      <c r="LJ15">
+      <c r="LJ15" s="2">
         <v>8.5520934037331699E-4</v>
       </c>
-      <c r="LK15">
+      <c r="LK15" s="2">
         <v>0.60538823301342404</v>
       </c>
-      <c r="LL15">
+      <c r="LL15" s="2">
         <v>1.7104186807466301E-3</v>
       </c>
-      <c r="LM15">
+      <c r="LM15" s="2">
         <v>1.5427254683583</v>
       </c>
-      <c r="LN15">
-        <v>0</v>
-      </c>
-      <c r="LO15">
+      <c r="LN15" s="2">
+        <v>0</v>
+      </c>
+      <c r="LO15" s="2">
         <v>-0.60950998987818705</v>
       </c>
-      <c r="LP15">
+      <c r="LP15" s="2">
         <v>3.3464713318955897E-4</v>
       </c>
-      <c r="LQ15">
+      <c r="LQ15" s="2">
         <v>-0.69048778457774296</v>
       </c>
-      <c r="LR15">
+      <c r="LR15" s="2">
         <v>1.2270394883617201E-3</v>
       </c>
-      <c r="LS15">
+      <c r="LS15" s="2">
         <v>1.58247284165032</v>
       </c>
-      <c r="LT15">
+      <c r="LT15" s="2">
         <v>2.6028110359187901E-4</v>
       </c>
-      <c r="LU15">
+      <c r="LU15" s="2">
         <v>-0.71735883810467904</v>
       </c>
-      <c r="LV15">
+      <c r="LV15" s="2">
         <v>4.0901316278723899E-4</v>
       </c>
-      <c r="LW15">
+      <c r="LW15" s="2">
         <v>-0.25887327578270197</v>
       </c>
-      <c r="LX15">
+      <c r="LX15" s="2">
         <v>7.4366029597679802E-4</v>
       </c>
-      <c r="LY15">
+      <c r="LY15" s="2">
         <v>0.56345985494631401</v>
       </c>
-      <c r="LZ15">
+      <c r="LZ15" s="2">
         <v>1.1154904439652E-4</v>
       </c>
-      <c r="MA15">
+      <c r="MA15" s="2">
         <v>-0.57190546106699403</v>
       </c>
-      <c r="MB15">
-        <v>0</v>
-      </c>
-      <c r="MC15">
+      <c r="MB15" s="2">
+        <v>0</v>
+      </c>
+      <c r="MC15" s="2">
         <v>-0.82041427325567795</v>
       </c>
-      <c r="MD15">
+      <c r="MD15" s="2">
         <v>3.3464713318955897E-4</v>
       </c>
-      <c r="ME15">
+      <c r="ME15" s="2">
         <v>-0.50235867004592005</v>
       </c>
-      <c r="MF15">
+      <c r="MF15" s="2">
         <v>2.23098088793039E-4</v>
       </c>
-      <c r="MG15">
+      <c r="MG15" s="2">
         <v>-0.73725442350209902</v>
       </c>
-      <c r="MH15">
+      <c r="MH15" s="2">
         <v>2.23098088793039E-4</v>
       </c>
-      <c r="MI15">
+      <c r="MI15" s="2">
         <v>-0.77076117090284402</v>
       </c>
-      <c r="MJ15">
+      <c r="MJ15" s="2">
         <v>1.1154904439652E-4</v>
       </c>
-      <c r="MK15">
+      <c r="MK15" s="2">
         <v>-0.96167725221393996</v>
       </c>
-      <c r="ML15">
+      <c r="ML15" s="2">
         <v>5.57745221982598E-4</v>
       </c>
-      <c r="MM15">
+      <c r="MM15" s="2">
         <v>0.20728343096105101</v>
       </c>
-      <c r="MN15">
+      <c r="MN15" s="2">
         <v>4.0901316278723899E-4</v>
       </c>
-      <c r="MO15">
+      <c r="MO15" s="2">
         <v>-0.32522752700919499</v>
       </c>
-      <c r="MP15">
+      <c r="MP15" s="2">
         <v>1.1526734587640401E-3</v>
       </c>
-      <c r="MQ15">
+      <c r="MQ15" s="2">
         <v>1.2259819371459399</v>
       </c>
-      <c r="MR15" s="1">
+      <c r="MR15" s="3">
         <v>7.4366029597679802E-5</v>
       </c>
-      <c r="MS15">
+      <c r="MS15" s="2">
         <v>-0.27578427982600401</v>
       </c>
-      <c r="MT15" s="1">
+      <c r="MT15" s="3">
         <v>3.7183014798839901E-5</v>
       </c>
-      <c r="MU15">
+      <c r="MU15" s="2">
         <v>-0.82631623584935598</v>
       </c>
-      <c r="MV15">
+      <c r="MV15" s="2">
         <v>3.3464713318955897E-4</v>
       </c>
-      <c r="MW15">
+      <c r="MW15" s="2">
         <v>-0.62409717150200195</v>
       </c>
-      <c r="MX15">
+      <c r="MX15" s="2">
         <v>1.4873205919536001E-4</v>
       </c>
-      <c r="MY15">
+      <c r="MY15" s="2">
         <v>-0.92651157876198798</v>
       </c>
-      <c r="MZ15">
+      <c r="MZ15" s="2">
         <v>1.1526734587640401E-3</v>
       </c>
-      <c r="NA15">
+      <c r="NA15" s="2">
         <v>1.3108867909247499</v>
       </c>
-      <c r="NB15">
+      <c r="NB15" s="2">
         <v>2.6028110359187901E-4</v>
       </c>
-      <c r="NC15">
+      <c r="NC15" s="2">
         <v>-0.79352795237158502</v>
       </c>
-      <c r="ND15">
+      <c r="ND15" s="2">
         <v>1.0783074291663599E-3</v>
       </c>
-      <c r="NE15">
+      <c r="NE15" s="2">
         <v>1.1163209303511099</v>
       </c>
-      <c r="NF15">
+      <c r="NF15" s="2">
         <v>6.6929426637911795E-4</v>
       </c>
-      <c r="NG15">
+      <c r="NG15" s="2">
         <v>0.50688855668140997</v>
       </c>
-      <c r="NH15">
+      <c r="NH15" s="2">
         <v>4.8337919238491901E-4</v>
       </c>
-      <c r="NI15">
+      <c r="NI15" s="2">
         <v>8.2534271957844397E-3</v>
       </c>
-      <c r="NJ15">
+      <c r="NJ15" s="2">
         <v>1.1154904439651999E-3</v>
       </c>
-      <c r="NK15">
+      <c r="NK15" s="2">
         <v>0.98067027149994901</v>
       </c>
-      <c r="NL15">
+      <c r="NL15" s="2">
         <v>1.1154904439652E-4</v>
       </c>
-      <c r="NM15">
+      <c r="NM15" s="2">
         <v>-0.70339532247497705</v>
       </c>
-      <c r="NN15">
+      <c r="NN15" s="2">
         <v>2.23098088793039E-4</v>
       </c>
-      <c r="NO15">
+      <c r="NO15" s="2">
         <v>-0.545836216860343</v>
       </c>
-      <c r="NP15">
+      <c r="NP15" s="2">
         <v>7.4366029597679802E-4</v>
       </c>
-      <c r="NQ15">
+      <c r="NQ15" s="2">
         <v>0.54179230216750995</v>
       </c>
-      <c r="NR15">
+      <c r="NR15" s="2">
         <v>2.9746411839071899E-4</v>
       </c>
-      <c r="NS15">
+      <c r="NS15" s="2">
         <v>-0.50918028780696201</v>
       </c>
-      <c r="NT15">
+      <c r="NT15" s="2">
         <v>4.8337919238491901E-4</v>
       </c>
-      <c r="NU15">
+      <c r="NU15" s="2">
         <v>4.0928714758352303E-2</v>
       </c>
-      <c r="NV15">
+      <c r="NV15" s="2">
         <v>2.9746411839071899E-4</v>
       </c>
-      <c r="NW15">
+      <c r="NW15" s="2">
         <v>-0.62413147534624902</v>
       </c>
-      <c r="NX15">
+      <c r="NX15" s="2">
         <v>1.6732356659478001E-3</v>
       </c>
-      <c r="NY15">
+      <c r="NY15" s="2">
         <v>2.4310881138490199</v>
       </c>
-      <c r="NZ15">
+      <c r="NZ15" s="2">
         <v>2.9746411839071899E-4</v>
       </c>
-      <c r="OA15">
+      <c r="OA15" s="2">
         <v>-0.55643657086628795</v>
       </c>
-      <c r="OB15">
+      <c r="OB15" s="2">
         <v>1.41295456235592E-3</v>
       </c>
-      <c r="OC15">
+      <c r="OC15" s="2">
         <v>1.66438754746347</v>
       </c>
-      <c r="OD15">
+      <c r="OD15" s="2">
         <v>4.8337919238491901E-4</v>
       </c>
-      <c r="OE15">
+      <c r="OE15" s="2">
         <v>5.0435876990184002E-2</v>
       </c>
-      <c r="OF15">
+      <c r="OF15" s="2">
         <v>1.9706997843385102E-3</v>
       </c>
-      <c r="OG15">
+      <c r="OG15" s="2">
         <v>2.7011969682757502</v>
       </c>
-      <c r="OH15">
-        <v>0</v>
-      </c>
-      <c r="OI15">
+      <c r="OH15" s="2">
+        <v>0</v>
+      </c>
+      <c r="OI15" s="2">
         <v>-0.59343277059958</v>
       </c>
-      <c r="OJ15">
+      <c r="OJ15" s="2">
         <v>1.8591507399419899E-4</v>
       </c>
-      <c r="OK15">
+      <c r="OK15" s="2">
         <v>-0.51829315459491299</v>
       </c>
-      <c r="OL15">
+      <c r="OL15" s="2">
         <v>5.2056220718375802E-4</v>
       </c>
-      <c r="OM15">
+      <c r="OM15" s="2">
         <v>0.177418393301772</v>
       </c>
-      <c r="ON15">
+      <c r="ON15" s="2">
         <v>5.9492823678143798E-4</v>
       </c>
-      <c r="OO15">
+      <c r="OO15" s="2">
         <v>0.39778455718302402</v>
       </c>
-      <c r="OP15">
+      <c r="OP15" s="2">
         <v>1.4873205919536001E-4</v>
       </c>
-      <c r="OQ15">
+      <c r="OQ15" s="2">
         <v>-1.0572035689344099</v>
       </c>
-      <c r="OR15" s="1">
+      <c r="OR15" s="3">
         <v>3.7183014798839901E-5</v>
       </c>
-      <c r="OS15">
+      <c r="OS15" s="2">
         <v>-0.473230116270344</v>
       </c>
-      <c r="OT15">
+      <c r="OT15" s="2">
         <v>1.1154904439652E-4</v>
       </c>
-      <c r="OU15">
+      <c r="OU15" s="2">
         <v>-0.54890150993033604</v>
       </c>
-      <c r="OV15">
-        <v>0</v>
-      </c>
-      <c r="OW15">
+      <c r="OV15" s="2">
+        <v>0</v>
+      </c>
+      <c r="OW15" s="2">
         <v>-1.1248772521875501</v>
       </c>
-      <c r="OX15" s="1">
+      <c r="OX15" s="3">
         <v>7.4366029597679802E-5</v>
       </c>
-      <c r="OY15">
+      <c r="OY15" s="2">
         <v>-0.76337679106880096</v>
       </c>
-      <c r="OZ15">
+      <c r="OZ15" s="2">
         <v>4.4619617758607898E-4</v>
       </c>
-      <c r="PA15">
+      <c r="PA15" s="2">
         <v>-3.9293739158313898E-3</v>
       </c>
-      <c r="PB15" s="1">
+      <c r="PB15" s="3">
         <v>3.7183014798839901E-5</v>
       </c>
-      <c r="PC15">
+      <c r="PC15" s="2">
         <v>-0.838295641118048</v>
       </c>
-      <c r="PD15">
-        <v>0</v>
-      </c>
-      <c r="PE15">
+      <c r="PD15" s="2">
+        <v>0</v>
+      </c>
+      <c r="PE15" s="2">
         <v>-0.47829858883758197</v>
       </c>
-      <c r="PF15">
+      <c r="PF15" s="2">
         <v>7.80843310775638E-4</v>
       </c>
-      <c r="PG15">
+      <c r="PG15" s="2">
         <v>1.3280632936730099</v>
       </c>
-      <c r="PH15" s="1">
+      <c r="PH15" s="3">
         <v>3.7183014798839901E-5</v>
       </c>
-      <c r="PI15">
+      <c r="PI15" s="2">
         <v>-0.55123221338542605</v>
       </c>
-      <c r="PJ15">
+      <c r="PJ15" s="2">
         <v>4.8337919238491901E-4</v>
       </c>
-      <c r="PK15">
+      <c r="PK15" s="2">
         <v>0.11061931827959599</v>
       </c>
-      <c r="PL15">
+      <c r="PL15" s="2">
         <v>3.7183014798839901E-4</v>
       </c>
-      <c r="PM15">
+      <c r="PM15" s="2">
         <v>-0.178650895641362</v>
       </c>
-      <c r="PN15">
+      <c r="PN15" s="2">
         <v>2.9746411839071899E-4</v>
       </c>
-      <c r="PO15">
+      <c r="PO15" s="2">
         <v>-0.34780972345932099</v>
       </c>
-      <c r="PP15">
+      <c r="PP15" s="2">
         <v>4.8337919238491901E-4</v>
       </c>
-      <c r="PQ15">
+      <c r="PQ15" s="2">
         <v>0.18883024843113599</v>
       </c>
-      <c r="PR15">
+      <c r="PR15" s="2">
         <v>1.1154904439652E-4</v>
       </c>
-      <c r="PS15">
+      <c r="PS15" s="2">
         <v>-0.58408468131771696</v>
       </c>
-      <c r="PT15" s="1">
+      <c r="PT15" s="3">
         <v>7.4366029597679802E-5</v>
       </c>
-      <c r="PU15">
+      <c r="PU15" s="2">
         <v>-0.78728554930585504</v>
       </c>
-      <c r="PV15">
+      <c r="PV15" s="2">
         <v>4.0901316278723899E-4</v>
       </c>
-      <c r="PW15">
+      <c r="PW15" s="2">
         <v>-3.0935960194829901E-2</v>
       </c>
-      <c r="PX15">
-        <v>0</v>
-      </c>
-      <c r="PY15">
+      <c r="PX15" s="2">
+        <v>0</v>
+      </c>
+      <c r="PY15" s="2">
         <v>-0.35062633104535601</v>
       </c>
-      <c r="PZ15">
+      <c r="PZ15" s="2">
         <v>2.6028110359187901E-4</v>
       </c>
-      <c r="QA15">
+      <c r="QA15" s="2">
         <v>-0.32653573012703302</v>
       </c>
-      <c r="QB15">
+      <c r="QB15" s="2">
         <v>2.6028110359187901E-4</v>
       </c>
-      <c r="QC15">
+      <c r="QC15" s="2">
         <v>-0.38974961723238499</v>
       </c>
-      <c r="QD15">
+      <c r="QD15" s="2">
         <v>2.6028110359187901E-4</v>
       </c>
-      <c r="QE15">
+      <c r="QE15" s="2">
         <v>-0.54214088314512598</v>
       </c>
-      <c r="QF15">
+      <c r="QF15" s="2">
         <v>1.4873205919536001E-4</v>
       </c>
-      <c r="QG15">
+      <c r="QG15" s="2">
         <v>-0.99065735152426304</v>
       </c>
-      <c r="QH15">
+      <c r="QH15" s="2">
         <v>2.9746411839071899E-4</v>
       </c>
-      <c r="QI15">
+      <c r="QI15" s="2">
         <v>-0.31502519982410099</v>
       </c>
-      <c r="QJ15">
+      <c r="QJ15" s="2">
         <v>9.2957536997099696E-4</v>
       </c>
-      <c r="QK15">
+      <c r="QK15" s="2">
         <v>1.64356603555244</v>
       </c>
-      <c r="QL15">
+      <c r="QL15" s="2">
         <v>7.4366029597679802E-4</v>
       </c>
-      <c r="QM15">
+      <c r="QM15" s="2">
         <v>0.87502579483870502</v>
       </c>
-      <c r="QN15">
+      <c r="QN15" s="2">
         <v>2.6028110359187901E-4</v>
       </c>
-      <c r="QO15">
+      <c r="QO15" s="2">
         <v>-0.35086569211385199</v>
       </c>
-      <c r="QP15">
+      <c r="QP15" s="2">
         <v>1.1154904439652E-4</v>
       </c>
-      <c r="QQ15">
+      <c r="QQ15" s="2">
         <v>-0.90190222595001301</v>
       </c>
-      <c r="QR15">
+      <c r="QR15" s="2">
         <v>3.3464713318955897E-4</v>
       </c>
-      <c r="QS15">
+      <c r="QS15" s="2">
         <v>-0.13451593374662599</v>
       </c>
-      <c r="QT15">
+      <c r="QT15" s="2">
         <v>2.6028110359187901E-4</v>
       </c>
-      <c r="QU15">
+      <c r="QU15" s="2">
         <v>-0.42717935355126602</v>
       </c>
-      <c r="QV15" s="1">
+      <c r="QV15" s="3">
         <v>7.4366029597679802E-5</v>
       </c>
-      <c r="QW15">
+      <c r="QW15" s="2">
         <v>-0.82200675853396998</v>
       </c>
-      <c r="QX15">
+      <c r="QX15" s="2">
         <v>2.23098088793039E-4</v>
       </c>
-      <c r="QY15">
+      <c r="QY15" s="2">
         <v>-0.37593892391402101</v>
       </c>
-      <c r="QZ15">
+      <c r="QZ15" s="2">
         <v>9.6675838476983705E-4</v>
       </c>
-      <c r="RA15">
+      <c r="RA15" s="2">
         <v>1.4184251056869499</v>
       </c>
-      <c r="RB15">
+      <c r="RB15" s="2">
         <v>3.7183014798839901E-4</v>
       </c>
-      <c r="RC15">
+      <c r="RC15" s="2">
         <v>1.4818067314436001E-2</v>
       </c>
-      <c r="RD15">
+      <c r="RD15" s="2">
         <v>3.7183014798839901E-4</v>
       </c>
-      <c r="RE15">
+      <c r="RE15" s="2">
         <v>1.41747759771691E-2</v>
       </c>
-      <c r="RF15">
-        <v>0</v>
-      </c>
-      <c r="RG15">
+      <c r="RF15" s="2">
+        <v>0</v>
+      </c>
+      <c r="RG15" s="2">
         <v>-0.74487358506840495</v>
       </c>
-      <c r="RH15">
+      <c r="RH15" s="2">
         <v>5.57745221982598E-4</v>
       </c>
-      <c r="RI15">
+      <c r="RI15" s="2">
         <v>0.49256838239644102</v>
       </c>
-      <c r="RJ15">
+      <c r="RJ15" s="2">
         <v>6.3211125158027797E-4</v>
       </c>
-      <c r="RK15">
+      <c r="RK15" s="2">
         <v>0.72012864280044298</v>
       </c>
-      <c r="RL15">
+      <c r="RL15" s="2">
         <v>2.6028110359187901E-4</v>
       </c>
-      <c r="RM15">
+      <c r="RM15" s="2">
         <v>-0.37367468518831398</v>
       </c>
-      <c r="RN15">
+      <c r="RN15" s="2">
         <v>4.0901316278723899E-4</v>
       </c>
-      <c r="RO15">
+      <c r="RO15" s="2">
         <v>0.15810495323893101</v>
       </c>
-      <c r="RP15">
+      <c r="RP15" s="2">
         <v>1.8591507399419899E-4</v>
       </c>
-      <c r="RQ15">
+      <c r="RQ15" s="2">
         <v>-0.48641875861815798</v>
       </c>
-      <c r="RR15">
+      <c r="RR15" s="2">
         <v>8.5520934037331699E-4</v>
       </c>
-      <c r="RS15">
+      <c r="RS15" s="2">
         <v>1.8119233109836601</v>
       </c>
-      <c r="RT15">
+      <c r="RT15" s="2">
         <v>5.9492823678143798E-4</v>
       </c>
-      <c r="RU15">
+      <c r="RU15" s="2">
         <v>0.86231951884119795</v>
       </c>
-      <c r="RV15">
+      <c r="RV15" s="2">
         <v>2.9746411839071899E-4</v>
       </c>
-      <c r="RW15">
+      <c r="RW15" s="2">
         <v>-0.24432665222105199</v>
       </c>
-      <c r="RX15">
-        <v>0</v>
-      </c>
-      <c r="RY15">
+      <c r="RX15" s="2">
+        <v>0</v>
+      </c>
+      <c r="RY15" s="2">
         <v>-0.92070028694814998</v>
       </c>
-      <c r="RZ15">
-        <v>0</v>
-      </c>
-      <c r="SA15">
+      <c r="RZ15" s="2">
+        <v>0</v>
+      </c>
+      <c r="SA15" s="2">
         <v>-0.25819888974716099</v>
       </c>
-      <c r="SB15">
-        <v>0</v>
-      </c>
-      <c r="SC15">
+      <c r="SB15" s="2">
+        <v>0</v>
+      </c>
+      <c r="SC15" s="2">
         <v>-0.90242944157691396</v>
       </c>
-      <c r="SD15" s="1">
+      <c r="SD15" s="3">
         <v>7.4366029597679802E-5</v>
       </c>
-      <c r="SE15">
+      <c r="SE15" s="2">
         <v>-0.40024102196032801</v>
       </c>
-      <c r="SF15">
+      <c r="SF15" s="2">
         <v>1.1154904439652E-4</v>
       </c>
-      <c r="SG15">
+      <c r="SG15" s="2">
         <v>-0.49305838734478502</v>
       </c>
-      <c r="SH15">
+      <c r="SH15" s="2">
         <v>3.3464713318955897E-4</v>
       </c>
-      <c r="SI15">
+      <c r="SI15" s="2">
         <v>-4.7952331738552498E-2</v>
       </c>
-      <c r="SJ15">
+      <c r="SJ15" s="2">
         <v>2.6028110359187901E-4</v>
       </c>
-      <c r="SK15">
+      <c r="SK15" s="2">
         <v>-0.28619793211826999</v>
       </c>
-      <c r="SL15">
+      <c r="SL15" s="2">
         <v>1.00394139956868E-3</v>
       </c>
-      <c r="SM15">
+      <c r="SM15" s="2">
         <v>1.9667303385443</v>
       </c>
-      <c r="SN15" s="1">
+      <c r="SN15" s="3">
         <v>3.7183014798839901E-5</v>
       </c>
-      <c r="SO15">
+      <c r="SO15" s="2">
         <v>-0.71924614009582299</v>
       </c>
-      <c r="SP15">
+      <c r="SP15" s="2">
         <v>4.8337919238491901E-4</v>
       </c>
-      <c r="SQ15">
+      <c r="SQ15" s="2">
         <v>0.32483749683291602</v>
       </c>
-      <c r="SR15">
+      <c r="SR15" s="2">
         <v>1.1154904439652E-4</v>
       </c>
-      <c r="SS15">
+      <c r="SS15" s="2">
         <v>-0.40957868911079598</v>
       </c>
-      <c r="ST15">
+      <c r="ST15" s="2">
         <v>6.6929426637911795E-4</v>
       </c>
-      <c r="SU15">
+      <c r="SU15" s="2">
         <v>1.21589725848236</v>
       </c>
-      <c r="SV15">
+      <c r="SV15" s="2">
         <v>1.1154904439652E-4</v>
       </c>
-      <c r="SW15">
+      <c r="SW15" s="2">
         <v>-0.80259262798491104</v>
       </c>
-      <c r="SX15">
+      <c r="SX15" s="2">
         <v>1.4873205919536001E-4</v>
       </c>
-      <c r="SY15">
+      <c r="SY15" s="2">
         <v>-0.43461035403598203</v>
       </c>
-      <c r="SZ15">
+      <c r="SZ15" s="2">
         <v>2.6028110359187901E-4</v>
       </c>
-      <c r="TA15">
+      <c r="TA15" s="2">
         <v>-0.24032556398577501</v>
       </c>
-      <c r="TB15">
+      <c r="TB15" s="2">
         <v>1.0411244143675199E-3</v>
       </c>
-      <c r="TC15">
+      <c r="TC15" s="2">
         <v>2.4319241507271898</v>
       </c>
-      <c r="TD15">
+      <c r="TD15" s="2">
         <v>9.2957536997099696E-4</v>
       </c>
-      <c r="TE15">
+      <c r="TE15" s="2">
         <v>1.90876043515978</v>
       </c>
-      <c r="TF15">
+      <c r="TF15" s="2">
         <v>8.9239235517215697E-4</v>
       </c>
-      <c r="TG15">
+      <c r="TG15" s="2">
         <v>1.96676930522217</v>
       </c>
-      <c r="TH15">
+      <c r="TH15" s="2">
         <v>4.8337919238491901E-4</v>
       </c>
-      <c r="TI15">
+      <c r="TI15" s="2">
         <v>0.81949933970274103</v>
       </c>
-      <c r="TJ15" s="1">
+      <c r="TJ15" s="3">
         <v>3.7183014798839901E-5</v>
       </c>
-      <c r="TK15">
+      <c r="TK15" s="2">
         <v>-0.658043224832777</v>
       </c>
-      <c r="TL15">
+      <c r="TL15" s="2">
         <v>2.6028110359187901E-4</v>
       </c>
-      <c r="TM15">
+      <c r="TM15" s="2">
         <v>-0.20529506994007701</v>
       </c>
-      <c r="TN15">
+      <c r="TN15" s="2">
         <v>2.6028110359187901E-4</v>
       </c>
-      <c r="TO15">
+      <c r="TO15" s="2">
         <v>-0.22322167760110501</v>
       </c>
-      <c r="TP15">
+      <c r="TP15" s="2">
         <v>4.4619617758607898E-4</v>
       </c>
-      <c r="TQ15">
+      <c r="TQ15" s="2">
         <v>0.433689524842576</v>
       </c>
-      <c r="TR15">
+      <c r="TR15" s="2">
         <v>3.7183014798839901E-4</v>
       </c>
-      <c r="TS15">
+      <c r="TS15" s="2">
         <v>0.214376582367407</v>
       </c>
-      <c r="TT15">
-        <v>0</v>
-      </c>
-      <c r="TU15">
+      <c r="TT15" s="2">
+        <v>0</v>
+      </c>
+      <c r="TU15" s="2">
         <v>-0.32314397601716199</v>
       </c>
-      <c r="TV15">
-        <v>0</v>
-      </c>
-      <c r="TW15">
+      <c r="TV15" s="2">
+        <v>0</v>
+      </c>
+      <c r="TW15" s="2">
         <v>-0.47306358165275297</v>
       </c>
-      <c r="TX15">
+      <c r="TX15" s="2">
         <v>1.1154904439652E-4</v>
       </c>
-      <c r="TY15">
+      <c r="TY15" s="2">
         <v>-1.0340845065317801</v>
       </c>
-      <c r="TZ15">
+      <c r="TZ15" s="2">
         <v>7.4366029597679802E-4</v>
       </c>
-      <c r="UA15">
+      <c r="UA15" s="2">
         <v>1.29658363563164</v>
       </c>
-      <c r="UB15">
+      <c r="UB15" s="2">
         <v>5.57745221982598E-4</v>
       </c>
-      <c r="UC15">
+      <c r="UC15" s="2">
         <v>0.51041657923780603</v>
       </c>
-      <c r="UD15">
-        <v>0</v>
-      </c>
-      <c r="UE15">
+      <c r="UD15" s="2">
+        <v>0</v>
+      </c>
+      <c r="UE15" s="2">
         <v>-0.67490878876064098</v>
       </c>
-      <c r="UF15">
+      <c r="UF15" s="2">
         <v>5.2056220718375802E-4</v>
       </c>
-      <c r="UG15">
+      <c r="UG15" s="2">
         <v>0.65305876696419596</v>
       </c>
-      <c r="UH15">
+      <c r="UH15" s="2">
         <v>2.9746411839071899E-4</v>
       </c>
-      <c r="UI15">
+      <c r="UI15" s="2">
         <v>-4.2958370401973499E-2</v>
       </c>
-      <c r="UJ15">
-        <v>0</v>
-      </c>
-      <c r="UK15">
+      <c r="UJ15" s="2">
+        <v>0</v>
+      </c>
+      <c r="UK15" s="2">
         <v>-0.92666389905400603</v>
       </c>
-      <c r="UL15">
+      <c r="UL15" s="2">
         <v>1.8591507399419899E-4</v>
       </c>
-      <c r="UM15">
+      <c r="UM15" s="2">
         <v>-0.37814572414144298</v>
       </c>
-      <c r="UN15">
+      <c r="UN15" s="2">
         <v>1.1154904439652E-4</v>
       </c>
-      <c r="UO15">
+      <c r="UO15" s="2">
         <v>-0.66639132376605004</v>
       </c>
-      <c r="UP15">
+      <c r="UP15" s="2">
         <v>4.4619617758607898E-4</v>
       </c>
-      <c r="UQ15">
+      <c r="UQ15" s="2">
         <v>0.460735752305382</v>
       </c>
-      <c r="UR15">
+      <c r="UR15" s="2">
         <v>3.7183014798839901E-4</v>
       </c>
-      <c r="US15">
+      <c r="US15" s="2">
         <v>0.23037693985839799</v>
       </c>
-      <c r="UT15">
+      <c r="UT15" s="2">
         <v>1.1154904439652E-4</v>
       </c>
-      <c r="UU15">
+      <c r="UU15" s="2">
         <v>-0.99051328504168401</v>
       </c>
-      <c r="UV15">
-        <v>0</v>
-      </c>
-      <c r="UW15">
+      <c r="UV15" s="2">
+        <v>0</v>
+      </c>
+      <c r="UW15" s="2">
         <v>-0.25819888974716099</v>
       </c>
-      <c r="UX15">
+      <c r="UX15" s="2">
         <v>3.7183014798839901E-4</v>
       </c>
-      <c r="UY15">
+      <c r="UY15" s="2">
         <v>0.41803845554728197</v>
       </c>
-      <c r="UZ15">
+      <c r="UZ15" s="2">
         <v>1.8591507399419899E-4</v>
       </c>
-      <c r="VA15">
+      <c r="VA15" s="2">
         <v>-0.27796989751117401</v>
       </c>
-      <c r="VB15">
-        <v>0</v>
-      </c>
-      <c r="VC15">
+      <c r="VB15" s="2">
+        <v>0</v>
+      </c>
+      <c r="VC15" s="2">
         <v>-1.0852384325143001</v>
       </c>
-      <c r="VD15">
+      <c r="VD15" s="2">
         <v>5.57745221982598E-4</v>
       </c>
-      <c r="VE15">
+      <c r="VE15" s="2">
         <v>0.718246535562024</v>
       </c>
-      <c r="VF15">
+      <c r="VF15" s="2">
         <v>2.23098088793039E-4</v>
       </c>
-      <c r="VG15">
+      <c r="VG15" s="2">
         <v>-0.26850744350370098</v>
       </c>
-      <c r="VH15">
+      <c r="VH15" s="2">
         <v>2.23098088793039E-4</v>
       </c>
-      <c r="VI15">
+      <c r="VI15" s="2">
         <v>-0.19410445196215301</v>
       </c>
-      <c r="VJ15">
-        <v>0</v>
-      </c>
-      <c r="VK15">
+      <c r="VJ15" s="2">
+        <v>0</v>
+      </c>
+      <c r="VK15" s="2">
         <v>-0.48995822423075203</v>
       </c>
-      <c r="VL15" s="1">
+      <c r="VL15" s="3">
         <v>7.4366029597679802E-5</v>
       </c>
-      <c r="VM15">
+      <c r="VM15" s="2">
         <v>-0.98633824176093499</v>
       </c>
-      <c r="VN15" s="1">
+      <c r="VN15" s="3">
         <v>7.4366029597679802E-5</v>
       </c>
-      <c r="VO15">
+      <c r="VO15" s="2">
         <v>-0.82818211533614305</v>
       </c>
-      <c r="VP15">
+      <c r="VP15" s="2">
         <v>4.0901316278723899E-4</v>
       </c>
-      <c r="VQ15">
+      <c r="VQ15" s="2">
         <v>0.77648773309111196</v>
       </c>
-      <c r="VR15" s="1">
+      <c r="VR15" s="3">
         <v>3.7183014798839901E-5</v>
       </c>
-      <c r="VS15">
+      <c r="VS15" s="2">
         <v>-1.4315155470102501</v>
       </c>
-      <c r="VT15">
-        <v>0</v>
-      </c>
-      <c r="VU15">
+      <c r="VT15" s="2">
+        <v>0</v>
+      </c>
+      <c r="VU15" s="2">
         <v>-0.78907614560153905</v>
       </c>
-      <c r="VV15" s="1">
+      <c r="VV15" s="3">
         <v>3.7183014798839901E-5</v>
       </c>
-      <c r="VW15">
+      <c r="VW15" s="2">
         <v>-0.68396772954669505</v>
       </c>
-      <c r="VX15">
+      <c r="VX15" s="2">
         <v>4.4619617758607898E-4</v>
       </c>
-      <c r="VY15">
+      <c r="VY15" s="2">
         <v>0.57235723933000004</v>
       </c>
-      <c r="VZ15">
+      <c r="VZ15" s="2">
         <v>3.7183014798839901E-4</v>
       </c>
-      <c r="WA15">
+      <c r="WA15" s="2">
         <v>0.284095103558061</v>
       </c>
-      <c r="WB15">
-        <v>0</v>
-      </c>
-      <c r="WC15">
+      <c r="WB15" s="2">
+        <v>0</v>
+      </c>
+      <c r="WC15" s="2">
         <v>-0.91348457320738297</v>
       </c>
-      <c r="WD15">
+      <c r="WD15" s="2">
         <v>1.8591507399419899E-4</v>
       </c>
-      <c r="WE15">
+      <c r="WE15" s="2">
         <v>-0.42569694853160001</v>
       </c>
-      <c r="WF15">
+      <c r="WF15" s="2">
         <v>9.6675838476983705E-4</v>
       </c>
-      <c r="WG15">
+      <c r="WG15" s="2">
         <v>2.4129551239603599</v>
       </c>
-      <c r="WH15">
+      <c r="WH15" s="2">
         <v>6.3211125158027797E-4</v>
       </c>
-      <c r="WI15">
+      <c r="WI15" s="2">
         <v>1.62143950805491</v>
       </c>
-      <c r="WJ15">
+      <c r="WJ15" s="2">
         <v>2.23098088793039E-4</v>
       </c>
-      <c r="WK15">
+      <c r="WK15" s="2">
         <v>-0.190033442867244</v>
       </c>
-      <c r="WL15">
+      <c r="WL15" s="2">
         <v>2.23098088793039E-4</v>
       </c>
-      <c r="WM15">
+      <c r="WM15" s="2">
         <v>-0.35330618748078002</v>
       </c>
-      <c r="WN15">
-        <v>0</v>
-      </c>
-      <c r="WO15">
+      <c r="WN15" s="2">
+        <v>0</v>
+      </c>
+      <c r="WO15" s="2">
         <v>-0.62203221316991197</v>
       </c>
-      <c r="WP15">
+      <c r="WP15" s="2">
         <v>1.4873205919536001E-4</v>
       </c>
-      <c r="WQ15">
+      <c r="WQ15" s="2">
         <v>-0.820746878793292</v>
       </c>
-      <c r="WR15">
+      <c r="WR15" s="2">
         <v>5.9492823678143798E-4</v>
       </c>
-      <c r="WS15">
+      <c r="WS15" s="2">
         <v>1.3524785801741599</v>
       </c>
-      <c r="WT15">
+      <c r="WT15" s="2">
         <v>2.23098088793039E-4</v>
       </c>
-      <c r="WU15">
+      <c r="WU15" s="2">
         <v>-0.28692620447364697</v>
       </c>
-      <c r="WV15">
+      <c r="WV15" s="2">
         <v>5.57745221982598E-4</v>
       </c>
-      <c r="WW15">
+      <c r="WW15" s="2">
         <v>1.31302324211373</v>
       </c>
-      <c r="WX15">
+      <c r="WX15" s="2">
         <v>2.23098088793039E-4</v>
       </c>
-      <c r="WY15">
+      <c r="WY15" s="2">
         <v>-0.28222343568222802</v>
       </c>
-      <c r="WZ15">
+      <c r="WZ15" s="2">
         <v>2.9746411839071899E-4</v>
       </c>
-      <c r="XA15">
+      <c r="XA15" s="2">
         <v>8.1631205327614795E-2</v>
       </c>
-      <c r="XB15" s="1">
+      <c r="XB15" s="3">
         <v>7.4366029597679802E-5</v>
       </c>
-      <c r="XC15">
+      <c r="XC15" s="2">
         <v>-0.50744943971249501</v>
       </c>
-      <c r="XD15">
+      <c r="XD15" s="2">
         <v>1.8591507399419899E-4</v>
       </c>
-      <c r="XE15">
+      <c r="XE15" s="2">
         <v>-0.45141607536013201</v>
       </c>
-      <c r="XF15">
+      <c r="XF15" s="2">
         <v>1.1154904439652E-4</v>
       </c>
-      <c r="XG15">
+      <c r="XG15" s="2">
         <v>-0.69915680471725095</v>
       </c>
-      <c r="XH15" s="1">
+      <c r="XH15" s="3">
         <v>3.7183014798839901E-5</v>
       </c>
-      <c r="XI15">
+      <c r="XI15" s="2">
         <v>-0.89236825964308197</v>
       </c>
-      <c r="XJ15">
-        <v>0</v>
-      </c>
-      <c r="XK15">
+      <c r="XJ15" s="2">
+        <v>0</v>
+      </c>
+      <c r="XK15" s="2">
         <v>-0.63140544270063903</v>
       </c>
-      <c r="XL15">
+      <c r="XL15" s="2">
         <v>3.3464713318955897E-4</v>
       </c>
-      <c r="XM15">
+      <c r="XM15" s="2">
         <v>0.17973804157273601</v>
       </c>
-      <c r="XN15" s="1">
+      <c r="XN15" s="3">
         <v>7.4366029597679802E-5</v>
       </c>
-      <c r="XO15">
+      <c r="XO15" s="2">
         <v>-0.66621426532607997</v>
       </c>
-      <c r="XP15">
+      <c r="XP15" s="2">
         <v>2.23098088793039E-4</v>
       </c>
-      <c r="XQ15">
+      <c r="XQ15" s="2">
         <v>-0.244858475420033</v>
       </c>
-      <c r="XR15">
+      <c r="XR15" s="2">
         <v>7.4366029597679802E-4</v>
       </c>
-      <c r="XS15">
+      <c r="XS15" s="2">
         <v>1.70426844169223</v>
       </c>
-      <c r="XT15" s="1">
+      <c r="XT15" s="3">
         <v>7.4366029597679802E-5</v>
       </c>
-      <c r="XU15">
+      <c r="XU15" s="2">
         <v>-0.57809587218223701</v>
       </c>
-      <c r="XV15">
+      <c r="XV15" s="2">
         <v>6.6929426637911795E-4</v>
       </c>
-      <c r="XW15">
+      <c r="XW15" s="2">
         <v>1.0994567317272901</v>
       </c>
-      <c r="XX15" s="1">
+      <c r="XX15" s="3">
         <v>7.4366029597679802E-5</v>
       </c>
-      <c r="XY15">
+      <c r="XY15" s="2">
         <v>-0.80902187064768405</v>
       </c>
-      <c r="XZ15">
+      <c r="XZ15" s="2">
         <v>1.2642225031605601E-3</v>
       </c>
-      <c r="YA15">
+      <c r="YA15" s="2">
         <v>2.83776273030466</v>
       </c>
-      <c r="YB15">
+      <c r="YB15" s="2">
         <v>7.4366029597679802E-4</v>
       </c>
-      <c r="YC15">
+      <c r="YC15" s="2">
         <v>1.6295998308576101</v>
       </c>
-      <c r="YD15">
+      <c r="YD15" s="2">
         <v>2.9746411839071899E-4</v>
       </c>
-      <c r="YE15">
+      <c r="YE15" s="2">
         <v>0.15687610978911801</v>
       </c>
-      <c r="YF15">
+      <c r="YF15" s="2">
         <v>4.0901316278723899E-4</v>
       </c>
-      <c r="YG15">
+      <c r="YG15" s="2">
         <v>0.50084360025535701</v>
       </c>
-      <c r="YH15">
+      <c r="YH15" s="2">
         <v>1.1154904439652E-4</v>
       </c>
-      <c r="YI15">
+      <c r="YI15" s="2">
         <v>-0.388012617811612</v>
       </c>
-      <c r="YJ15">
+      <c r="YJ15" s="2">
         <v>1.1154904439652E-4</v>
       </c>
-      <c r="YK15">
+      <c r="YK15" s="2">
         <v>-0.51881189755021995</v>
       </c>
-      <c r="YL15">
+      <c r="YL15" s="2">
         <v>7.0647728117795804E-4</v>
       </c>
-      <c r="YM15">
+      <c r="YM15" s="2">
         <v>1.6685554292946001</v>
       </c>
-      <c r="YN15">
+      <c r="YN15" s="2">
         <v>4.8337919238491901E-4</v>
       </c>
-      <c r="YO15">
+      <c r="YO15" s="2">
         <v>1.26979092953726</v>
       </c>
-      <c r="YP15">
+      <c r="YP15" s="2">
         <v>4.8337919238491901E-4</v>
       </c>
-      <c r="YQ15">
+      <c r="YQ15" s="2">
         <v>0.60022744418691898</v>
       </c>
-      <c r="YR15" s="1">
+      <c r="YR15" s="3">
         <v>7.4366029597679802E-5</v>
       </c>
-      <c r="YS15">
+      <c r="YS15" s="2">
         <v>-0.94348690679178604</v>
       </c>
-      <c r="YT15">
-        <v>0</v>
-      </c>
-      <c r="YU15">
+      <c r="YT15" s="2">
+        <v>0</v>
+      </c>
+      <c r="YU15" s="2">
         <v>-0.86071965059911804</v>
       </c>
-      <c r="YV15">
+      <c r="YV15" s="2">
         <v>2.23098088793039E-4</v>
       </c>
-      <c r="YW15">
+      <c r="YW15" s="2">
         <v>-0.15515704063291799</v>
       </c>
-      <c r="YX15">
-        <v>0</v>
-      </c>
-      <c r="YY15">
+      <c r="YX15" s="2">
+        <v>0</v>
+      </c>
+      <c r="YY15" s="2">
         <v>-1.09003277409356</v>
       </c>
-      <c r="YZ15">
+      <c r="YZ15" s="2">
         <v>2.6028110359187901E-4</v>
       </c>
-      <c r="ZA15">
+      <c r="ZA15" s="2">
         <v>3.2762845113286802E-2</v>
       </c>
-      <c r="ZB15" s="1">
+      <c r="ZB15" s="3">
         <v>3.7183014798839901E-5</v>
       </c>
-      <c r="ZC15">
+      <c r="ZC15" s="2">
         <v>-0.44243934380240602</v>
       </c>
-      <c r="ZD15">
+      <c r="ZD15" s="2">
         <v>4.0901316278723899E-4</v>
       </c>
-      <c r="ZE15">
+      <c r="ZE15" s="2">
         <v>0.66193707134763802</v>
       </c>
-      <c r="ZF15">
+      <c r="ZF15" s="2">
         <v>2.23098088793039E-4</v>
       </c>
-      <c r="ZG15">
+      <c r="ZG15" s="2">
         <v>-0.11120441017400801</v>
       </c>
-      <c r="ZH15">
+      <c r="ZH15" s="2">
         <v>6.3211125158027797E-4</v>
       </c>
-      <c r="ZI15">
+      <c r="ZI15" s="2">
         <v>1.74824921680203</v>
       </c>
-      <c r="ZJ15" s="1">
+      <c r="ZJ15" s="3">
         <v>7.4366029597679802E-5</v>
       </c>
-      <c r="ZK15">
+      <c r="ZK15" s="2">
         <v>-0.64402138869318004</v>
       </c>
-      <c r="ZL15">
+      <c r="ZL15" s="2">
         <v>1.1154904439652E-4</v>
       </c>
-      <c r="ZM15">
+      <c r="ZM15" s="2">
         <v>-0.52387114862193296</v>
       </c>
-      <c r="ZN15">
-        <v>0</v>
-      </c>
-      <c r="ZO15">
+      <c r="ZN15" s="2">
+        <v>0</v>
+      </c>
+      <c r="ZO15" s="2">
         <v>-0.55640012589947496</v>
       </c>
-      <c r="ZP15">
+      <c r="ZP15" s="2">
         <v>1.00394139956868E-3</v>
       </c>
-      <c r="ZQ15">
+      <c r="ZQ15" s="2">
         <v>2.5465769090428299</v>
       </c>
-      <c r="ZR15">
-        <v>0</v>
-      </c>
-      <c r="ZS15">
+      <c r="ZR15" s="2">
+        <v>0</v>
+      </c>
+      <c r="ZS15" s="2">
         <v>-0.65979865228957701</v>
       </c>
-      <c r="ZT15">
+      <c r="ZT15" s="2">
         <v>4.4619617758607898E-4</v>
       </c>
-      <c r="ZU15">
+      <c r="ZU15" s="2">
         <v>0.60468856430244</v>
       </c>
-      <c r="ZV15">
-        <v>0</v>
-      </c>
-      <c r="ZW15">
+      <c r="ZV15" s="2">
+        <v>0</v>
+      </c>
+      <c r="ZW15" s="2">
         <v>-0.36896238848851098</v>
       </c>
-      <c r="ZX15">
+      <c r="ZX15" s="2">
         <v>2.23098088793039E-4</v>
       </c>
-      <c r="ZY15">
+      <c r="ZY15" s="2">
         <v>-9.3021586102572607E-2</v>
       </c>
-      <c r="ZZ15">
+      <c r="ZZ15" s="2">
         <v>4.4619617758607898E-4</v>
       </c>
-      <c r="AAA15">
+      <c r="AAA15" s="2">
         <v>0.93000555412096897</v>
       </c>
-      <c r="AAB15">
+      <c r="AAB15" s="2">
         <v>2.9746411839071899E-4</v>
       </c>
-      <c r="AAC15">
+      <c r="AAC15" s="2">
         <v>0.17303464715028699</v>
       </c>
-      <c r="AAD15">
+      <c r="AAD15" s="2">
         <v>1.4873205919536001E-4</v>
       </c>
-      <c r="AAE15">
+      <c r="AAE15" s="2">
         <v>-0.89101645607814794</v>
       </c>
-      <c r="AAF15">
-        <v>0</v>
-      </c>
-      <c r="AAG15">
+      <c r="AAF15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AAG15" s="2">
         <v>-0.66471401383907203</v>
       </c>
-      <c r="AAH15">
+      <c r="AAH15" s="2">
         <v>8.1802632557447799E-4</v>
       </c>
-      <c r="AAI15">
+      <c r="AAI15" s="2">
         <v>1.99080826538153</v>
       </c>
-      <c r="AAJ15">
+      <c r="AAJ15" s="2">
         <v>2.6028110359187901E-4</v>
       </c>
-      <c r="AAK15">
+      <c r="AAK15" s="2">
         <v>9.4292889481048497E-2</v>
       </c>
-      <c r="AAL15" s="1">
+      <c r="AAL15" s="3">
         <v>7.4366029597679802E-5</v>
       </c>
-      <c r="AAM15">
+      <c r="AAM15" s="2">
         <v>-0.86000792039193397</v>
       </c>
-      <c r="AAN15" s="1">
+      <c r="AAN15" s="3">
         <v>3.7183014798839901E-5</v>
       </c>
-      <c r="AAO15">
+      <c r="AAO15" s="2">
         <v>-0.88994695472897101</v>
       </c>
-      <c r="AAP15">
+      <c r="AAP15" s="2">
         <v>1.1154904439652E-4</v>
       </c>
-      <c r="AAQ15">
+      <c r="AAQ15" s="2">
         <v>-0.54445487219956501</v>
       </c>
-      <c r="AAR15">
+      <c r="AAR15" s="2">
         <v>5.57745221982598E-4</v>
       </c>
-      <c r="AAS15">
+      <c r="AAS15" s="2">
         <v>1.89274119552523</v>
       </c>
-      <c r="AAT15">
+      <c r="AAT15" s="2">
         <v>7.0647728117795804E-4</v>
       </c>
-      <c r="AAU15">
+      <c r="AAU15" s="2">
         <v>2.0252644943370099</v>
       </c>
-      <c r="AAV15" s="1">
+      <c r="AAV15" s="3">
         <v>7.4366029597679802E-5</v>
       </c>
-      <c r="AAW15">
+      <c r="AAW15" s="2">
         <v>-0.361867913919805</v>
       </c>
-      <c r="AAX15">
+      <c r="AAX15" s="2">
         <v>3.3464713318955897E-4</v>
       </c>
-      <c r="AAY15">
+      <c r="AAY15" s="2">
         <v>0.59843794236150305</v>
       </c>
-      <c r="AAZ15">
+      <c r="AAZ15" s="2">
         <v>1.1154904439652E-4</v>
       </c>
-      <c r="ABA15">
+      <c r="ABA15" s="2">
         <v>-0.50125522396892097</v>
       </c>
-      <c r="ABB15">
+      <c r="ABB15" s="2">
         <v>2.23098088793039E-4</v>
       </c>
-      <c r="ABC15">
+      <c r="ABC15" s="2">
         <v>-9.9628402769797106E-2</v>
       </c>
-      <c r="ABD15">
+      <c r="ABD15" s="2">
         <v>1.1154904439652E-4</v>
       </c>
-      <c r="ABE15">
+      <c r="ABE15" s="2">
         <v>-0.56607982797888501</v>
       </c>
-      <c r="ABF15" s="1">
+      <c r="ABF15" s="3">
         <v>7.4366029597679802E-5</v>
       </c>
-      <c r="ABG15">
+      <c r="ABG15" s="2">
         <v>-0.83451938319693997</v>
       </c>
-      <c r="ABH15">
+      <c r="ABH15" s="2">
         <v>1.0411244143675199E-3</v>
       </c>
-      <c r="ABI15">
+      <c r="ABI15" s="2">
         <v>2.62514349557431</v>
       </c>
-      <c r="ABJ15">
-        <v>0</v>
-      </c>
-      <c r="ABK15">
+      <c r="ABJ15" s="2">
+        <v>0</v>
+      </c>
+      <c r="ABK15" s="2">
         <v>-0.311523781414489</v>
       </c>
-      <c r="ABL15" s="1">
+      <c r="ABL15" s="3">
         <v>3.7183014798839901E-5</v>
       </c>
-      <c r="ABM15">
+      <c r="ABM15" s="2">
         <v>-0.97163389907784803</v>
       </c>
-      <c r="ABN15">
+      <c r="ABN15" s="2">
         <v>1.4873205919536001E-4</v>
       </c>
-      <c r="ABO15">
+      <c r="ABO15" s="2">
         <v>-0.35122013620027198</v>
       </c>
-      <c r="ABP15">
+      <c r="ABP15" s="2">
         <v>9.2957536997099696E-4</v>
       </c>
-      <c r="ABQ15">
+      <c r="ABQ15" s="2">
         <v>2.05881432039196</v>
       </c>
-      <c r="ABR15">
-        <v>0</v>
-      </c>
-      <c r="ABS15">
+      <c r="ABR15" s="2">
+        <v>0</v>
+      </c>
+      <c r="ABS15" s="2">
         <v>-0.59721409793963998</v>
       </c>
-      <c r="ABT15">
+      <c r="ABT15" s="2">
         <v>1.8591507399419899E-4</v>
       </c>
-      <c r="ABU15">
+      <c r="ABU15" s="2">
         <v>-0.204840357919095</v>
       </c>
-      <c r="ABV15" s="1">
+      <c r="ABV15" s="3">
         <v>7.4366029597679802E-5</v>
       </c>
-      <c r="ABW15">
+      <c r="ABW15" s="2">
         <v>-0.640201351550305</v>
       </c>
-      <c r="ABX15">
+      <c r="ABX15" s="2">
         <v>1.1154904439652E-4</v>
       </c>
-      <c r="ABY15">
+      <c r="ABY15" s="2">
         <v>-0.73226097611086804</v>
       </c>
-      <c r="ABZ15">
+      <c r="ABZ15" s="2">
         <v>2.23098088793039E-4</v>
       </c>
-      <c r="ACA15">
+      <c r="ACA15" s="2">
         <v>-3.9622328507911302E-2</v>
       </c>
-      <c r="ACB15" s="1">
+      <c r="ACB15" s="3">
         <v>7.4366029597679802E-5</v>
       </c>
-      <c r="ACC15">
+      <c r="ACC15" s="2">
         <v>-0.65023385014400203</v>
       </c>
-      <c r="ACD15">
-        <v>0</v>
-      </c>
-      <c r="ACE15">
+      <c r="ACD15" s="2">
+        <v>0</v>
+      </c>
+      <c r="ACE15" s="2">
         <v>-0.77987661851858203</v>
       </c>
-      <c r="ACF15">
+      <c r="ACF15" s="2">
         <v>5.9492823678143798E-4</v>
       </c>
-      <c r="ACG15">
+      <c r="ACG15" s="2">
         <v>1.2647543408945601</v>
       </c>
-      <c r="ACH15">
+      <c r="ACH15" s="2">
         <v>4.8337919238491901E-4</v>
       </c>
-      <c r="ACI15">
+      <c r="ACI15" s="2">
         <v>1.06151031863629</v>
       </c>
-      <c r="ACJ15">
-        <v>0</v>
-      </c>
-      <c r="ACK15">
+      <c r="ACJ15" s="2">
+        <v>0</v>
+      </c>
+      <c r="ACK15" s="2">
         <v>-0.81610889859253</v>
       </c>
-      <c r="ACL15">
+      <c r="ACL15" s="2">
         <v>1.1154904439652E-4</v>
       </c>
-      <c r="ACM15">
+      <c r="ACM15" s="2">
         <v>-0.69539123563836702</v>
       </c>
-      <c r="ACN15">
+      <c r="ACN15" s="2">
         <v>4.4619617758607898E-4</v>
       </c>
-      <c r="ACO15">
+      <c r="ACO15" s="2">
         <v>0.85970246626749502</v>
       </c>
-      <c r="ACP15">
+      <c r="ACP15" s="2">
         <v>5.57745221982598E-4</v>
       </c>
-      <c r="ACQ15">
+      <c r="ACQ15" s="2">
         <v>1.1040991946327099</v>
       </c>
-      <c r="ACR15">
+      <c r="ACR15" s="2">
         <v>3.3464713318955897E-4</v>
       </c>
-      <c r="ACS15">
+      <c r="ACS15" s="2">
         <v>0.43515089385580402</v>
       </c>
-      <c r="ACT15">
+      <c r="ACT15" s="2">
         <v>1.1154904439652E-4</v>
       </c>
-      <c r="ACU15">
+      <c r="ACU15" s="2">
         <v>-0.61654000697966005</v>
       </c>
-      <c r="ACV15">
+      <c r="ACV15" s="2">
         <v>6.3211125158027797E-4</v>
       </c>
-      <c r="ACW15">
+      <c r="ACW15" s="2">
         <v>1.9410566335181501</v>
       </c>
-      <c r="ACX15">
+      <c r="ACX15" s="2">
         <v>1.1154904439652E-4</v>
       </c>
-      <c r="ACY15">
+      <c r="ACY15" s="2">
         <v>-0.57280002230164995</v>
       </c>
-      <c r="ACZ15">
+      <c r="ACZ15" s="2">
         <v>2.6028110359187901E-4</v>
       </c>
-      <c r="ADA15">
+      <c r="ADA15" s="2">
         <v>0.236457565652302</v>
       </c>
-      <c r="ADB15">
+      <c r="ADB15" s="2">
         <v>4.0901316278723899E-4</v>
       </c>
-      <c r="ADC15">
+      <c r="ADC15" s="2">
         <v>0.73902804879172501</v>
       </c>
-      <c r="ADD15">
+      <c r="ADD15" s="2">
         <v>3.3464713318955897E-4</v>
       </c>
-      <c r="ADE15">
+      <c r="ADE15" s="2">
         <v>0.42789335948162499</v>
       </c>
-      <c r="ADF15">
+      <c r="ADF15" s="2">
         <v>3.3464713318955897E-4</v>
       </c>
-      <c r="ADG15">
+      <c r="ADG15" s="2">
         <v>0.46281051221802999</v>
       </c>
-      <c r="ADH15">
-        <v>0</v>
-      </c>
-      <c r="ADI15">
+      <c r="ADH15" s="2">
+        <v>0</v>
+      </c>
+      <c r="ADI15" s="2">
         <v>-0.43967231929178302</v>
       </c>
-      <c r="ADJ15">
+      <c r="ADJ15" s="2">
         <v>2.6028110359187901E-4</v>
       </c>
-      <c r="ADK15">
+      <c r="ADK15" s="2">
         <v>0.242676669564904</v>
       </c>
-      <c r="ADL15">
+      <c r="ADL15" s="2">
         <v>1.8591507399419899E-4</v>
       </c>
-      <c r="ADM15">
+      <c r="ADM15" s="2">
         <v>-0.18007728269276699</v>
       </c>
-      <c r="ADN15" s="1">
+      <c r="ADN15" s="3">
         <v>3.7183014798839901E-5</v>
       </c>
-      <c r="ADO15">
+      <c r="ADO15" s="2">
         <v>-0.67333639842095505</v>
       </c>
-      <c r="ADP15">
+      <c r="ADP15" s="2">
         <v>2.23098088793039E-4</v>
       </c>
-      <c r="ADQ15">
+      <c r="ADQ15" s="2">
         <v>3.7217499012270498E-2</v>
       </c>
-      <c r="ADR15">
+      <c r="ADR15" s="2">
         <v>1.1154904439652E-4</v>
       </c>
-      <c r="ADS15">
+      <c r="ADS15" s="2">
         <v>-0.65912498693036803</v>
       </c>
-      <c r="ADT15">
+      <c r="ADT15" s="2">
         <v>3.7183014798839901E-4</v>
       </c>
-      <c r="ADU15">
+      <c r="ADU15" s="2">
         <v>0.50574704018827199</v>
       </c>
-      <c r="ADV15" s="1">
+      <c r="ADV15" s="3">
         <v>3.7183014798839901E-5</v>
       </c>
-      <c r="ADW15">
+      <c r="ADW15" s="2">
         <v>-0.64170825573082102</v>
       </c>
-      <c r="ADX15">
+      <c r="ADX15" s="2">
         <v>1.8591507399419899E-4</v>
       </c>
-      <c r="ADY15">
+      <c r="ADY15" s="2">
         <v>-0.19133335063087001</v>
       </c>
-      <c r="ADZ15">
+      <c r="ADZ15" s="2">
         <v>3.3464713318955897E-4</v>
       </c>
-      <c r="AEA15">
+      <c r="AEA15" s="2">
         <v>0.74942027929323696</v>
       </c>
-      <c r="AEB15">
-        <v>0</v>
-      </c>
-      <c r="AEC15">
+      <c r="AEB15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AEC15" s="2">
         <v>-0.68841786522347304</v>
       </c>
-      <c r="AED15">
+      <c r="AED15" s="2">
         <v>1.4873205919536001E-4</v>
       </c>
-      <c r="AEE15">
+      <c r="AEE15" s="2">
         <v>-0.418555086868453</v>
       </c>
-      <c r="AEF15">
+      <c r="AEF15" s="2">
         <v>6.3211125158027797E-4</v>
       </c>
-      <c r="AEG15">
+      <c r="AEG15" s="2">
         <v>1.50449938512154</v>
       </c>
-      <c r="AEH15">
+      <c r="AEH15" s="2">
         <v>1.4873205919536001E-4</v>
       </c>
-      <c r="AEI15">
+      <c r="AEI15" s="2">
         <v>-0.35554130631786901</v>
       </c>
-      <c r="AEJ15">
+      <c r="AEJ15" s="2">
         <v>2.23098088793039E-4</v>
       </c>
-      <c r="AEK15">
+      <c r="AEK15" s="2">
         <v>0.10610524777330201</v>
       </c>
-      <c r="AEL15">
+      <c r="AEL15" s="2">
         <v>2.6028110359187901E-4</v>
       </c>
-      <c r="AEM15">
+      <c r="AEM15" s="2">
         <v>0.31866071111772998</v>
       </c>
-      <c r="AEN15" s="1">
+      <c r="AEN15" s="3">
         <v>3.7183014798839901E-5</v>
       </c>
-      <c r="AEO15">
+      <c r="AEO15" s="2">
         <v>-0.57132946784246097</v>
       </c>
-      <c r="AEP15" s="1">
+      <c r="AEP15" s="3">
         <v>7.4366029597679802E-5</v>
       </c>
-      <c r="AEQ15">
+      <c r="AEQ15" s="2">
         <v>-0.69336686855412299</v>
       </c>
-      <c r="AER15">
+      <c r="AER15" s="2">
         <v>1.8591507399419899E-4</v>
       </c>
-      <c r="AES15">
+      <c r="AES15" s="2">
         <v>-0.137597805564766</v>
       </c>
-      <c r="AET15">
+      <c r="AET15" s="2">
         <v>2.9746411839071899E-4</v>
       </c>
-      <c r="AEU15">
+      <c r="AEU15" s="2">
         <v>0.55650226051565999</v>
       </c>
-      <c r="AEV15">
+      <c r="AEV15" s="2">
         <v>1.1154904439652E-4</v>
       </c>
-      <c r="AEW15">
+      <c r="AEW15" s="2">
         <v>-0.55565073301120205</v>
       </c>
-      <c r="AEX15">
-        <v>0</v>
-      </c>
-      <c r="AEY15">
+      <c r="AEX15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AEY15" s="2">
         <v>-0.34890215109304901</v>
       </c>
-      <c r="AEZ15">
+      <c r="AEZ15" s="2">
         <v>3.7183014798839901E-4</v>
       </c>
-      <c r="AFA15">
+      <c r="AFA15" s="2">
         <v>0.74276778582740199</v>
       </c>
-      <c r="AFB15">
+      <c r="AFB15" s="2">
         <v>4.0901316278723899E-4</v>
       </c>
-      <c r="AFC15">
+      <c r="AFC15" s="2">
         <v>0.90131376321326495</v>
       </c>
-      <c r="AFD15">
+      <c r="AFD15" s="2">
         <v>1.8591507399419899E-4</v>
       </c>
-      <c r="AFE15">
+      <c r="AFE15" s="2">
         <v>-9.98907672604082E-2</v>
       </c>
-      <c r="AFF15" s="1">
+      <c r="AFF15" s="3">
         <v>7.4366029597679802E-5</v>
       </c>
-      <c r="AFG15">
+      <c r="AFG15" s="2">
         <v>-0.90063430439112602</v>
       </c>
-      <c r="AFH15">
-        <v>0</v>
-      </c>
-      <c r="AFI15">
+      <c r="AFH15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AFI15" s="2">
         <v>-0.46806132418626101</v>
       </c>
-      <c r="AFJ15">
+      <c r="AFJ15" s="2">
         <v>7.80843310775638E-4</v>
       </c>
-      <c r="AFK15">
+      <c r="AFK15" s="2">
         <v>1.9652713197496099</v>
       </c>
-      <c r="AFL15" s="1">
+      <c r="AFL15" s="3">
         <v>3.7183014798839901E-5</v>
       </c>
-      <c r="AFM15">
+      <c r="AFM15" s="2">
         <v>-0.45749073120799599</v>
       </c>
-      <c r="AFN15" s="1">
+      <c r="AFN15" s="3">
         <v>7.4366029597679802E-5</v>
       </c>
-      <c r="AFO15">
+      <c r="AFO15" s="2">
         <v>-0.56571485710047897</v>
       </c>
-      <c r="AFP15" s="1">
+      <c r="AFP15" s="3">
         <v>7.4366029597679802E-5</v>
       </c>
-      <c r="AFQ15">
+      <c r="AFQ15" s="2">
         <v>-0.604567335551221</v>
       </c>
-      <c r="AFR15" s="1">
+      <c r="AFR15" s="3">
         <v>3.7183014798839901E-5</v>
       </c>
-      <c r="AFS15">
+      <c r="AFS15" s="2">
         <v>-0.93327419948467605</v>
       </c>
-      <c r="AFT15">
+      <c r="AFT15" s="2">
         <v>1.4873205919536001E-4</v>
       </c>
-      <c r="AFU15">
+      <c r="AFU15" s="2">
         <v>-0.35311020695080703</v>
       </c>
-      <c r="AFV15">
+      <c r="AFV15" s="2">
         <v>1.4873205919536001E-4</v>
       </c>
-      <c r="AFW15">
+      <c r="AFW15" s="2">
         <v>-0.30235982369511999</v>
       </c>
-      <c r="AFX15">
-        <v>0</v>
-      </c>
-      <c r="AFY15">
+      <c r="AFX15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AFY15" s="2">
         <v>-0.54568505457431404</v>
       </c>
-      <c r="AFZ15">
+      <c r="AFZ15" s="2">
         <v>2.9746411839071899E-4</v>
       </c>
-      <c r="AGA15">
+      <c r="AGA15" s="2">
         <v>0.472408779099521</v>
       </c>
-      <c r="AGB15" s="1">
+      <c r="AGB15" s="3">
         <v>7.4366029597679802E-5</v>
       </c>
-      <c r="AGC15">
+      <c r="AGC15" s="2">
         <v>-0.78704757967223804</v>
       </c>
-      <c r="AGD15">
-        <v>0</v>
-      </c>
-      <c r="AGE15">
+      <c r="AGD15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AGE15" s="2">
         <v>-0.584082646191044</v>
       </c>
-      <c r="AGF15" s="1">
+      <c r="AGF15" s="3">
         <v>3.7183014798839901E-5</v>
       </c>
-      <c r="AGG15">
+      <c r="AGG15" s="2">
         <v>-1.15271638781996</v>
       </c>
-      <c r="AGH15">
+      <c r="AGH15" s="2">
         <v>2.6028110359187901E-4</v>
       </c>
-      <c r="AGI15">
+      <c r="AGI15" s="2">
         <v>0.35788946079290801</v>
       </c>
-      <c r="AGJ15">
-        <v>0</v>
-      </c>
-      <c r="AGK15">
+      <c r="AGJ15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AGK15" s="2">
         <v>-0.57444588056026702</v>
       </c>
-      <c r="AGL15" s="1">
+      <c r="AGL15" s="3">
         <v>7.4366029597679802E-5</v>
       </c>
-      <c r="AGM15">
+      <c r="AGM15" s="2">
         <v>-0.53191371438965995</v>
       </c>
-      <c r="AGN15" s="1">
+      <c r="AGN15" s="3">
         <v>3.7183014798839901E-5</v>
       </c>
-      <c r="AGO15">
+      <c r="AGO15" s="2">
         <v>-0.60904911443016796</v>
       </c>
-      <c r="AGP15">
+      <c r="AGP15" s="2">
         <v>1.1154904439652E-4</v>
       </c>
-      <c r="AGQ15">
+      <c r="AGQ15" s="2">
         <v>-0.577735018829729</v>
       </c>
-      <c r="AGR15">
+      <c r="AGR15" s="2">
         <v>3.3464713318955897E-4</v>
       </c>
-      <c r="AGS15">
+      <c r="AGS15" s="2">
         <v>1.0272357564802399</v>
       </c>
-      <c r="AGT15">
+      <c r="AGT15" s="2">
         <v>1.8591507399419899E-4</v>
       </c>
-      <c r="AGU15">
+      <c r="AGU15" s="2">
         <v>-3.8905526779076403E-2</v>
       </c>
-      <c r="AGV15" s="1">
+      <c r="AGV15" s="3">
         <v>7.4366029597679802E-5</v>
       </c>
-      <c r="AGW15">
+      <c r="AGW15" s="2">
         <v>-0.92497669223454704</v>
       </c>
-      <c r="AGX15">
+      <c r="AGX15" s="2">
         <v>1.4873205919536001E-4</v>
       </c>
-      <c r="AGY15">
+      <c r="AGY15" s="2">
         <v>-0.24805927947885201</v>
       </c>
-      <c r="AGZ15">
+      <c r="AGZ15" s="2">
         <v>4.0901316278723899E-4</v>
       </c>
-      <c r="AHA15">
+      <c r="AHA15" s="2">
         <v>1.4918584744218499</v>
       </c>
-      <c r="AHB15">
+      <c r="AHB15" s="2">
         <v>2.23098088793039E-4</v>
       </c>
-      <c r="AHC15">
+      <c r="AHC15" s="2">
         <v>0.118934370753429</v>
       </c>
-      <c r="AHD15">
+      <c r="AHD15" s="2">
         <v>3.3464713318955897E-4</v>
       </c>
-      <c r="AHE15">
+      <c r="AHE15" s="2">
         <v>0.83323571282626696</v>
       </c>
-      <c r="AHF15">
+      <c r="AHF15" s="2">
         <v>1.8591507399419899E-4</v>
       </c>
-      <c r="AHG15">
+      <c r="AHG15" s="2">
         <v>-2.09051295602556E-2</v>
       </c>
-      <c r="AHH15">
+      <c r="AHH15" s="2">
         <v>8.9239235517215697E-4</v>
       </c>
-      <c r="AHI15">
+      <c r="AHI15" s="2">
         <v>2.8626746926836599</v>
       </c>
-      <c r="AHJ15" s="1">
+      <c r="AHJ15" s="3">
         <v>3.7183014798839901E-5</v>
       </c>
-      <c r="AHK15">
+      <c r="AHK15" s="2">
         <v>-0.97331670888843003</v>
       </c>
-      <c r="AHL15">
-        <v>0</v>
-      </c>
-      <c r="AHM15">
+      <c r="AHL15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AHM15" s="2">
         <v>-1.04296462353726</v>
       </c>
-      <c r="AHN15">
-        <v>0</v>
-      </c>
-      <c r="AHO15">
+      <c r="AHN15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AHO15" s="2">
         <v>-0.772946476590053</v>
       </c>
-      <c r="AHP15">
+      <c r="AHP15" s="2">
         <v>4.0901316278723899E-4</v>
       </c>
-      <c r="AHQ15">
+      <c r="AHQ15" s="2">
         <v>1.7938489230105199</v>
       </c>
-      <c r="AHR15">
+      <c r="AHR15" s="2">
         <v>2.23098088793039E-4</v>
       </c>
-      <c r="AHS15">
+      <c r="AHS15" s="2">
         <v>0.29442479964867102</v>
       </c>
-      <c r="AHT15">
+      <c r="AHT15" s="2">
         <v>3.3464713318955897E-4</v>
       </c>
-      <c r="AHU15">
+      <c r="AHU15" s="2">
         <v>0.74651620502446703</v>
       </c>
-      <c r="AHV15">
+      <c r="AHV15" s="2">
         <v>2.6028110359187901E-4</v>
       </c>
-      <c r="AHW15">
+      <c r="AHW15" s="2">
         <v>0.54019529629602603</v>
       </c>
-      <c r="AHX15">
+      <c r="AHX15" s="2">
         <v>1.8591507399419899E-4</v>
       </c>
-      <c r="AHY15">
+      <c r="AHY15" s="2">
         <v>1.33585260036633E-2</v>
       </c>
-      <c r="AHZ15" s="1">
+      <c r="AHZ15" s="3">
         <v>3.7183014798839901E-5</v>
       </c>
-      <c r="AIA15">
+      <c r="AIA15" s="2">
         <v>-0.673567904134736</v>
       </c>
-      <c r="AIB15" s="1">
+      <c r="AIB15" s="3">
         <v>3.7183014798839901E-5</v>
       </c>
-      <c r="AIC15">
+      <c r="AIC15" s="2">
         <v>-0.71201916854949199</v>
       </c>
-      <c r="AID15">
+      <c r="AID15" s="2">
         <v>2.23098088793039E-4</v>
       </c>
-      <c r="AIE15">
+      <c r="AIE15" s="2">
         <v>0.226024502778959</v>
       </c>
-      <c r="AIF15">
+      <c r="AIF15" s="2">
         <v>1.4873205919536001E-4</v>
       </c>
-      <c r="AIG15">
+      <c r="AIG15" s="2">
         <v>-0.253844708041706</v>
       </c>
-      <c r="AIH15">
+      <c r="AIH15" s="2">
         <v>1.1154904439652E-4</v>
       </c>
-      <c r="AII15">
+      <c r="AII15" s="2">
         <v>-0.46427802551659803</v>
       </c>
-      <c r="AIJ15">
+      <c r="AIJ15" s="2">
         <v>7.0647728117795804E-4</v>
       </c>
-      <c r="AIK15">
+      <c r="AIK15" s="2">
         <v>2.2316104160278099</v>
       </c>
-      <c r="AIL15">
+      <c r="AIL15" s="2">
         <v>1.4873205919536001E-4</v>
       </c>
-      <c r="AIM15">
+      <c r="AIM15" s="2">
         <v>-0.216618129472052</v>
       </c>
-      <c r="AIN15" s="1">
+      <c r="AIN15" s="3">
         <v>3.7183014798839901E-5</v>
       </c>
-      <c r="AIO15">
+      <c r="AIO15" s="2">
         <v>-0.61616621720305698</v>
       </c>
-      <c r="AIP15">
+      <c r="AIP15" s="2">
         <v>2.9746411839071899E-4</v>
       </c>
-      <c r="AIQ15">
+      <c r="AIQ15" s="2">
         <v>0.80187436977672999</v>
       </c>
-      <c r="AIR15" s="1">
+      <c r="AIR15" s="3">
         <v>7.4366029597679802E-5</v>
       </c>
-      <c r="AIS15">
+      <c r="AIS15" s="2">
         <v>-0.85420235322627502</v>
       </c>
-      <c r="AIT15" s="1">
+      <c r="AIT15" s="3">
         <v>3.7183014798839901E-5</v>
       </c>
-      <c r="AIU15">
+      <c r="AIU15" s="2">
         <v>-0.44023300129566401</v>
       </c>
-      <c r="AIV15">
+      <c r="AIV15" s="2">
         <v>2.9746411839071899E-4</v>
       </c>
-      <c r="AIW15">
+      <c r="AIW15" s="2">
         <v>0.66530662115071104</v>
       </c>
-      <c r="AIX15">
+      <c r="AIX15" s="2">
         <v>4.8337919238491901E-4</v>
       </c>
-      <c r="AIY15">
+      <c r="AIY15" s="2">
         <v>1.5478403671515399</v>
       </c>
-      <c r="AIZ15">
-        <v>0</v>
-      </c>
-      <c r="AJA15">
+      <c r="AIZ15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJA15" s="2">
         <v>-0.79671326008355103</v>
       </c>
-      <c r="AJB15">
+      <c r="AJB15" s="2">
         <v>1.1154904439652E-4</v>
       </c>
-      <c r="AJC15">
+      <c r="AJC15" s="2">
         <v>-0.34137695130310403</v>
       </c>
-      <c r="AJD15">
+      <c r="AJD15" s="2">
         <v>1.8591507399419899E-4</v>
       </c>
-      <c r="AJE15">
+      <c r="AJE15" s="2">
         <v>5.2695345706571903E-2</v>
       </c>
-      <c r="AJF15">
-        <v>0</v>
-      </c>
-      <c r="AJG15">
+      <c r="AJF15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJG15" s="2">
         <v>-0.57104576079984704</v>
       </c>
-      <c r="AJH15">
+      <c r="AJH15" s="2">
         <v>2.23098088793039E-4</v>
       </c>
-      <c r="AJI15">
+      <c r="AJI15" s="2">
         <v>0.247807252445613</v>
       </c>
-      <c r="AJJ15">
+      <c r="AJJ15" s="2">
         <v>1.1154904439652E-4</v>
       </c>
-      <c r="AJK15">
+      <c r="AJK15" s="2">
         <v>-0.430615255234994</v>
       </c>
-      <c r="AJL15">
-        <v>0</v>
-      </c>
-      <c r="AJM15">
+      <c r="AJL15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJM15" s="2">
         <v>-0.34521719048131899</v>
       </c>
-      <c r="AJN15">
+      <c r="AJN15" s="2">
         <v>1.1154904439652E-4</v>
       </c>
-      <c r="AJO15">
+      <c r="AJO15" s="2">
         <v>-0.49828796339752701</v>
       </c>
-      <c r="AJP15">
-        <v>0</v>
-      </c>
-      <c r="AJQ15">
+      <c r="AJP15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJQ15" s="2">
         <v>-1.16388174867441</v>
       </c>
-      <c r="AJR15">
+      <c r="AJR15" s="2">
         <v>2.23098088793039E-4</v>
       </c>
-      <c r="AJS15">
+      <c r="AJS15" s="2">
         <v>0.43250495096400299</v>
       </c>
-      <c r="AJT15">
-        <v>0</v>
-      </c>
-      <c r="AJU15">
+      <c r="AJT15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJU15" s="2">
         <v>-0.62242188034234103</v>
       </c>
-      <c r="AJV15">
+      <c r="AJV15" s="2">
         <v>1.1154904439652E-4</v>
       </c>
-      <c r="AJW15">
+      <c r="AJW15" s="2">
         <v>-0.273745720654265</v>
       </c>
-      <c r="AJX15" s="1">
+      <c r="AJX15" s="3">
         <v>7.4366029597679802E-5</v>
       </c>
-      <c r="AJY15">
+      <c r="AJY15" s="2">
         <v>-0.66498658373944097</v>
       </c>
-      <c r="AJZ15" s="1">
+      <c r="AJZ15" s="3">
         <v>7.4366029597679802E-5</v>
       </c>
-      <c r="AKA15">
+      <c r="AKA15" s="2">
         <v>-0.86600948280304302</v>
       </c>
-      <c r="AKB15" s="1">
+      <c r="AKB15" s="3">
         <v>7.4366029597679802E-5</v>
       </c>
-      <c r="AKC15">
+      <c r="AKC15" s="2">
         <v>-0.55382248130563105</v>
       </c>
-      <c r="AKD15" s="1">
+      <c r="AKD15" s="3">
         <v>3.7183014798839901E-5</v>
       </c>
-      <c r="AKE15">
+      <c r="AKE15" s="2">
         <v>-1.1878716574977799</v>
       </c>
-      <c r="AKF15">
+      <c r="AKF15" s="2">
         <v>1.8591507399419899E-4</v>
       </c>
-      <c r="AKG15">
+      <c r="AKG15" s="2">
         <v>5.3827990437783503E-2</v>
       </c>
-      <c r="AKH15">
+      <c r="AKH15" s="2">
         <v>2.6028110359187901E-4</v>
       </c>
-      <c r="AKI15">
+      <c r="AKI15" s="2">
         <v>0.54440419355325298</v>
       </c>
-      <c r="AKJ15" s="1">
+      <c r="AKJ15" s="3">
         <v>7.4366029597679802E-5</v>
       </c>
-      <c r="AKK15">
+      <c r="AKK15" s="2">
         <v>-0.72755611006593801</v>
       </c>
-      <c r="AKL15">
+      <c r="AKL15" s="2">
         <v>1.4873205919536001E-4</v>
       </c>
-      <c r="AKM15">
+      <c r="AKM15" s="2">
         <v>-9.9896717983092603E-2</v>
       </c>
-      <c r="AKN15" s="1">
+      <c r="AKN15" s="3">
         <v>3.7183014798839901E-5</v>
       </c>
-      <c r="AKO15">
+      <c r="AKO15" s="2">
         <v>-0.42507611149355401</v>
       </c>
-      <c r="AKP15">
+      <c r="AKP15" s="2">
         <v>1.8591507399419899E-4</v>
       </c>
-      <c r="AKQ15">
+      <c r="AKQ15" s="2">
         <v>8.7273866762425698E-2</v>
       </c>
-      <c r="AKR15">
+      <c r="AKR15" s="2">
         <v>3.7183014798839901E-4</v>
       </c>
-      <c r="AKS15">
+      <c r="AKS15" s="2">
         <v>1.0854950632801299</v>
       </c>
-      <c r="AKT15">
-        <v>0</v>
-      </c>
-      <c r="AKU15">
+      <c r="AKT15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AKU15" s="2">
         <v>-0.90880518038559199</v>
       </c>
-      <c r="AKV15" s="1">
+      <c r="AKV15" s="3">
         <v>3.7183014798839901E-5</v>
       </c>
-      <c r="AKW15">
+      <c r="AKW15" s="2">
         <v>-0.97402903648858696</v>
       </c>
-      <c r="AKX15">
-        <v>0</v>
-      </c>
-      <c r="AKY15">
+      <c r="AKX15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AKY15" s="2">
         <v>-0.95034224613004703</v>
       </c>
-      <c r="AKZ15" s="1">
+      <c r="AKZ15" s="3">
         <v>7.4366029597679802E-5</v>
       </c>
-      <c r="ALA15">
+      <c r="ALA15" s="2">
         <v>-0.64164792223385403</v>
       </c>
-      <c r="ALB15">
+      <c r="ALB15" s="2">
         <v>3.7183014798839901E-4</v>
       </c>
-      <c r="ALC15">
+      <c r="ALC15" s="2">
         <v>1.0069004066540299</v>
       </c>
-      <c r="ALD15">
+      <c r="ALD15" s="2">
         <v>2.23098088793039E-4</v>
       </c>
-      <c r="ALE15">
+      <c r="ALE15" s="2">
         <v>0.38983980299330501</v>
       </c>
-      <c r="ALF15">
-        <v>0</v>
-      </c>
-      <c r="ALG15">
+      <c r="ALF15" s="2">
+        <v>0</v>
+      </c>
+      <c r="ALG15" s="2">
         <v>-0.38469577617869599</v>
       </c>
-      <c r="ALH15">
+      <c r="ALH15" s="2">
         <v>5.2056220718375802E-4</v>
       </c>
-      <c r="ALI15">
+      <c r="ALI15" s="2">
         <v>1.81271734081772</v>
       </c>
-      <c r="ALJ15">
+      <c r="ALJ15" s="2">
         <v>3.3464713318955897E-4</v>
       </c>
-      <c r="ALK15">
+      <c r="ALK15" s="2">
         <v>1.2637232044119799</v>
       </c>
-      <c r="ALL15">
+      <c r="ALL15" s="2">
         <v>3.3464713318955897E-4</v>
       </c>
-      <c r="ALM15">
+      <c r="ALM15" s="2">
         <v>0.95932170271717399</v>
       </c>
-      <c r="ALN15">
+      <c r="ALN15" s="2">
         <v>4.8337919238491901E-4</v>
       </c>
-      <c r="ALO15">
+      <c r="ALO15" s="2">
         <v>1.45197614322863</v>
       </c>
-      <c r="ALP15">
+      <c r="ALP15" s="2">
         <v>4.0901316278723899E-4</v>
       </c>
-      <c r="ALQ15">
+      <c r="ALQ15" s="2">
         <v>1.2910165276524601</v>
       </c>
-      <c r="ALR15" s="1">
+      <c r="ALR15" s="3">
         <v>3.7183014798839901E-5</v>
       </c>
-      <c r="ALS15">
+      <c r="ALS15" s="2">
         <v>-0.74829249024789302</v>
       </c>
-      <c r="ALT15">
+      <c r="ALT15" s="2">
         <v>1.4873205919536001E-4</v>
       </c>
-      <c r="ALU15">
+      <c r="ALU15" s="2">
         <v>-0.101583359950704</v>
       </c>
-      <c r="ALV15">
+      <c r="ALV15" s="2">
         <v>3.7183014798839901E-4</v>
       </c>
-      <c r="ALW15">
+      <c r="ALW15" s="2">
         <v>1.34876336571744</v>
       </c>
-      <c r="ALX15">
-        <v>0</v>
-      </c>
-      <c r="ALY15">
+      <c r="ALX15" s="2">
+        <v>0</v>
+      </c>
+      <c r="ALY15" s="2">
         <v>-0.65970590058517398</v>
       </c>
-      <c r="ALZ15">
-        <v>0</v>
-      </c>
-      <c r="AMA15">
+      <c r="ALZ15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AMA15" s="2">
         <v>-0.57140147686437204</v>
       </c>
-      <c r="AMB15">
+      <c r="AMB15" s="2">
         <v>2.6028110359187901E-4</v>
       </c>
-      <c r="AMC15">
+      <c r="AMC15" s="2">
         <v>0.53984980665142601</v>
       </c>
-      <c r="AMD15">
-        <v>0</v>
-      </c>
-      <c r="AME15">
+      <c r="AMD15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AME15" s="2">
         <v>-0.60886025320077497</v>
       </c>
-      <c r="AMF15">
+      <c r="AMF15" s="2">
         <v>1.4873205919536001E-4</v>
       </c>
-      <c r="AMG15">
+      <c r="AMG15" s="2">
         <v>-4.7881202965467898E-2</v>
       </c>
-      <c r="AMH15">
+      <c r="AMH15" s="2">
         <v>1.4873205919536001E-4</v>
       </c>
-      <c r="AMI15">
+      <c r="AMI15" s="2">
         <v>-0.121850176147449</v>
       </c>
-      <c r="AMJ15">
-        <v>0</v>
-      </c>
-      <c r="AMK15">
+      <c r="AMJ15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AMK15" s="2">
         <v>-0.70170907304298502</v>
       </c>
-      <c r="AML15">
+      <c r="AML15" s="2">
         <v>3.3464713318955897E-4</v>
       </c>
-      <c r="AMM15">
+      <c r="AMM15" s="2">
         <v>1.1247266682147199</v>
       </c>
-      <c r="AMN15">
+      <c r="AMN15" s="2">
         <v>5.9492823678143798E-4</v>
       </c>
-      <c r="AMO15">
+      <c r="AMO15" s="2">
         <v>2.61979559822734</v>
       </c>
-      <c r="AMP15" s="1">
+      <c r="AMP15" s="3">
         <v>7.4366029597679802E-5</v>
       </c>
-      <c r="AMQ15">
+      <c r="AMQ15" s="2">
         <v>-0.484450921320494</v>
       </c>
-      <c r="AMR15" s="1">
+      <c r="AMR15" s="3">
         <v>3.7183014798839901E-5</v>
       </c>
-      <c r="AMS15">
+      <c r="AMS15" s="2">
         <v>-0.74998781384269497</v>
       </c>
-      <c r="AMT15" s="1">
+      <c r="AMT15" s="3">
         <v>3.7183014798839901E-5</v>
       </c>
-      <c r="AMU15">
+      <c r="AMU15" s="2">
         <v>-0.93423023979303699</v>
       </c>
-      <c r="AMV15" s="1">
+      <c r="AMV15" s="3">
         <v>7.4366029597679802E-5</v>
       </c>
-      <c r="AMW15">
+      <c r="AMW15" s="2">
         <v>-0.472137089709807</v>
       </c>
-      <c r="AMX15">
+      <c r="AMX15" s="2">
         <v>1.1154904439652E-4</v>
       </c>
-      <c r="AMY15">
+      <c r="AMY15" s="2">
         <v>-0.41724307271092598</v>
       </c>
-      <c r="AMZ15">
-        <v>0</v>
-      </c>
-      <c r="ANA15">
+      <c r="AMZ15" s="2">
+        <v>0</v>
+      </c>
+      <c r="ANA15" s="2">
         <v>-1.09118391335204</v>
       </c>
-      <c r="ANB15">
+      <c r="ANB15" s="2">
         <v>1.1154904439652E-4</v>
       </c>
-      <c r="ANC15">
+      <c r="ANC15" s="2">
         <v>-0.42640685867502598</v>
       </c>
-      <c r="AND15">
+      <c r="AND15" s="2">
         <v>2.6028110359187901E-4</v>
       </c>
-      <c r="ANE15">
+      <c r="ANE15" s="2">
         <v>0.63085223102842503</v>
       </c>
-      <c r="ANF15">
+      <c r="ANF15" s="2">
         <v>5.2056220718375802E-4</v>
       </c>
-      <c r="ANG15">
+      <c r="ANG15" s="2">
         <v>1.9267937592169599</v>
       </c>
-      <c r="ANH15">
+      <c r="ANH15" s="2">
         <v>1.1154904439652E-4</v>
       </c>
-      <c r="ANI15">
+      <c r="ANI15" s="2">
         <v>-0.156836105664061</v>
       </c>
-      <c r="ANJ15">
+      <c r="ANJ15" s="2">
         <v>2.23098088793039E-4</v>
       </c>
-      <c r="ANK15">
+      <c r="ANK15" s="2">
         <v>0.44270246996302998</v>
       </c>
-      <c r="ANL15">
+      <c r="ANL15" s="2">
         <v>1.4873205919536001E-4</v>
       </c>
-      <c r="ANM15">
+      <c r="ANM15" s="2">
         <v>-5.4897456384623802E-2</v>
       </c>
-      <c r="ANN15">
+      <c r="ANN15" s="2">
         <v>1.4873205919536001E-4</v>
       </c>
-      <c r="ANO15">
+      <c r="ANO15" s="2">
         <v>-5.3785734094247903E-2</v>
       </c>
-      <c r="ANP15">
-        <v>0</v>
-      </c>
-      <c r="ANQ15">
+      <c r="ANP15" s="2">
+        <v>0</v>
+      </c>
+      <c r="ANQ15" s="2">
         <v>-0.75154842985944703</v>
       </c>
-      <c r="ANR15" s="1">
+      <c r="ANR15" s="3">
         <v>3.7183014798839901E-5</v>
       </c>
-      <c r="ANS15">
+      <c r="ANS15" s="2">
         <v>-0.66450888309556599</v>
       </c>
-      <c r="ANT15" s="1">
+      <c r="ANT15" s="3">
         <v>3.7183014798839901E-5</v>
       </c>
-      <c r="ANU15">
+      <c r="ANU15" s="2">
         <v>-0.30228150852275798</v>
       </c>
-      <c r="ANV15">
+      <c r="ANV15" s="2">
         <v>5.57745221982598E-4</v>
       </c>
-      <c r="ANW15">
+      <c r="ANW15" s="2">
         <v>2.01682808021561</v>
       </c>
-      <c r="ANX15">
+      <c r="ANX15" s="2">
         <v>2.23098088793039E-4</v>
       </c>
-      <c r="ANY15">
+      <c r="ANY15" s="2">
         <v>0.30897214352396402</v>
       </c>
-      <c r="ANZ15">
-        <v>0</v>
-      </c>
-      <c r="AOA15">
+      <c r="ANZ15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AOA15" s="2">
         <v>-0.38376030806369399</v>
       </c>
-      <c r="AOB15">
-        <v>0</v>
-      </c>
-      <c r="AOC15">
+      <c r="AOB15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AOC15" s="2">
         <v>-0.98799508663556601</v>
       </c>
-      <c r="AOD15">
+      <c r="AOD15" s="2">
         <v>8.5520934037331699E-4</v>
       </c>
-      <c r="AOE15">
+      <c r="AOE15" s="2">
         <v>2.95622937561749</v>
       </c>
-      <c r="AOF15">
+      <c r="AOF15" s="2">
         <v>1.4873205919536001E-4</v>
       </c>
-      <c r="AOG15">
+      <c r="AOG15" s="2">
         <v>-2.4774947365444E-2</v>
       </c>
-      <c r="AOH15">
+      <c r="AOH15" s="2">
         <v>1.1154904439652E-4</v>
       </c>
-      <c r="AOI15">
+      <c r="AOI15" s="2">
         <v>-0.22943513058013801</v>
       </c>
-      <c r="AOJ15">
-        <v>0</v>
-      </c>
-      <c r="AOK15">
+      <c r="AOJ15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AOK15" s="2">
         <v>-0.80083052020144097</v>
       </c>
-      <c r="AOL15">
+      <c r="AOL15" s="2">
         <v>3.3464713318955897E-4</v>
       </c>
-      <c r="AOM15">
+      <c r="AOM15" s="2">
         <v>1.0867647384825501</v>
       </c>
-      <c r="AON15">
+      <c r="AON15" s="2">
         <v>2.9746411839071899E-4</v>
       </c>
-      <c r="AOO15">
+      <c r="AOO15" s="2">
         <v>0.79922040575778197</v>
       </c>
-      <c r="AOP15">
+      <c r="AOP15" s="2">
         <v>1.4873205919536001E-4</v>
       </c>
-      <c r="AOQ15">
+      <c r="AOQ15" s="2">
         <v>-1.4913574205099899E-2</v>
       </c>
-      <c r="AOR15">
-        <v>0</v>
-      </c>
-      <c r="AOS15">
+      <c r="AOR15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AOS15" s="2">
         <v>-0.73835128063665401</v>
       </c>
     </row>
-    <row r="16" spans="1:1085" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="16" spans="1:1085" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>3.6845907730415899E-2</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>-1.2119056600521401</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>2.6782949736814901E-2</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>-1.04960633713386</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>2.8795541335535101E-2</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <v>-1.0383336989373</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="2">
         <v>1.48622148828568E-2</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="2">
         <v>-0.86841172172575298</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="2">
         <v>7.8955516565177002E-3</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="2">
         <v>-1.18396831170266</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="2">
         <v>1.29012281969243E-2</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="2">
         <v>-0.19293459941932101</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="2">
         <v>1.1249870987718E-2</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="2">
         <v>-0.70131371894313999</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="2">
         <v>6.0893797089482896E-3</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="2">
         <v>-1.2046451757376699</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="2">
         <v>1.11466611621426E-2</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="2">
         <v>0.159210431475236</v>
       </c>
-      <c r="T16">
+      <c r="T16" s="2">
         <v>4.3864175869542804E-3</v>
       </c>
-      <c r="U16">
+      <c r="U16" s="2">
         <v>-1.1696220821005401</v>
       </c>
-      <c r="V16">
+      <c r="V16" s="2">
         <v>5.0056765404066497E-3</v>
       </c>
-      <c r="W16">
+      <c r="W16" s="2">
         <v>-0.80633507293406603</v>
       </c>
-      <c r="X16">
+      <c r="X16" s="2">
         <v>4.6444421508927596E-3</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" s="2">
         <v>-0.66407465393533205</v>
       </c>
-      <c r="Z16">
+      <c r="Z16" s="2">
         <v>7.3278976158530299E-3</v>
       </c>
-      <c r="AA16">
+      <c r="AA16" s="2">
         <v>0.13571153549509701</v>
       </c>
-      <c r="AB16">
+      <c r="AB16" s="2">
         <v>5.6765404066467101E-3</v>
       </c>
-      <c r="AC16">
+      <c r="AC16" s="2">
         <v>-0.13600016535873599</v>
       </c>
-      <c r="AD16">
+      <c r="AD16" s="2">
         <v>4.5412323253173703E-3</v>
       </c>
-      <c r="AE16">
+      <c r="AE16" s="2">
         <v>-0.37394202931020698</v>
       </c>
-      <c r="AF16">
+      <c r="AF16" s="2">
         <v>5.4185158427082301E-3</v>
       </c>
-      <c r="AG16">
+      <c r="AG16" s="2">
         <v>-3.95420294844121E-2</v>
       </c>
-      <c r="AH16">
+      <c r="AH16" s="2">
         <v>1.65135720920632E-3</v>
       </c>
-      <c r="AI16">
+      <c r="AI16" s="2">
         <v>-1.17607001245703</v>
       </c>
-      <c r="AJ16">
+      <c r="AJ16" s="2">
         <v>1.39333264526783E-3</v>
       </c>
-      <c r="AK16">
+      <c r="AK16" s="2">
         <v>-1.0935863899278599</v>
       </c>
-      <c r="AL16">
+      <c r="AL16" s="2">
         <v>4.8508618020435502E-3</v>
       </c>
-      <c r="AM16">
+      <c r="AM16" s="2">
         <v>-3.3410637426126003E-2</v>
       </c>
-      <c r="AN16">
+      <c r="AN16" s="2">
         <v>1.65135720920632E-3</v>
       </c>
-      <c r="AO16">
+      <c r="AO16" s="2">
         <v>-0.65652650016149405</v>
       </c>
-      <c r="AP16">
+      <c r="AP16" s="2">
         <v>3.5091340695634198E-3</v>
       </c>
-      <c r="AQ16">
+      <c r="AQ16" s="2">
         <v>-0.50700893885390097</v>
       </c>
-      <c r="AR16">
+      <c r="AR16" s="2">
         <v>4.4896274125296697E-3</v>
       </c>
-      <c r="AS16">
+      <c r="AS16" s="2">
         <v>1.9447368007857999E-2</v>
       </c>
-      <c r="AT16">
+      <c r="AT16" s="2">
         <v>1.34172773248013E-3</v>
       </c>
-      <c r="AU16">
+      <c r="AU16" s="2">
         <v>-0.92444910723615104</v>
       </c>
-      <c r="AV16">
+      <c r="AV16" s="2">
         <v>2.8382702033233598E-3</v>
       </c>
-      <c r="AW16">
+      <c r="AW16" s="2">
         <v>-0.38626067229859701</v>
       </c>
-      <c r="AX16">
+      <c r="AX16" s="2">
         <v>5.05728145319434E-3</v>
       </c>
-      <c r="AY16">
+      <c r="AY16" s="2">
         <v>0.32922205146413602</v>
       </c>
-      <c r="AZ16">
+      <c r="AZ16" s="2">
         <v>2.52864072659717E-3</v>
       </c>
-      <c r="BA16">
+      <c r="BA16" s="2">
         <v>-0.63652778583937297</v>
       </c>
-      <c r="BB16">
+      <c r="BB16" s="2">
         <v>2.4770358138094702E-3</v>
       </c>
-      <c r="BC16">
+      <c r="BC16" s="2">
         <v>-0.848877558891726</v>
       </c>
-      <c r="BD16">
+      <c r="BD16" s="2">
         <v>2.9414800288987499E-3</v>
       </c>
-      <c r="BE16">
+      <c r="BE16" s="2">
         <v>-0.51137785103502298</v>
       </c>
-      <c r="BF16">
+      <c r="BF16" s="2">
         <v>1.0320982557539501E-3</v>
       </c>
-      <c r="BG16">
+      <c r="BG16" s="2">
         <v>-0.92890966404480901</v>
       </c>
-      <c r="BH16">
+      <c r="BH16" s="2">
         <v>1.5481473836309199E-3</v>
       </c>
-      <c r="BI16">
+      <c r="BI16" s="2">
         <v>-0.88660443896138297</v>
       </c>
-      <c r="BJ16">
+      <c r="BJ16" s="2">
         <v>4.12839302301579E-3</v>
       </c>
-      <c r="BK16">
+      <c r="BK16" s="2">
         <v>0.209970508603499</v>
       </c>
-      <c r="BL16">
+      <c r="BL16" s="2">
         <v>4.0251831974403999E-3</v>
       </c>
-      <c r="BM16">
+      <c r="BM16" s="2">
         <v>0.70178676039642995</v>
       </c>
-      <c r="BN16">
+      <c r="BN16" s="2">
         <v>2.52864072659717E-3</v>
       </c>
-      <c r="BO16">
+      <c r="BO16" s="2">
         <v>-0.43479265697035102</v>
       </c>
-      <c r="BP16">
+      <c r="BP16" s="2">
         <v>2.5802456393848698E-3</v>
       </c>
-      <c r="BQ16">
+      <c r="BQ16" s="2">
         <v>-0.108823672457216</v>
       </c>
-      <c r="BR16">
+      <c r="BR16" s="2">
         <v>1.4965424708432199E-3</v>
       </c>
-      <c r="BS16">
+      <c r="BS16" s="2">
         <v>-0.63840100088610197</v>
       </c>
-      <c r="BT16">
+      <c r="BT16" s="2">
         <v>3.4059242439880301E-3</v>
       </c>
-      <c r="BU16">
+      <c r="BU16" s="2">
         <v>0.78509411744466995</v>
       </c>
-      <c r="BV16">
+      <c r="BV16" s="2">
         <v>4.1283930230157897E-4</v>
       </c>
-      <c r="BW16">
+      <c r="BW16" s="2">
         <v>-0.97961758361818296</v>
       </c>
-      <c r="BX16">
+      <c r="BX16" s="2">
         <v>1.0837031685416499E-3</v>
       </c>
-      <c r="BY16">
+      <c r="BY16" s="2">
         <v>-1.13930132484544</v>
       </c>
-      <c r="BZ16">
+      <c r="BZ16" s="2">
         <v>3.0962947672618399E-4</v>
       </c>
-      <c r="CA16">
+      <c r="CA16" s="2">
         <v>-0.76445058063343096</v>
       </c>
-      <c r="CB16">
+      <c r="CB16" s="2">
         <v>2.3222210754463798E-3</v>
       </c>
-      <c r="CC16">
+      <c r="CC16" s="2">
         <v>-4.2221090435267498E-2</v>
       </c>
-      <c r="CD16">
+      <c r="CD16" s="2">
         <v>9.8049334296625005E-4</v>
       </c>
-      <c r="CE16">
+      <c r="CE16" s="2">
         <v>-0.704123347086272</v>
       </c>
-      <c r="CF16">
+      <c r="CF16" s="2">
         <v>3.3543193312003299E-3</v>
       </c>
-      <c r="CG16">
+      <c r="CG16" s="2">
         <v>0.58973005088973596</v>
       </c>
-      <c r="CH16">
+      <c r="CH16" s="2">
         <v>8.2567860460315795E-4</v>
       </c>
-      <c r="CI16">
+      <c r="CI16" s="2">
         <v>-0.92698720936050905</v>
       </c>
-      <c r="CJ16">
+      <c r="CJ16" s="2">
         <v>8.2567860460315795E-4</v>
       </c>
-      <c r="CK16">
+      <c r="CK16" s="2">
         <v>-1.0218781121398199</v>
       </c>
-      <c r="CL16">
+      <c r="CL16" s="2">
         <v>2.0641965115079E-4</v>
       </c>
-      <c r="CM16">
+      <c r="CM16" s="2">
         <v>-1.01737077647411</v>
       </c>
-      <c r="CN16">
+      <c r="CN16" s="2">
         <v>2.0125915987201999E-3</v>
       </c>
-      <c r="CO16">
+      <c r="CO16" s="2">
         <v>-0.210603779063328</v>
       </c>
-      <c r="CP16">
+      <c r="CP16" s="2">
         <v>1.18691299411704E-3</v>
       </c>
-      <c r="CQ16">
+      <c r="CQ16" s="2">
         <v>-0.89245769694171195</v>
       </c>
-      <c r="CR16">
+      <c r="CR16" s="2">
         <v>3.9219733718650002E-3</v>
       </c>
-      <c r="CS16">
+      <c r="CS16" s="2">
         <v>0.866835001505733</v>
       </c>
-      <c r="CT16">
+      <c r="CT16" s="2">
         <v>6.7086386624006596E-4</v>
       </c>
-      <c r="CU16">
+      <c r="CU16" s="2">
         <v>-1.0458571559307499</v>
       </c>
-      <c r="CV16">
+      <c r="CV16" s="2">
         <v>6.1925895345236895E-4</v>
       </c>
-      <c r="CW16">
+      <c r="CW16" s="2">
         <v>-0.81963583551113695</v>
       </c>
-      <c r="CX16">
+      <c r="CX16" s="2">
         <v>2.3222210754463798E-3</v>
       </c>
-      <c r="CY16">
+      <c r="CY16" s="2">
         <v>0.47550493283649398</v>
       </c>
-      <c r="CZ16">
+      <c r="CZ16" s="2">
         <v>3.9735782846527E-3</v>
       </c>
-      <c r="DA16">
+      <c r="DA16" s="2">
         <v>1.76364285487142</v>
       </c>
-      <c r="DB16">
+      <c r="DB16" s="2">
         <v>1.65135720920632E-3</v>
       </c>
-      <c r="DC16">
+      <c r="DC16" s="2">
         <v>-0.15817227969782399</v>
       </c>
-      <c r="DD16">
+      <c r="DD16" s="2">
         <v>3.1478996800495401E-3</v>
       </c>
-      <c r="DE16">
+      <c r="DE16" s="2">
         <v>1.4560623633548</v>
       </c>
-      <c r="DF16">
+      <c r="DF16" s="2">
         <v>1.0837031685416499E-3</v>
       </c>
-      <c r="DG16">
+      <c r="DG16" s="2">
         <v>-0.51995966108129998</v>
       </c>
-      <c r="DH16">
-        <v>0</v>
-      </c>
-      <c r="DI16">
+      <c r="DH16" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI16" s="2">
         <v>-0.94033138671957495</v>
       </c>
-      <c r="DJ16">
+      <c r="DJ16" s="2">
         <v>4.1283930230157897E-4</v>
       </c>
-      <c r="DK16">
+      <c r="DK16" s="2">
         <v>-0.79998812159718502</v>
       </c>
-      <c r="DL16">
+      <c r="DL16" s="2">
         <v>3.0962947672618399E-4</v>
       </c>
-      <c r="DM16">
+      <c r="DM16" s="2">
         <v>-0.91254759030240296</v>
       </c>
-      <c r="DN16">
+      <c r="DN16" s="2">
         <v>2.5802456393848698E-4</v>
       </c>
-      <c r="DO16">
+      <c r="DO16" s="2">
         <v>-0.76964060707535997</v>
       </c>
-      <c r="DP16">
+      <c r="DP16" s="2">
         <v>1.03209825575395E-4</v>
       </c>
-      <c r="DQ16">
+      <c r="DQ16" s="2">
         <v>-0.82014286316482399</v>
       </c>
-      <c r="DR16">
+      <c r="DR16" s="2">
         <v>5.6765404066467097E-4</v>
       </c>
-      <c r="DS16">
+      <c r="DS16" s="2">
         <v>-0.89676693269260799</v>
       </c>
-      <c r="DT16">
+      <c r="DT16" s="2">
         <v>6.1925895345236895E-4</v>
       </c>
-      <c r="DU16">
+      <c r="DU16" s="2">
         <v>-0.77115094175119303</v>
       </c>
-      <c r="DV16">
+      <c r="DV16" s="2">
         <v>1.7545670347817099E-3</v>
       </c>
-      <c r="DW16">
+      <c r="DW16" s="2">
         <v>0.37748028795376398</v>
       </c>
-      <c r="DX16">
+      <c r="DX16" s="2">
         <v>1.80617194756941E-3</v>
       </c>
-      <c r="DY16">
+      <c r="DY16" s="2">
         <v>0.41952830169821298</v>
       </c>
-      <c r="DZ16">
+      <c r="DZ16" s="2">
         <v>8.2567860460315795E-4</v>
       </c>
-      <c r="EA16">
+      <c r="EA16" s="2">
         <v>-0.81540448650756703</v>
       </c>
-      <c r="EB16">
+      <c r="EB16" s="2">
         <v>1.39333264526783E-3</v>
       </c>
-      <c r="EC16">
+      <c r="EC16" s="2">
         <v>-1.2263476959876601E-2</v>
       </c>
-      <c r="ED16">
+      <c r="ED16" s="2">
         <v>1.44493755805553E-3</v>
       </c>
-      <c r="EE16">
+      <c r="EE16" s="2">
         <v>3.5671342045147297E-2</v>
       </c>
-      <c r="EF16">
+      <c r="EF16" s="2">
         <v>1.34172773248013E-3</v>
       </c>
-      <c r="EG16">
+      <c r="EG16" s="2">
         <v>-0.12104966952379501</v>
       </c>
-      <c r="EH16">
+      <c r="EH16" s="2">
         <v>3.0962947672618399E-3</v>
       </c>
-      <c r="EI16">
+      <c r="EI16" s="2">
         <v>1.20647935854413</v>
       </c>
-      <c r="EJ16">
+      <c r="EJ16" s="2">
         <v>1.2385179069047401E-3</v>
       </c>
-      <c r="EK16">
+      <c r="EK16" s="2">
         <v>-0.13189129749163001</v>
       </c>
-      <c r="EL16">
+      <c r="EL16" s="2">
         <v>1.34172773248013E-3</v>
       </c>
-      <c r="EM16">
+      <c r="EM16" s="2">
         <v>6.4858018466570105E-2</v>
       </c>
-      <c r="EN16">
+      <c r="EN16" s="2">
         <v>6.1925895345236895E-4</v>
       </c>
-      <c r="EO16">
+      <c r="EO16" s="2">
         <v>-0.93294404141972598</v>
       </c>
-      <c r="EP16">
+      <c r="EP16" s="2">
         <v>1.13530808132934E-3</v>
       </c>
-      <c r="EQ16">
+      <c r="EQ16" s="2">
         <v>-0.106854707191292</v>
       </c>
-      <c r="ER16">
+      <c r="ER16" s="2">
         <v>6.7086386624006596E-4</v>
       </c>
-      <c r="ES16">
+      <c r="ES16" s="2">
         <v>-0.78659158741885304</v>
       </c>
-      <c r="ET16">
+      <c r="ET16" s="2">
         <v>1.9093817731448001E-3</v>
       </c>
-      <c r="EU16">
+      <c r="EU16" s="2">
         <v>0.90710873468982001</v>
       </c>
-      <c r="EV16">
+      <c r="EV16" s="2">
         <v>2.0641965115079002E-3</v>
       </c>
-      <c r="EW16">
+      <c r="EW16" s="2">
         <v>1.28746733042992</v>
       </c>
-      <c r="EX16">
+      <c r="EX16" s="2">
         <v>8.2567860460315795E-4</v>
       </c>
-      <c r="EY16">
+      <c r="EY16" s="2">
         <v>-0.37134177037025001</v>
       </c>
-      <c r="EZ16">
+      <c r="EZ16" s="2">
         <v>1.80617194756941E-3</v>
       </c>
-      <c r="FA16">
+      <c r="FA16" s="2">
         <v>0.62290649538461695</v>
       </c>
-      <c r="FB16">
+      <c r="FB16" s="2">
         <v>9.8049334296625005E-4</v>
       </c>
-      <c r="FC16">
+      <c r="FC16" s="2">
         <v>-0.15923544645993901</v>
       </c>
-      <c r="FD16">
+      <c r="FD16" s="2">
         <v>7.7407369181546105E-4</v>
       </c>
-      <c r="FE16">
+      <c r="FE16" s="2">
         <v>-0.48390540038368901</v>
       </c>
-      <c r="FF16">
+      <c r="FF16" s="2">
         <v>1.59975229641862E-3</v>
       </c>
-      <c r="FG16">
+      <c r="FG16" s="2">
         <v>0.75291114927239</v>
       </c>
-      <c r="FH16">
+      <c r="FH16" s="2">
         <v>8.2567860460315795E-4</v>
       </c>
-      <c r="FI16">
+      <c r="FI16" s="2">
         <v>-0.31598934351489699</v>
       </c>
-      <c r="FJ16">
+      <c r="FJ16" s="2">
         <v>1.65135720920632E-3</v>
       </c>
-      <c r="FK16">
+      <c r="FK16" s="2">
         <v>0.69247785041871501</v>
       </c>
-      <c r="FL16">
+      <c r="FL16" s="2">
         <v>8.7728351739085604E-4</v>
       </c>
-      <c r="FM16">
+      <c r="FM16" s="2">
         <v>-0.48103618949840699</v>
       </c>
-      <c r="FN16">
+      <c r="FN16" s="2">
         <v>1.59975229641862E-3</v>
       </c>
-      <c r="FO16">
+      <c r="FO16" s="2">
         <v>0.76295986908611901</v>
       </c>
-      <c r="FP16">
+      <c r="FP16" s="2">
         <v>6.1925895345236895E-4</v>
       </c>
-      <c r="FQ16">
+      <c r="FQ16" s="2">
         <v>-0.83792913241520195</v>
       </c>
-      <c r="FR16">
+      <c r="FR16" s="2">
         <v>1.9093817731448001E-3</v>
       </c>
-      <c r="FS16">
+      <c r="FS16" s="2">
         <v>0.73764373503532599</v>
       </c>
-      <c r="FT16">
+      <c r="FT16" s="2">
         <v>1.7029621219940101E-3</v>
       </c>
-      <c r="FU16">
+      <c r="FU16" s="2">
         <v>0.77441550227039402</v>
       </c>
-      <c r="FV16">
-        <v>0</v>
-      </c>
-      <c r="FW16">
+      <c r="FV16" s="2">
+        <v>0</v>
+      </c>
+      <c r="FW16" s="2">
         <v>-0.69149123499135801</v>
       </c>
-      <c r="FX16">
+      <c r="FX16" s="2">
         <v>6.1925895345236895E-4</v>
       </c>
-      <c r="FY16">
+      <c r="FY16" s="2">
         <v>-0.83535656409631798</v>
       </c>
-      <c r="FZ16">
+      <c r="FZ16" s="2">
         <v>1.2385179069047401E-3</v>
       </c>
-      <c r="GA16">
+      <c r="GA16" s="2">
         <v>0.239402706261482</v>
       </c>
-      <c r="GB16">
+      <c r="GB16" s="2">
         <v>1.5481473836309199E-3</v>
       </c>
-      <c r="GC16">
+      <c r="GC16" s="2">
         <v>0.50445332892021999</v>
       </c>
-      <c r="GD16">
+      <c r="GD16" s="2">
         <v>9.2888843017855304E-4</v>
       </c>
-      <c r="GE16">
+      <c r="GE16" s="2">
         <v>-2.6123742852954199E-2</v>
       </c>
-      <c r="GF16">
+      <c r="GF16" s="2">
         <v>1.4965424708432199E-3</v>
       </c>
-      <c r="GG16">
+      <c r="GG16" s="2">
         <v>0.78497951804978205</v>
       </c>
-      <c r="GH16">
+      <c r="GH16" s="2">
         <v>3.6123438951388202E-4</v>
       </c>
-      <c r="GI16">
+      <c r="GI16" s="2">
         <v>-0.81965716121012999</v>
       </c>
-      <c r="GJ16">
+      <c r="GJ16" s="2">
         <v>5.1604912787697396E-4</v>
       </c>
-      <c r="GK16">
+      <c r="GK16" s="2">
         <v>-0.76165116540503097</v>
       </c>
-      <c r="GL16">
+      <c r="GL16" s="2">
         <v>1.03209825575395E-4</v>
       </c>
-      <c r="GM16">
+      <c r="GM16" s="2">
         <v>-0.61244359414913696</v>
       </c>
-      <c r="GN16">
+      <c r="GN16" s="2">
         <v>3.6123438951388202E-4</v>
       </c>
-      <c r="GO16">
+      <c r="GO16" s="2">
         <v>-0.48237017421723999</v>
       </c>
-      <c r="GP16">
+      <c r="GP16" s="2">
         <v>2.2190112498709901E-3</v>
       </c>
-      <c r="GQ16">
+      <c r="GQ16" s="2">
         <v>1.2105547663793099</v>
       </c>
-      <c r="GR16">
+      <c r="GR16" s="2">
         <v>6.7086386624006596E-4</v>
       </c>
-      <c r="GS16">
+      <c r="GS16" s="2">
         <v>-0.37648786229928</v>
       </c>
-      <c r="GT16">
+      <c r="GT16" s="2">
         <v>4.6444421508927701E-4</v>
       </c>
-      <c r="GU16">
+      <c r="GU16" s="2">
         <v>-0.76369056072946295</v>
       </c>
-      <c r="GV16">
-        <v>0</v>
-      </c>
-      <c r="GW16">
+      <c r="GV16" s="2">
+        <v>0</v>
+      </c>
+      <c r="GW16" s="2">
         <v>-0.37307450551245402</v>
       </c>
-      <c r="GX16" s="1">
+      <c r="GX16" s="3">
         <v>5.1604912787697399E-5</v>
       </c>
-      <c r="GY16">
+      <c r="GY16" s="2">
         <v>-1.05373002725619</v>
       </c>
-      <c r="GZ16">
+      <c r="GZ16" s="2">
         <v>5.6765404066467097E-4</v>
       </c>
-      <c r="HA16">
+      <c r="HA16" s="2">
         <v>-0.48869617020587403</v>
       </c>
-      <c r="HB16">
+      <c r="HB16" s="2">
         <v>2.2706161626586899E-3</v>
       </c>
-      <c r="HC16">
+      <c r="HC16" s="2">
         <v>1.3846308617839</v>
       </c>
-      <c r="HD16">
-        <v>0</v>
-      </c>
-      <c r="HE16">
+      <c r="HD16" s="2">
+        <v>0</v>
+      </c>
+      <c r="HE16" s="2">
         <v>-0.36613153631027801</v>
       </c>
-      <c r="HF16">
+      <c r="HF16" s="2">
         <v>4.1283930230157897E-4</v>
       </c>
-      <c r="HG16">
+      <c r="HG16" s="2">
         <v>-1.25332676342195</v>
       </c>
-      <c r="HH16">
+      <c r="HH16" s="2">
         <v>1.0320982557539501E-3</v>
       </c>
-      <c r="HI16">
+      <c r="HI16" s="2">
         <v>0.197391431991815</v>
       </c>
-      <c r="HJ16">
-        <v>0</v>
-      </c>
-      <c r="HK16">
+      <c r="HJ16" s="2">
+        <v>0</v>
+      </c>
+      <c r="HK16" s="2">
         <v>-0.27318423367849198</v>
       </c>
-      <c r="HL16">
+      <c r="HL16" s="2">
         <v>5.1604912787697396E-4</v>
       </c>
-      <c r="HM16">
+      <c r="HM16" s="2">
         <v>-0.50643911098587302</v>
       </c>
-      <c r="HN16">
+      <c r="HN16" s="2">
         <v>7.7407369181546105E-4</v>
       </c>
-      <c r="HO16">
+      <c r="HO16" s="2">
         <v>-0.112299326580118</v>
       </c>
-      <c r="HP16">
+      <c r="HP16" s="2">
         <v>4.1283930230157897E-4</v>
       </c>
-      <c r="HQ16">
+      <c r="HQ16" s="2">
         <v>-1.4964764160886901</v>
       </c>
-      <c r="HR16">
+      <c r="HR16" s="2">
         <v>2.0641965115079E-4</v>
       </c>
-      <c r="HS16">
+      <c r="HS16" s="2">
         <v>-0.64746655040323597</v>
       </c>
-      <c r="HT16">
+      <c r="HT16" s="2">
         <v>2.0125915987201999E-3</v>
       </c>
-      <c r="HU16">
+      <c r="HU16" s="2">
         <v>1.72800268375805</v>
       </c>
-      <c r="HV16">
+      <c r="HV16" s="2">
         <v>3.6123438951388202E-4</v>
       </c>
-      <c r="HW16">
+      <c r="HW16" s="2">
         <v>-1.12800305305335</v>
       </c>
-      <c r="HX16">
-        <v>0</v>
-      </c>
-      <c r="HY16">
+      <c r="HX16" s="2">
+        <v>0</v>
+      </c>
+      <c r="HY16" s="2">
         <v>-0.57530005402878104</v>
       </c>
-      <c r="HZ16">
+      <c r="HZ16" s="2">
         <v>2.0641965115079E-4</v>
       </c>
-      <c r="IA16">
+      <c r="IA16" s="2">
         <v>-0.64901771912111605</v>
       </c>
-      <c r="IB16">
+      <c r="IB16" s="2">
         <v>1.03209825575395E-4</v>
       </c>
-      <c r="IC16">
+      <c r="IC16" s="2">
         <v>-0.52292322762964705</v>
       </c>
-      <c r="ID16">
+      <c r="ID16" s="2">
         <v>2.5802456393848698E-4</v>
       </c>
-      <c r="IE16">
+      <c r="IE16" s="2">
         <v>-1.06641479742501</v>
       </c>
-      <c r="IF16">
-        <v>0</v>
-      </c>
-      <c r="IG16">
+      <c r="IF16" s="2">
+        <v>0</v>
+      </c>
+      <c r="IG16" s="2">
         <v>-0.572845790923181</v>
       </c>
-      <c r="IH16">
+      <c r="IH16" s="2">
         <v>5.6765404066467097E-4</v>
       </c>
-      <c r="II16">
+      <c r="II16" s="2">
         <v>-0.36147917294200199</v>
       </c>
-      <c r="IJ16" s="1">
+      <c r="IJ16" s="3">
         <v>5.1604912787697399E-5</v>
       </c>
-      <c r="IK16">
+      <c r="IK16" s="2">
         <v>-1.5782904819677199</v>
       </c>
-      <c r="IL16">
+      <c r="IL16" s="2">
         <v>1.5481473836309199E-4</v>
       </c>
-      <c r="IM16">
+      <c r="IM16" s="2">
         <v>-0.973366421716507</v>
       </c>
-      <c r="IN16">
+      <c r="IN16" s="2">
         <v>7.7407369181546105E-4</v>
       </c>
-      <c r="IO16">
+      <c r="IO16" s="2">
         <v>6.5050603758939798E-2</v>
       </c>
-      <c r="IP16">
+      <c r="IP16" s="2">
         <v>5.1604912787697396E-4</v>
       </c>
-      <c r="IQ16">
+      <c r="IQ16" s="2">
         <v>-0.49293676208595599</v>
       </c>
-      <c r="IR16">
+      <c r="IR16" s="2">
         <v>3.6123438951388202E-4</v>
       </c>
-      <c r="IS16">
+      <c r="IS16" s="2">
         <v>-0.84354970253472605</v>
       </c>
-      <c r="IT16">
+      <c r="IT16" s="2">
         <v>7.2246877902776296E-4</v>
       </c>
-      <c r="IU16">
+      <c r="IU16" s="2">
         <v>-2.3834920975226E-2</v>
       </c>
-      <c r="IV16">
+      <c r="IV16" s="2">
         <v>1.03209825575395E-4</v>
       </c>
-      <c r="IW16">
+      <c r="IW16" s="2">
         <v>-0.640335996513962</v>
       </c>
-      <c r="IX16">
+      <c r="IX16" s="2">
         <v>6.7086386624006596E-4</v>
       </c>
-      <c r="IY16">
+      <c r="IY16" s="2">
         <v>-5.2541937929895401E-2</v>
       </c>
-      <c r="IZ16">
+      <c r="IZ16" s="2">
         <v>5.1604912787697396E-4</v>
       </c>
-      <c r="JA16">
+      <c r="JA16" s="2">
         <v>-0.203326688303203</v>
       </c>
-      <c r="JB16">
+      <c r="JB16" s="2">
         <v>8.7728351739085604E-4</v>
       </c>
-      <c r="JC16">
+      <c r="JC16" s="2">
         <v>0.45405594321588</v>
       </c>
-      <c r="JD16">
+      <c r="JD16" s="2">
         <v>3.6123438951388202E-4</v>
       </c>
-      <c r="JE16">
+      <c r="JE16" s="2">
         <v>-0.53604732258474697</v>
       </c>
-      <c r="JF16">
+      <c r="JF16" s="2">
         <v>8.7728351739085604E-4</v>
       </c>
-      <c r="JG16">
+      <c r="JG16" s="2">
         <v>0.42981169139451397</v>
       </c>
-      <c r="JH16">
+      <c r="JH16" s="2">
         <v>1.5481473836309199E-4</v>
       </c>
-      <c r="JI16">
+      <c r="JI16" s="2">
         <v>-0.59254157451703404</v>
       </c>
-      <c r="JJ16">
+      <c r="JJ16" s="2">
         <v>1.39333264526783E-3</v>
       </c>
-      <c r="JK16">
+      <c r="JK16" s="2">
         <v>1.22617308489629</v>
       </c>
-      <c r="JL16">
+      <c r="JL16" s="2">
         <v>5.1604912787697396E-4</v>
       </c>
-      <c r="JM16">
+      <c r="JM16" s="2">
         <v>-0.28346162979931999</v>
       </c>
-      <c r="JN16">
+      <c r="JN16" s="2">
         <v>9.2888843017855304E-4</v>
       </c>
-      <c r="JO16">
+      <c r="JO16" s="2">
         <v>0.32947268582829797</v>
       </c>
-      <c r="JP16">
+      <c r="JP16" s="2">
         <v>5.6765404066467097E-4</v>
       </c>
-      <c r="JQ16">
+      <c r="JQ16" s="2">
         <v>-0.17138371835215299</v>
       </c>
-      <c r="JR16">
+      <c r="JR16" s="2">
         <v>5.6765404066467097E-4</v>
       </c>
-      <c r="JS16">
+      <c r="JS16" s="2">
         <v>-0.12536823751144699</v>
       </c>
-      <c r="JT16">
+      <c r="JT16" s="2">
         <v>3.6123438951388202E-4</v>
       </c>
-      <c r="JU16">
+      <c r="JU16" s="2">
         <v>-0.813856684255998</v>
       </c>
-      <c r="JV16">
+      <c r="JV16" s="2">
         <v>6.7086386624006596E-4</v>
       </c>
-      <c r="JW16">
+      <c r="JW16" s="2">
         <v>0.103748315232413</v>
       </c>
-      <c r="JX16">
+      <c r="JX16" s="2">
         <v>1.5481473836309199E-4</v>
       </c>
-      <c r="JY16">
+      <c r="JY16" s="2">
         <v>-0.63664179438353397</v>
       </c>
-      <c r="JZ16" s="1">
+      <c r="JZ16" s="3">
         <v>5.1604912787697399E-5</v>
       </c>
-      <c r="KA16">
+      <c r="KA16" s="2">
         <v>-0.83738382572900905</v>
       </c>
-      <c r="KB16">
+      <c r="KB16" s="2">
         <v>5.1604912787697396E-4</v>
       </c>
-      <c r="KC16">
+      <c r="KC16" s="2">
         <v>-0.159201544271387</v>
       </c>
-      <c r="KD16">
+      <c r="KD16" s="2">
         <v>5.1604912787697396E-4</v>
       </c>
-      <c r="KE16">
+      <c r="KE16" s="2">
         <v>-0.234615056826187</v>
       </c>
-      <c r="KF16">
+      <c r="KF16" s="2">
         <v>3.0962947672618399E-4</v>
       </c>
-      <c r="KG16">
+      <c r="KG16" s="2">
         <v>-0.62928590940970297</v>
       </c>
-      <c r="KH16" s="1">
+      <c r="KH16" s="3">
         <v>5.1604912787697399E-5</v>
       </c>
-      <c r="KI16">
+      <c r="KI16" s="2">
         <v>-0.563792191135151</v>
       </c>
-      <c r="KJ16">
+      <c r="KJ16" s="2">
         <v>4.6444421508927701E-4</v>
       </c>
-      <c r="KK16">
+      <c r="KK16" s="2">
         <v>-0.292054181375767</v>
       </c>
-      <c r="KL16">
+      <c r="KL16" s="2">
         <v>5.6765404066467097E-4</v>
       </c>
-      <c r="KM16">
+      <c r="KM16" s="2">
         <v>-0.113332966683095</v>
       </c>
-      <c r="KN16">
+      <c r="KN16" s="2">
         <v>1.44493755805553E-3</v>
       </c>
-      <c r="KO16">
+      <c r="KO16" s="2">
         <v>1.07649797895727</v>
       </c>
-      <c r="KP16">
+      <c r="KP16" s="2">
         <v>1.03209825575395E-4</v>
       </c>
-      <c r="KQ16">
+      <c r="KQ16" s="2">
         <v>-0.84345982276615294</v>
       </c>
-      <c r="KR16">
+      <c r="KR16" s="2">
         <v>7.7407369181546105E-4</v>
       </c>
-      <c r="KS16">
+      <c r="KS16" s="2">
         <v>0.79114446208621902</v>
       </c>
-      <c r="KT16">
+      <c r="KT16" s="2">
         <v>3.0962947672618399E-4</v>
       </c>
-      <c r="KU16">
+      <c r="KU16" s="2">
         <v>-0.55402759428751003</v>
       </c>
-      <c r="KV16">
+      <c r="KV16" s="2">
         <v>9.2888843017855304E-4</v>
       </c>
-      <c r="KW16">
+      <c r="KW16" s="2">
         <v>1.0752953459693699</v>
       </c>
-      <c r="KX16">
+      <c r="KX16" s="2">
         <v>7.7407369181546105E-4</v>
       </c>
-      <c r="KY16">
+      <c r="KY16" s="2">
         <v>0.27493208071207698</v>
       </c>
-      <c r="KZ16">
-        <v>0</v>
-      </c>
-      <c r="LA16">
+      <c r="KZ16" s="2">
+        <v>0</v>
+      </c>
+      <c r="LA16" s="2">
         <v>-0.63899025770241202</v>
       </c>
-      <c r="LB16">
+      <c r="LB16" s="2">
         <v>8.7728351739085604E-4</v>
       </c>
-      <c r="LC16">
+      <c r="LC16" s="2">
         <v>0.75059766076763101</v>
       </c>
-      <c r="LD16">
+      <c r="LD16" s="2">
         <v>2.0641965115079E-4</v>
       </c>
-      <c r="LE16">
+      <c r="LE16" s="2">
         <v>-0.49254854525368502</v>
       </c>
-      <c r="LF16">
+      <c r="LF16" s="2">
         <v>1.4965424708432199E-3</v>
       </c>
-      <c r="LG16">
+      <c r="LG16" s="2">
         <v>1.3646125138910301</v>
       </c>
-      <c r="LH16">
-        <v>0</v>
-      </c>
-      <c r="LI16">
+      <c r="LH16" s="2">
+        <v>0</v>
+      </c>
+      <c r="LI16" s="2">
         <v>-0.61160267919715094</v>
       </c>
-      <c r="LJ16">
+      <c r="LJ16" s="2">
         <v>7.7407369181546105E-4</v>
       </c>
-      <c r="LK16">
+      <c r="LK16" s="2">
         <v>0.438064739940835</v>
       </c>
-      <c r="LL16">
+      <c r="LL16" s="2">
         <v>1.7029621219940101E-3</v>
       </c>
-      <c r="LM16">
+      <c r="LM16" s="2">
         <v>1.53271292187743</v>
       </c>
-      <c r="LN16">
-        <v>0</v>
-      </c>
-      <c r="LO16">
+      <c r="LN16" s="2">
+        <v>0</v>
+      </c>
+      <c r="LO16" s="2">
         <v>-0.60950998987818705</v>
       </c>
-      <c r="LP16">
+      <c r="LP16" s="2">
         <v>3.0962947672618399E-4</v>
       </c>
-      <c r="LQ16">
+      <c r="LQ16" s="2">
         <v>-0.76806757199863895</v>
       </c>
-      <c r="LR16">
+      <c r="LR16" s="2">
         <v>7.7407369181546105E-4</v>
       </c>
-      <c r="LS16">
+      <c r="LS16" s="2">
         <v>0.53223487237907996</v>
       </c>
-      <c r="LT16" s="1">
+      <c r="LT16" s="3">
         <v>5.1604912787697399E-5</v>
       </c>
-      <c r="LU16">
+      <c r="LU16" s="2">
         <v>-1.24570077363181</v>
       </c>
-      <c r="LV16">
+      <c r="LV16" s="2">
         <v>5.1604912787697396E-4</v>
       </c>
-      <c r="LW16">
+      <c r="LW16" s="2">
         <v>-4.0773054689713199E-2</v>
       </c>
-      <c r="LX16">
+      <c r="LX16" s="2">
         <v>1.0320982557539501E-3</v>
       </c>
-      <c r="LY16">
+      <c r="LY16" s="2">
         <v>1.3082886426581</v>
       </c>
-      <c r="LZ16">
+      <c r="LZ16" s="2">
         <v>1.5481473836309199E-4</v>
       </c>
-      <c r="MA16">
+      <c r="MA16" s="2">
         <v>-0.511624042710213</v>
       </c>
-      <c r="MB16" s="1">
+      <c r="MB16" s="3">
         <v>5.1604912787697399E-5</v>
       </c>
-      <c r="MC16">
+      <c r="MC16" s="2">
         <v>-0.73795815687585997</v>
       </c>
-      <c r="MD16">
+      <c r="MD16" s="2">
         <v>5.6765404066467097E-4</v>
       </c>
-      <c r="ME16">
+      <c r="ME16" s="2">
         <v>0.158569663259576</v>
       </c>
-      <c r="MF16">
+      <c r="MF16" s="2">
         <v>3.0962947672618399E-4</v>
       </c>
-      <c r="MG16">
+      <c r="MG16" s="2">
         <v>-0.51008009390842102</v>
       </c>
-      <c r="MH16">
+      <c r="MH16" s="2">
         <v>1.5481473836309199E-4</v>
       </c>
-      <c r="MI16">
+      <c r="MI16" s="2">
         <v>-0.959711081789826</v>
       </c>
-      <c r="MJ16">
+      <c r="MJ16" s="2">
         <v>3.0962947672618399E-4</v>
       </c>
-      <c r="MK16">
+      <c r="MK16" s="2">
         <v>-0.466894137710537</v>
       </c>
-      <c r="ML16">
+      <c r="ML16" s="2">
         <v>1.2385179069047401E-3</v>
       </c>
-      <c r="MM16">
+      <c r="MM16" s="2">
         <v>2.4304054901948802</v>
       </c>
-      <c r="MN16">
+      <c r="MN16" s="2">
         <v>9.8049334296625005E-4</v>
       </c>
-      <c r="MO16">
+      <c r="MO16" s="2">
         <v>1.8551232526158301</v>
       </c>
-      <c r="MP16">
+      <c r="MP16" s="2">
         <v>7.2246877902776296E-4</v>
       </c>
-      <c r="MQ16">
+      <c r="MQ16" s="2">
         <v>0.42827101632140702</v>
       </c>
-      <c r="MR16">
-        <v>0</v>
-      </c>
-      <c r="MS16">
+      <c r="MR16" s="2">
+        <v>0</v>
+      </c>
+      <c r="MS16" s="2">
         <v>-0.32505855788468702</v>
       </c>
-      <c r="MT16">
+      <c r="MT16" s="2">
         <v>2.0641965115079E-4</v>
       </c>
-      <c r="MU16">
+      <c r="MU16" s="2">
         <v>-0.51769420757960205</v>
       </c>
-      <c r="MV16">
+      <c r="MV16" s="2">
         <v>4.1283930230157897E-4</v>
       </c>
-      <c r="MW16">
+      <c r="MW16" s="2">
         <v>-0.30960951012922899</v>
       </c>
-      <c r="MX16">
+      <c r="MX16" s="2">
         <v>2.5802456393848698E-4</v>
       </c>
-      <c r="MY16">
+      <c r="MY16" s="2">
         <v>-0.62950182694718504</v>
       </c>
-      <c r="MZ16">
+      <c r="MZ16" s="2">
         <v>1.0837031685416499E-3</v>
       </c>
-      <c r="NA16">
+      <c r="NA16" s="2">
         <v>1.1751496465501701</v>
       </c>
-      <c r="NB16">
+      <c r="NB16" s="2">
         <v>3.0962947672618399E-4</v>
       </c>
-      <c r="NC16">
+      <c r="NC16" s="2">
         <v>-0.616784735319438</v>
       </c>
-      <c r="ND16">
+      <c r="ND16" s="2">
         <v>2.11580142429559E-3</v>
       </c>
-      <c r="NE16">
+      <c r="NE16" s="2">
         <v>3.0567260709655399</v>
       </c>
-      <c r="NF16">
+      <c r="NF16" s="2">
         <v>6.7086386624006596E-4</v>
       </c>
-      <c r="NG16">
+      <c r="NG16" s="2">
         <v>0.51110501494960903</v>
       </c>
-      <c r="NH16">
+      <c r="NH16" s="2">
         <v>7.2246877902776296E-4</v>
       </c>
-      <c r="NI16">
+      <c r="NI16" s="2">
         <v>0.62214425949065499</v>
       </c>
-      <c r="NJ16">
+      <c r="NJ16" s="2">
         <v>5.6765404066467097E-4</v>
       </c>
-      <c r="NK16">
+      <c r="NK16" s="2">
         <v>0.13653299940760899</v>
       </c>
-      <c r="NL16" s="1">
+      <c r="NL16" s="3">
         <v>5.1604912787697399E-5</v>
       </c>
-      <c r="NM16">
+      <c r="NM16" s="2">
         <v>-0.81823236128825205</v>
       </c>
-      <c r="NN16">
+      <c r="NN16" s="2">
         <v>2.0641965115079E-4</v>
       </c>
-      <c r="NO16">
+      <c r="NO16" s="2">
         <v>-0.58145739310336098</v>
       </c>
-      <c r="NP16">
+      <c r="NP16" s="2">
         <v>8.7728351739085604E-4</v>
       </c>
-      <c r="NQ16">
+      <c r="NQ16" s="2">
         <v>0.81195734836549505</v>
       </c>
-      <c r="NR16">
+      <c r="NR16" s="2">
         <v>4.6444421508927701E-4</v>
       </c>
-      <c r="NS16">
+      <c r="NS16" s="2">
         <v>-2.38568740611186E-2</v>
       </c>
-      <c r="NT16">
+      <c r="NT16" s="2">
         <v>4.6444421508927701E-4</v>
       </c>
-      <c r="NU16">
+      <c r="NU16" s="2">
         <v>-1.07186297710158E-2</v>
       </c>
-      <c r="NV16">
+      <c r="NV16" s="2">
         <v>1.5481473836309199E-4</v>
       </c>
-      <c r="NW16">
+      <c r="NW16" s="2">
         <v>-1.1501715805661401</v>
       </c>
-      <c r="NX16">
+      <c r="NX16" s="2">
         <v>6.1925895345236895E-4</v>
       </c>
-      <c r="NY16">
+      <c r="NY16" s="2">
         <v>0.30993127997164699</v>
       </c>
-      <c r="NZ16">
+      <c r="NZ16" s="2">
         <v>6.7086386624006596E-4</v>
       </c>
-      <c r="OA16">
+      <c r="OA16" s="2">
         <v>0.68686109859634603</v>
       </c>
-      <c r="OB16">
+      <c r="OB16" s="2">
         <v>1.0837031685416499E-3</v>
       </c>
-      <c r="OC16">
+      <c r="OC16" s="2">
         <v>1.08753822249146</v>
       </c>
-      <c r="OD16">
+      <c r="OD16" s="2">
         <v>6.1925895345236895E-4</v>
       </c>
-      <c r="OE16">
+      <c r="OE16" s="2">
         <v>0.36693590353524902</v>
       </c>
-      <c r="OF16">
+      <c r="OF16" s="2">
         <v>8.2567860460315795E-4</v>
       </c>
-      <c r="OG16">
+      <c r="OG16" s="2">
         <v>0.65274350808294501</v>
       </c>
-      <c r="OH16">
-        <v>0</v>
-      </c>
-      <c r="OI16">
+      <c r="OH16" s="2">
+        <v>0</v>
+      </c>
+      <c r="OI16" s="2">
         <v>-0.59343277059958</v>
       </c>
-      <c r="OJ16" s="1">
+      <c r="OJ16" s="3">
         <v>5.1604912787697399E-5</v>
       </c>
-      <c r="OK16">
+      <c r="OK16" s="2">
         <v>-0.772672440970122</v>
       </c>
-      <c r="OL16">
+      <c r="OL16" s="2">
         <v>1.0320982557539501E-3</v>
       </c>
-      <c r="OM16">
+      <c r="OM16" s="2">
         <v>1.56589852346862</v>
       </c>
-      <c r="ON16">
+      <c r="ON16" s="2">
         <v>9.2888843017855304E-4</v>
       </c>
-      <c r="OO16">
+      <c r="OO16" s="2">
         <v>1.3466972581650301</v>
       </c>
-      <c r="OP16">
+      <c r="OP16" s="2">
         <v>7.2246877902776296E-4</v>
       </c>
-      <c r="OQ16">
+      <c r="OQ16" s="2">
         <v>0.94080131466590999</v>
       </c>
-      <c r="OR16">
-        <v>0</v>
-      </c>
-      <c r="OS16">
+      <c r="OR16" s="2">
+        <v>0</v>
+      </c>
+      <c r="OS16" s="2">
         <v>-0.51568309898803699</v>
       </c>
-      <c r="OT16" s="1">
+      <c r="OT16" s="3">
         <v>5.1604912787697399E-5</v>
       </c>
-      <c r="OU16">
+      <c r="OU16" s="2">
         <v>-0.64569196097139603</v>
       </c>
-      <c r="OV16">
+      <c r="OV16" s="2">
         <v>4.1283930230157897E-4</v>
       </c>
-      <c r="OW16">
+      <c r="OW16" s="2">
         <v>-9.58985332971177E-2</v>
       </c>
-      <c r="OX16">
-        <v>0</v>
-      </c>
-      <c r="OY16">
+      <c r="OX16" s="2">
+        <v>0</v>
+      </c>
+      <c r="OY16" s="2">
         <v>-0.91452800236994203</v>
       </c>
-      <c r="OZ16">
+      <c r="OZ16" s="2">
         <v>3.0962947672618399E-4</v>
       </c>
-      <c r="PA16">
+      <c r="PA16" s="2">
         <v>-0.55367659682407899</v>
       </c>
-      <c r="PB16">
+      <c r="PB16" s="2">
         <v>1.03209825575395E-4</v>
       </c>
-      <c r="PC16">
+      <c r="PC16" s="2">
         <v>-0.700776542224952</v>
       </c>
-      <c r="PD16">
-        <v>0</v>
-      </c>
-      <c r="PE16">
+      <c r="PD16" s="2">
+        <v>0</v>
+      </c>
+      <c r="PE16" s="2">
         <v>-0.47829858883758197</v>
       </c>
-      <c r="PF16">
+      <c r="PF16" s="2">
         <v>2.0641965115079E-4</v>
       </c>
-      <c r="PG16">
+      <c r="PG16" s="2">
         <v>-0.88459309371656603</v>
       </c>
-      <c r="PH16">
-        <v>0</v>
-      </c>
-      <c r="PI16">
+      <c r="PH16" s="2">
+        <v>0</v>
+      </c>
+      <c r="PI16" s="2">
         <v>-0.60282129888321001</v>
       </c>
-      <c r="PJ16">
+      <c r="PJ16" s="2">
         <v>7.7407369181546105E-4</v>
       </c>
-      <c r="PK16">
+      <c r="PK16" s="2">
         <v>0.73026255678764296</v>
       </c>
-      <c r="PL16">
+      <c r="PL16" s="2">
         <v>6.1925895345236895E-4</v>
       </c>
-      <c r="PM16">
+      <c r="PM16" s="2">
         <v>0.57126711131464403</v>
       </c>
-      <c r="PN16">
+      <c r="PN16" s="2">
         <v>2.5802456393848698E-4</v>
       </c>
-      <c r="PO16">
+      <c r="PO16" s="2">
         <v>-0.45091328838991102</v>
       </c>
-      <c r="PP16">
+      <c r="PP16" s="2">
         <v>6.1925895345236895E-4</v>
       </c>
-      <c r="PQ16">
+      <c r="PQ16" s="2">
         <v>0.66855615714088901</v>
       </c>
-      <c r="PR16">
+      <c r="PR16" s="2">
         <v>1.5481473836309199E-4</v>
       </c>
-      <c r="PS16">
+      <c r="PS16" s="2">
         <v>-0.50448083009786604</v>
       </c>
-      <c r="PT16" s="1">
+      <c r="PT16" s="3">
         <v>5.1604912787697399E-5</v>
       </c>
-      <c r="PU16">
+      <c r="PU16" s="2">
         <v>-0.839257962351456</v>
       </c>
-      <c r="PV16">
+      <c r="PV16" s="2">
         <v>3.6123438951388202E-4</v>
       </c>
-      <c r="PW16">
+      <c r="PW16" s="2">
         <v>-0.25351684912063499</v>
       </c>
-      <c r="PX16">
-        <v>0</v>
-      </c>
-      <c r="PY16">
+      <c r="PX16" s="2">
+        <v>0</v>
+      </c>
+      <c r="PY16" s="2">
         <v>-0.35062633104535601</v>
       </c>
-      <c r="PZ16">
+      <c r="PZ16" s="2">
         <v>9.8049334296625005E-4</v>
       </c>
-      <c r="QA16">
+      <c r="QA16" s="2">
         <v>1.2434729300452501</v>
       </c>
-      <c r="QB16">
+      <c r="QB16" s="2">
         <v>6.1925895345236895E-4</v>
       </c>
-      <c r="QC16">
+      <c r="QC16" s="2">
         <v>0.56967058710790397</v>
       </c>
-      <c r="QD16">
+      <c r="QD16" s="2">
         <v>3.6123438951388202E-4</v>
       </c>
-      <c r="QE16">
+      <c r="QE16" s="2">
         <v>-0.14695803932767401</v>
       </c>
-      <c r="QF16">
+      <c r="QF16" s="2">
         <v>3.0962947672618399E-4</v>
       </c>
-      <c r="QG16">
+      <c r="QG16" s="2">
         <v>-0.345778774074189</v>
       </c>
-      <c r="QH16">
+      <c r="QH16" s="2">
         <v>5.1604912787697396E-4</v>
       </c>
-      <c r="QI16">
+      <c r="QI16" s="2">
         <v>0.39598136652505</v>
       </c>
-      <c r="QJ16">
+      <c r="QJ16" s="2">
         <v>4.6444421508927701E-4</v>
       </c>
-      <c r="QK16">
+      <c r="QK16" s="2">
         <v>0.2270253684496</v>
       </c>
-      <c r="QL16">
+      <c r="QL16" s="2">
         <v>5.6765404066467097E-4</v>
       </c>
-      <c r="QM16">
+      <c r="QM16" s="2">
         <v>0.44046321725820797</v>
       </c>
-      <c r="QN16">
+      <c r="QN16" s="2">
         <v>2.5802456393848698E-4</v>
       </c>
-      <c r="QO16">
+      <c r="QO16" s="2">
         <v>-0.35701509266628201</v>
       </c>
-      <c r="QP16">
+      <c r="QP16" s="2">
         <v>7.2246877902776296E-4</v>
       </c>
-      <c r="QQ16">
+      <c r="QQ16" s="2">
         <v>1.09283497761242</v>
       </c>
-      <c r="QR16">
+      <c r="QR16" s="2">
         <v>7.7407369181546105E-4</v>
       </c>
-      <c r="QS16">
+      <c r="QS16" s="2">
         <v>1.0980023304130699</v>
       </c>
-      <c r="QT16" s="1">
+      <c r="QT16" s="3">
         <v>5.1604912787697399E-5</v>
       </c>
-      <c r="QU16">
+      <c r="QU16" s="2">
         <v>-1.1678609130120901</v>
       </c>
-      <c r="QV16">
+      <c r="QV16" s="2">
         <v>1.03209825575395E-4</v>
       </c>
-      <c r="QW16">
+      <c r="QW16" s="2">
         <v>-0.74363765213507305</v>
       </c>
-      <c r="QX16">
+      <c r="QX16" s="2">
         <v>1.03209825575395E-4</v>
       </c>
-      <c r="QY16">
+      <c r="QY16" s="2">
         <v>-0.67250703090733699</v>
       </c>
-      <c r="QZ16">
+      <c r="QZ16" s="2">
         <v>3.0962947672618399E-4</v>
       </c>
-      <c r="RA16">
+      <c r="RA16" s="2">
         <v>-0.147068195266467</v>
       </c>
-      <c r="RB16">
+      <c r="RB16" s="2">
         <v>6.1925895345236895E-4</v>
       </c>
-      <c r="RC16">
+      <c r="RC16" s="2">
         <v>0.94941876187049401</v>
       </c>
-      <c r="RD16">
+      <c r="RD16" s="2">
         <v>5.1604912787697396E-4</v>
       </c>
-      <c r="RE16">
+      <c r="RE16" s="2">
         <v>0.52063416986392697</v>
       </c>
-      <c r="RF16">
-        <v>0</v>
-      </c>
-      <c r="RG16">
+      <c r="RF16" s="2">
+        <v>0</v>
+      </c>
+      <c r="RG16" s="2">
         <v>-0.74487358506840495</v>
       </c>
-      <c r="RH16">
+      <c r="RH16" s="2">
         <v>8.2567860460315795E-4</v>
       </c>
-      <c r="RI16">
+      <c r="RI16" s="2">
         <v>1.1742429139330099</v>
       </c>
-      <c r="RJ16">
+      <c r="RJ16" s="2">
         <v>3.0962947672618399E-4</v>
       </c>
-      <c r="RK16">
+      <c r="RK16" s="2">
         <v>-0.141792772625629</v>
       </c>
-      <c r="RL16">
+      <c r="RL16" s="2">
         <v>1.03209825575395E-4</v>
       </c>
-      <c r="RM16">
+      <c r="RM16" s="2">
         <v>-0.94736950467888603</v>
       </c>
-      <c r="RN16">
+      <c r="RN16" s="2">
         <v>5.1604912787697396E-4</v>
       </c>
-      <c r="RO16">
+      <c r="RO16" s="2">
         <v>0.49172678083048899</v>
       </c>
-      <c r="RP16">
+      <c r="RP16" s="2">
         <v>2.5802456393848698E-4</v>
       </c>
-      <c r="RQ16">
+      <c r="RQ16" s="2">
         <v>-0.281617978328639</v>
       </c>
-      <c r="RR16">
+      <c r="RR16" s="2">
         <v>9.2888843017855304E-4</v>
       </c>
-      <c r="RS16">
+      <c r="RS16" s="2">
         <v>2.0795681994274999</v>
       </c>
-      <c r="RT16">
+      <c r="RT16" s="2">
         <v>4.6444421508927701E-4</v>
       </c>
-      <c r="RU16">
+      <c r="RU16" s="2">
         <v>0.39190298503510901</v>
       </c>
-      <c r="RV16">
+      <c r="RV16" s="2">
         <v>3.0962947672618399E-4</v>
       </c>
-      <c r="RW16">
+      <c r="RW16" s="2">
         <v>-0.19305093183290301</v>
       </c>
-      <c r="RX16" s="1">
+      <c r="RX16" s="3">
         <v>5.1604912787697399E-5</v>
       </c>
-      <c r="RY16">
+      <c r="RY16" s="2">
         <v>-0.78611247485860003</v>
       </c>
-      <c r="RZ16">
-        <v>0</v>
-      </c>
-      <c r="SA16">
+      <c r="RZ16" s="2">
+        <v>0</v>
+      </c>
+      <c r="SA16" s="2">
         <v>-0.25819888974716099</v>
       </c>
-      <c r="SB16">
-        <v>0</v>
-      </c>
-      <c r="SC16">
+      <c r="SB16" s="2">
+        <v>0</v>
+      </c>
+      <c r="SC16" s="2">
         <v>-0.90242944157691396</v>
       </c>
-      <c r="SD16">
+      <c r="SD16" s="2">
         <v>1.5481473836309199E-4</v>
       </c>
-      <c r="SE16">
+      <c r="SE16" s="2">
         <v>-0.28268874221363199</v>
       </c>
-      <c r="SF16">
-        <v>0</v>
-      </c>
-      <c r="SG16">
+      <c r="SF16" s="2">
+        <v>0</v>
+      </c>
+      <c r="SG16" s="2">
         <v>-0.725620135189602</v>
       </c>
-      <c r="SH16">
-        <v>0</v>
-      </c>
-      <c r="SI16">
+      <c r="SH16" s="2">
+        <v>0</v>
+      </c>
+      <c r="SI16" s="2">
         <v>-1.2983243526873101</v>
       </c>
-      <c r="SJ16">
-        <v>0</v>
-      </c>
-      <c r="SK16">
+      <c r="SJ16" s="2">
+        <v>0</v>
+      </c>
+      <c r="SK16" s="2">
         <v>-1.1407712107719701</v>
       </c>
-      <c r="SL16">
+      <c r="SL16" s="2">
         <v>6.7086386624006596E-4</v>
       </c>
-      <c r="SM16">
+      <c r="SM16" s="2">
         <v>0.97615716717874201</v>
       </c>
-      <c r="SN16">
-        <v>0</v>
-      </c>
-      <c r="SO16">
+      <c r="SN16" s="2">
+        <v>0</v>
+      </c>
+      <c r="SO16" s="2">
         <v>-0.80702640729974295</v>
       </c>
-      <c r="SP16">
+      <c r="SP16" s="2">
         <v>4.1283930230157897E-4</v>
       </c>
-      <c r="SQ16">
+      <c r="SQ16" s="2">
         <v>0.163117189476647</v>
       </c>
-      <c r="SR16" s="1">
+      <c r="SR16" s="3">
         <v>5.1604912787697399E-5</v>
       </c>
-      <c r="SS16">
+      <c r="SS16" s="2">
         <v>-0.51703136619796397</v>
       </c>
-      <c r="ST16">
+      <c r="ST16" s="2">
         <v>4.1283930230157897E-4</v>
       </c>
-      <c r="SU16">
+      <c r="SU16" s="2">
         <v>0.27224480494367498</v>
       </c>
-      <c r="SV16">
+      <c r="SV16" s="2">
         <v>2.5802456393848698E-4</v>
       </c>
-      <c r="SW16">
+      <c r="SW16" s="2">
         <v>-0.27514591867497301</v>
       </c>
-      <c r="SX16" s="1">
+      <c r="SX16" s="3">
         <v>5.1604912787697399E-5</v>
       </c>
-      <c r="SY16">
+      <c r="SY16" s="2">
         <v>-0.66390597969276199</v>
       </c>
-      <c r="SZ16">
+      <c r="SZ16" s="2">
         <v>4.6444421508927701E-4</v>
       </c>
-      <c r="TA16">
+      <c r="TA16" s="2">
         <v>0.44548402827287897</v>
       </c>
-      <c r="TB16">
+      <c r="TB16" s="2">
         <v>5.6765404066467097E-4</v>
       </c>
-      <c r="TC16">
+      <c r="TC16" s="2">
         <v>0.80891262727994995</v>
       </c>
-      <c r="TD16">
+      <c r="TD16" s="2">
         <v>9.2888843017855304E-4</v>
       </c>
-      <c r="TE16">
+      <c r="TE16" s="2">
         <v>1.90656779884287</v>
       </c>
-      <c r="TF16">
+      <c r="TF16" s="2">
         <v>4.1283930230157897E-4</v>
       </c>
-      <c r="TG16">
+      <c r="TG16" s="2">
         <v>0.285735569869006</v>
       </c>
-      <c r="TH16">
+      <c r="TH16" s="2">
         <v>5.6765404066467097E-4</v>
       </c>
-      <c r="TI16">
+      <c r="TI16" s="2">
         <v>1.2623967438584001</v>
       </c>
-      <c r="TJ16" s="1">
+      <c r="TJ16" s="3">
         <v>5.1604912787697399E-5</v>
       </c>
-      <c r="TK16">
+      <c r="TK16" s="2">
         <v>-0.62522747078844898</v>
       </c>
-      <c r="TL16">
+      <c r="TL16" s="2">
         <v>1.5481473836309199E-4</v>
       </c>
-      <c r="TM16">
+      <c r="TM16" s="2">
         <v>-0.54031717660817502</v>
       </c>
-      <c r="TN16">
+      <c r="TN16" s="2">
         <v>2.5802456393848698E-4</v>
       </c>
-      <c r="TO16">
+      <c r="TO16" s="2">
         <v>-0.23107844297044</v>
       </c>
-      <c r="TP16">
+      <c r="TP16" s="2">
         <v>1.5481473836309199E-4</v>
       </c>
-      <c r="TQ16">
+      <c r="TQ16" s="2">
         <v>-0.60341401802194905</v>
       </c>
-      <c r="TR16">
+      <c r="TR16" s="2">
         <v>3.0962947672618399E-4</v>
       </c>
-      <c r="TS16">
+      <c r="TS16" s="2">
         <v>-6.3521006222407597E-2</v>
       </c>
-      <c r="TT16">
-        <v>0</v>
-      </c>
-      <c r="TU16">
+      <c r="TT16" s="2">
+        <v>0</v>
+      </c>
+      <c r="TU16" s="2">
         <v>-0.32314397601716199</v>
       </c>
-      <c r="TV16">
-        <v>0</v>
-      </c>
-      <c r="TW16">
+      <c r="TV16" s="2">
+        <v>0</v>
+      </c>
+      <c r="TW16" s="2">
         <v>-0.47306358165275297</v>
       </c>
-      <c r="TX16">
+      <c r="TX16" s="2">
         <v>1.5481473836309199E-4</v>
       </c>
-      <c r="TY16">
+      <c r="TY16" s="2">
         <v>-0.81988631451752803</v>
       </c>
-      <c r="TZ16">
+      <c r="TZ16" s="2">
         <v>3.6123438951388202E-4</v>
       </c>
-      <c r="UA16">
+      <c r="UA16" s="2">
         <v>0.12530726015719101</v>
       </c>
-      <c r="UB16" s="1">
+      <c r="UB16" s="3">
         <v>5.1604912787697399E-5</v>
       </c>
-      <c r="UC16">
+      <c r="UC16" s="2">
         <v>-0.56619078486030505</v>
       </c>
-      <c r="UD16">
-        <v>0</v>
-      </c>
-      <c r="UE16">
+      <c r="UD16" s="2">
+        <v>0</v>
+      </c>
+      <c r="UE16" s="2">
         <v>-0.67490878876064098</v>
       </c>
-      <c r="UF16">
+      <c r="UF16" s="2">
         <v>7.2246877902776296E-4</v>
       </c>
-      <c r="UG16">
+      <c r="UG16" s="2">
         <v>1.2956358723266901</v>
       </c>
-      <c r="UH16">
+      <c r="UH16" s="2">
         <v>4.1283930230157897E-4</v>
       </c>
-      <c r="UI16">
+      <c r="UI16" s="2">
         <v>0.23961349518716701</v>
       </c>
-      <c r="UJ16">
-        <v>0</v>
-      </c>
-      <c r="UK16">
+      <c r="UJ16" s="2">
+        <v>0</v>
+      </c>
+      <c r="UK16" s="2">
         <v>-0.92666389905400603</v>
       </c>
-      <c r="UL16">
+      <c r="UL16" s="2">
         <v>5.6765404066467097E-4</v>
       </c>
-      <c r="UM16">
+      <c r="UM16" s="2">
         <v>0.74753135025171102</v>
       </c>
-      <c r="UN16">
+      <c r="UN16" s="2">
         <v>4.6444421508927701E-4</v>
       </c>
-      <c r="UO16">
+      <c r="UO16" s="2">
         <v>0.49869036693003999</v>
       </c>
-      <c r="UP16">
+      <c r="UP16" s="2">
         <v>7.2246877902776296E-4</v>
       </c>
-      <c r="UQ16">
+      <c r="UQ16" s="2">
         <v>1.4067674837799</v>
       </c>
-      <c r="UR16">
+      <c r="UR16" s="2">
         <v>2.5802456393848698E-4</v>
       </c>
-      <c r="US16">
+      <c r="US16" s="2">
         <v>-0.199715272656912</v>
       </c>
-      <c r="UT16">
+      <c r="UT16" s="2">
         <v>2.0641965115079E-4</v>
       </c>
-      <c r="UU16">
+      <c r="UU16" s="2">
         <v>-0.51723063570978001</v>
       </c>
-      <c r="UV16">
-        <v>0</v>
-      </c>
-      <c r="UW16">
+      <c r="UV16" s="2">
+        <v>0</v>
+      </c>
+      <c r="UW16" s="2">
         <v>-0.25819888974716099</v>
       </c>
-      <c r="UX16">
+      <c r="UX16" s="2">
         <v>5.6765404066467097E-4</v>
       </c>
-      <c r="UY16">
+      <c r="UY16" s="2">
         <v>1.72566201634734</v>
       </c>
-      <c r="UZ16">
+      <c r="UZ16" s="2">
         <v>1.03209825575395E-4</v>
       </c>
-      <c r="VA16">
+      <c r="VA16" s="2">
         <v>-0.47173123610738599</v>
       </c>
-      <c r="VB16">
+      <c r="VB16" s="2">
         <v>1.03209825575395E-4</v>
       </c>
-      <c r="VC16">
+      <c r="VC16" s="2">
         <v>-0.71663637597170404</v>
       </c>
-      <c r="VD16">
+      <c r="VD16" s="2">
         <v>6.1925895345236895E-4</v>
       </c>
-      <c r="VE16">
+      <c r="VE16" s="2">
         <v>0.89024942702197096</v>
       </c>
-      <c r="VF16">
+      <c r="VF16" s="2">
         <v>2.5802456393848698E-4</v>
       </c>
-      <c r="VG16">
+      <c r="VG16" s="2">
         <v>-0.14720729738837901</v>
       </c>
-      <c r="VH16">
+      <c r="VH16" s="2">
         <v>4.1283930230157897E-4</v>
       </c>
-      <c r="VI16">
+      <c r="VI16" s="2">
         <v>0.29452651331082502</v>
       </c>
-      <c r="VJ16">
-        <v>0</v>
-      </c>
-      <c r="VK16">
+      <c r="VJ16" s="2">
+        <v>0</v>
+      </c>
+      <c r="VK16" s="2">
         <v>-0.48995822423075203</v>
       </c>
-      <c r="VL16">
+      <c r="VL16" s="2">
         <v>1.5481473836309199E-4</v>
       </c>
-      <c r="VM16">
+      <c r="VM16" s="2">
         <v>-0.63108948579802604</v>
       </c>
-      <c r="VN16">
+      <c r="VN16" s="2">
         <v>1.03209825575395E-4</v>
       </c>
-      <c r="VO16">
+      <c r="VO16" s="2">
         <v>-0.72120745048146895</v>
       </c>
-      <c r="VP16">
+      <c r="VP16" s="2">
         <v>5.6765404066467097E-4</v>
       </c>
-      <c r="VQ16">
+      <c r="VQ16" s="2">
         <v>1.8801892373840601</v>
       </c>
-      <c r="VR16">
-        <v>0</v>
-      </c>
-      <c r="VS16">
+      <c r="VR16" s="2">
+        <v>0</v>
+      </c>
+      <c r="VS16" s="2">
         <v>-1.6363211539728799</v>
       </c>
-      <c r="VT16">
-        <v>0</v>
-      </c>
-      <c r="VU16">
+      <c r="VT16" s="2">
+        <v>0</v>
+      </c>
+      <c r="VU16" s="2">
         <v>-0.78907614560153905</v>
       </c>
-      <c r="VV16">
-        <v>0</v>
-      </c>
-      <c r="VW16">
+      <c r="VV16" s="2">
+        <v>0</v>
+      </c>
+      <c r="VW16" s="2">
         <v>-0.78330207277166697</v>
       </c>
-      <c r="VX16">
+      <c r="VX16" s="2">
         <v>3.0962947672618399E-4</v>
       </c>
-      <c r="VY16">
+      <c r="VY16" s="2">
         <v>6.3765376627311396E-2</v>
       </c>
-      <c r="VZ16">
+      <c r="VZ16" s="2">
         <v>3.0962947672618399E-4</v>
       </c>
-      <c r="WA16">
+      <c r="WA16" s="2">
         <v>6.4122233930504702E-2</v>
       </c>
-      <c r="WB16" s="1">
+      <c r="WB16" s="3">
         <v>5.1604912787697399E-5</v>
       </c>
-      <c r="WC16">
+      <c r="WC16" s="2">
         <v>-0.75152876441014305</v>
       </c>
-      <c r="WD16" s="1">
+      <c r="WD16" s="3">
         <v>5.1604912787697399E-5</v>
       </c>
-      <c r="WE16">
+      <c r="WE16" s="2">
         <v>-0.97476330052530602</v>
       </c>
-      <c r="WF16">
+      <c r="WF16" s="2">
         <v>5.1604912787697396E-4</v>
       </c>
-      <c r="WG16">
+      <c r="WG16" s="2">
         <v>0.807052765949833</v>
       </c>
-      <c r="WH16">
+      <c r="WH16" s="2">
         <v>3.6123438951388202E-4</v>
       </c>
-      <c r="WI16">
+      <c r="WI16" s="2">
         <v>0.34488648926351401</v>
       </c>
-      <c r="WJ16">
+      <c r="WJ16" s="2">
         <v>4.6444421508927701E-4</v>
       </c>
-      <c r="WK16">
+      <c r="WK16" s="2">
         <v>0.53808680059094705</v>
       </c>
-      <c r="WL16">
+      <c r="WL16" s="2">
         <v>1.03209825575395E-4</v>
       </c>
-      <c r="WM16">
+      <c r="WM16" s="2">
         <v>-1.0386443669085399</v>
       </c>
-      <c r="WN16">
-        <v>0</v>
-      </c>
-      <c r="WO16">
+      <c r="WN16" s="2">
+        <v>0</v>
+      </c>
+      <c r="WO16" s="2">
         <v>-0.62203221316991197</v>
       </c>
-      <c r="WP16" s="1">
+      <c r="WP16" s="3">
         <v>5.1604912787697399E-5</v>
       </c>
-      <c r="WQ16">
+      <c r="WQ16" s="2">
         <v>-1.4098934945397199</v>
       </c>
-      <c r="WR16">
+      <c r="WR16" s="2">
         <v>4.6444421508927701E-4</v>
       </c>
-      <c r="WS16">
+      <c r="WS16" s="2">
         <v>0.784948618631781</v>
       </c>
-      <c r="WT16">
+      <c r="WT16" s="2">
         <v>2.5802456393848698E-4</v>
       </c>
-      <c r="WU16">
+      <c r="WU16" s="2">
         <v>-0.119904502559288</v>
       </c>
-      <c r="WV16">
+      <c r="WV16" s="2">
         <v>3.0962947672618399E-4</v>
       </c>
-      <c r="WW16">
+      <c r="WW16" s="2">
         <v>0.12849312993602299</v>
       </c>
-      <c r="WX16">
+      <c r="WX16" s="2">
         <v>2.0641965115079E-4</v>
       </c>
-      <c r="WY16">
+      <c r="WY16" s="2">
         <v>-0.362350051437416</v>
       </c>
-      <c r="WZ16">
+      <c r="WZ16" s="2">
         <v>1.03209825575395E-4</v>
       </c>
-      <c r="XA16">
+      <c r="XA16" s="2">
         <v>-0.93337070967177005</v>
       </c>
-      <c r="XB16">
-        <v>0</v>
-      </c>
-      <c r="XC16">
+      <c r="XB16" s="2">
+        <v>0</v>
+      </c>
+      <c r="XC16" s="2">
         <v>-0.68968662529798397</v>
       </c>
-      <c r="XD16">
+      <c r="XD16" s="2">
         <v>1.03209825575395E-4</v>
       </c>
-      <c r="XE16">
+      <c r="XE16" s="2">
         <v>-0.84248486551103696</v>
       </c>
-      <c r="XF16">
+      <c r="XF16" s="2">
         <v>2.5802456393848698E-4</v>
       </c>
-      <c r="XG16">
+      <c r="XG16" s="2">
         <v>-9.1183538953496707E-2</v>
       </c>
-      <c r="XH16">
-        <v>0</v>
-      </c>
-      <c r="XI16">
+      <c r="XH16" s="2">
+        <v>0</v>
+      </c>
+      <c r="XI16" s="2">
         <v>-1.02966077072308</v>
       </c>
-      <c r="XJ16" s="1">
+      <c r="XJ16" s="3">
         <v>5.1604912787697399E-5</v>
       </c>
-      <c r="XK16">
+      <c r="XK16" s="2">
         <v>-0.51443116872997097</v>
       </c>
-      <c r="XL16">
+      <c r="XL16" s="2">
         <v>4.1283930230157897E-4</v>
       </c>
-      <c r="XM16">
+      <c r="XM16" s="2">
         <v>0.42615214096489001</v>
       </c>
-      <c r="XN16">
+      <c r="XN16" s="2">
         <v>2.0641965115079E-4</v>
       </c>
-      <c r="XO16">
+      <c r="XO16" s="2">
         <v>-0.23177054122383201</v>
       </c>
-      <c r="XP16" s="1">
+      <c r="XP16" s="3">
         <v>5.1604912787697399E-5</v>
       </c>
-      <c r="XQ16">
+      <c r="XQ16" s="2">
         <v>-1.0291195581095001</v>
       </c>
-      <c r="XR16">
+      <c r="XR16" s="2">
         <v>4.1283930230157897E-4</v>
       </c>
-      <c r="XS16">
+      <c r="XS16" s="2">
         <v>0.50814545921514498</v>
       </c>
-      <c r="XT16">
-        <v>0</v>
-      </c>
-      <c r="XU16">
+      <c r="XT16" s="2">
+        <v>0</v>
+      </c>
+      <c r="XU16" s="2">
         <v>-0.79581067624248003</v>
       </c>
-      <c r="XV16">
+      <c r="XV16" s="2">
         <v>6.1925895345236895E-4</v>
       </c>
-      <c r="XW16">
+      <c r="XW16" s="2">
         <v>0.96164648064453695</v>
       </c>
-      <c r="XX16" s="1">
+      <c r="XX16" s="3">
         <v>5.1604912787697399E-5</v>
       </c>
-      <c r="XY16">
+      <c r="XY16" s="2">
         <v>-0.90312352781147098</v>
       </c>
-      <c r="XZ16">
+      <c r="XZ16" s="2">
         <v>4.6444421508927701E-4</v>
       </c>
-      <c r="YA16">
+      <c r="YA16" s="2">
         <v>0.55734757943784696</v>
       </c>
-      <c r="YB16">
+      <c r="YB16" s="2">
         <v>2.5802456393848698E-4</v>
       </c>
-      <c r="YC16">
+      <c r="YC16" s="2">
         <v>-3.3934316468484903E-2</v>
       </c>
-      <c r="YD16">
+      <c r="YD16" s="2">
         <v>2.0641965115079E-4</v>
       </c>
-      <c r="YE16">
+      <c r="YE16" s="2">
         <v>-0.28793392909005699</v>
       </c>
-      <c r="YF16">
+      <c r="YF16" s="2">
         <v>3.6123438951388202E-4</v>
       </c>
-      <c r="YG16">
+      <c r="YG16" s="2">
         <v>0.33779683271809202</v>
       </c>
-      <c r="YH16">
+      <c r="YH16" s="2">
         <v>2.0641965115079E-4</v>
       </c>
-      <c r="YI16">
+      <c r="YI16" s="2">
         <v>-0.14294357813005301</v>
       </c>
-      <c r="YJ16">
+      <c r="YJ16" s="2">
         <v>4.1283930230157897E-4</v>
       </c>
-      <c r="YK16">
+      <c r="YK16" s="2">
         <v>0.53390606533304896</v>
       </c>
-      <c r="YL16">
+      <c r="YL16" s="2">
         <v>1.03209825575395E-4</v>
       </c>
-      <c r="YM16">
+      <c r="YM16" s="2">
         <v>-0.58450654477384001</v>
       </c>
-      <c r="YN16">
+      <c r="YN16" s="2">
         <v>4.6444421508927701E-4</v>
       </c>
-      <c r="YO16">
+      <c r="YO16" s="2">
         <v>1.1628052912906</v>
       </c>
-      <c r="YP16">
+      <c r="YP16" s="2">
         <v>3.0962947672618399E-4</v>
       </c>
-      <c r="YQ16">
+      <c r="YQ16" s="2">
         <v>0.138053242400167</v>
       </c>
-      <c r="YR16">
+      <c r="YR16" s="2">
         <v>3.0962947672618399E-4</v>
       </c>
-      <c r="YS16">
+      <c r="YS16" s="2">
         <v>0.27669734413772801</v>
       </c>
-      <c r="YT16" s="1">
+      <c r="YT16" s="3">
         <v>5.1604912787697399E-5</v>
       </c>
-      <c r="YU16">
+      <c r="YU16" s="2">
         <v>-0.68728556947047403</v>
       </c>
-      <c r="YV16" s="1">
+      <c r="YV16" s="3">
         <v>5.1604912787697399E-5</v>
       </c>
-      <c r="YW16">
+      <c r="YW16" s="2">
         <v>-0.97060577057900599</v>
       </c>
-      <c r="YX16" s="1">
+      <c r="YX16" s="3">
         <v>5.1604912787697399E-5</v>
       </c>
-      <c r="YY16">
+      <c r="YY16" s="2">
         <v>-0.869523755192947</v>
       </c>
-      <c r="YZ16">
+      <c r="YZ16" s="2">
         <v>5.1604912787697396E-4</v>
       </c>
-      <c r="ZA16">
+      <c r="ZA16" s="2">
         <v>1.2806992345083501</v>
       </c>
-      <c r="ZB16">
-        <v>0</v>
-      </c>
-      <c r="ZC16">
+      <c r="ZB16" s="2">
+        <v>0</v>
+      </c>
+      <c r="ZC16" s="2">
         <v>-0.51854805896003997</v>
       </c>
-      <c r="ZD16">
+      <c r="ZD16" s="2">
         <v>4.1283930230157897E-4</v>
       </c>
-      <c r="ZE16">
+      <c r="ZE16" s="2">
         <v>0.67811971504940205</v>
       </c>
-      <c r="ZF16">
+      <c r="ZF16" s="2">
         <v>1.03209825575395E-4</v>
       </c>
-      <c r="ZG16">
+      <c r="ZG16" s="2">
         <v>-0.58833312067754295</v>
       </c>
-      <c r="ZH16">
+      <c r="ZH16" s="2">
         <v>2.5802456393848698E-4</v>
       </c>
-      <c r="ZI16">
+      <c r="ZI16" s="2">
         <v>3.6296848635118097E-2</v>
       </c>
-      <c r="ZJ16">
-        <v>0</v>
-      </c>
-      <c r="ZK16">
+      <c r="ZJ16" s="2">
+        <v>0</v>
+      </c>
+      <c r="ZK16" s="2">
         <v>-0.91686521774630103</v>
       </c>
-      <c r="ZL16">
+      <c r="ZL16" s="2">
         <v>2.5802456393848698E-4</v>
       </c>
-      <c r="ZM16">
+      <c r="ZM16" s="2">
         <v>3.1940389305039299E-2</v>
       </c>
-      <c r="ZN16">
-        <v>0</v>
-      </c>
-      <c r="ZO16">
+      <c r="ZN16" s="2">
+        <v>0</v>
+      </c>
+      <c r="ZO16" s="2">
         <v>-0.55640012589947496</v>
       </c>
-      <c r="ZP16">
+      <c r="ZP16" s="2">
         <v>4.6444421508927701E-4</v>
       </c>
-      <c r="ZQ16">
+      <c r="ZQ16" s="2">
         <v>0.72883737763929202</v>
       </c>
-      <c r="ZR16">
-        <v>0</v>
-      </c>
-      <c r="ZS16">
+      <c r="ZR16" s="2">
+        <v>0</v>
+      </c>
+      <c r="ZS16" s="2">
         <v>-0.65979865228957701</v>
       </c>
-      <c r="ZT16">
+      <c r="ZT16" s="2">
         <v>7.7407369181546105E-4</v>
       </c>
-      <c r="ZU16">
+      <c r="ZU16" s="2">
         <v>1.6000993363182401</v>
       </c>
-      <c r="ZV16">
-        <v>0</v>
-      </c>
-      <c r="ZW16">
+      <c r="ZV16" s="2">
+        <v>0</v>
+      </c>
+      <c r="ZW16" s="2">
         <v>-0.36896238848851098</v>
       </c>
-      <c r="ZX16">
+      <c r="ZX16" s="2">
         <v>6.1925895345236895E-4</v>
       </c>
-      <c r="ZY16">
+      <c r="ZY16" s="2">
         <v>1.48480205542154</v>
       </c>
-      <c r="ZZ16">
+      <c r="ZZ16" s="2">
         <v>2.5802456393848698E-4</v>
       </c>
-      <c r="AAA16">
+      <c r="AAA16" s="2">
         <v>5.4035353575674301E-2</v>
       </c>
-      <c r="AAB16">
+      <c r="AAB16" s="2">
         <v>9.8049334296625005E-4</v>
       </c>
-      <c r="AAC16">
+      <c r="AAC16" s="2">
         <v>2.4675463273965299</v>
       </c>
-      <c r="AAD16">
+      <c r="AAD16" s="2">
         <v>2.0641965115079E-4</v>
       </c>
-      <c r="AAE16">
+      <c r="AAE16" s="2">
         <v>-0.35714005169632701</v>
       </c>
-      <c r="AAF16">
-        <v>0</v>
-      </c>
-      <c r="AAG16">
+      <c r="AAF16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AAG16" s="2">
         <v>-0.66471401383907203</v>
       </c>
-      <c r="AAH16">
+      <c r="AAH16" s="2">
         <v>9.2888843017855304E-4</v>
       </c>
-      <c r="AAI16">
+      <c r="AAI16" s="2">
         <v>2.37558200326538</v>
       </c>
-      <c r="AAJ16">
+      <c r="AAJ16" s="2">
         <v>3.6123438951388202E-4</v>
       </c>
-      <c r="AAK16">
+      <c r="AAK16" s="2">
         <v>0.68507106300397602</v>
       </c>
-      <c r="AAL16">
+      <c r="AAL16" s="2">
         <v>2.0641965115079E-4</v>
       </c>
-      <c r="AAM16">
+      <c r="AAM16" s="2">
         <v>-0.19064721874340701</v>
       </c>
-      <c r="AAN16">
+      <c r="AAN16" s="2">
         <v>1.03209825575395E-4</v>
       </c>
-      <c r="AAO16">
+      <c r="AAO16" s="2">
         <v>-0.60292935002157</v>
       </c>
-      <c r="AAP16">
+      <c r="AAP16" s="2">
         <v>1.03209825575395E-4</v>
       </c>
-      <c r="AAQ16">
+      <c r="AAQ16" s="2">
         <v>-0.57933357902430804</v>
       </c>
-      <c r="AAR16">
+      <c r="AAR16" s="2">
         <v>3.0962947672618399E-4</v>
       </c>
-      <c r="AAS16">
+      <c r="AAS16" s="2">
         <v>0.40737751126941202</v>
       </c>
-      <c r="AAT16">
+      <c r="AAT16" s="2">
         <v>4.6444421508927701E-4</v>
       </c>
-      <c r="AAU16">
+      <c r="AAU16" s="2">
         <v>0.97327143230398505</v>
       </c>
-      <c r="AAV16">
+      <c r="AAV16" s="2">
         <v>1.03209825575395E-4</v>
       </c>
-      <c r="AAW16">
+      <c r="AAW16" s="2">
         <v>-0.298963450801774</v>
       </c>
-      <c r="AAX16">
+      <c r="AAX16" s="2">
         <v>2.5802456393848698E-4</v>
       </c>
-      <c r="AAY16">
+      <c r="AAY16" s="2">
         <v>0.122189456722627</v>
       </c>
-      <c r="AAZ16">
-        <v>0</v>
-      </c>
-      <c r="ABA16">
+      <c r="AAZ16" s="2">
+        <v>0</v>
+      </c>
+      <c r="ABA16" s="2">
         <v>-0.942308963654933</v>
       </c>
-      <c r="ABB16">
+      <c r="ABB16" s="2">
         <v>2.0641965115079E-4</v>
       </c>
-      <c r="ABC16">
+      <c r="ABC16" s="2">
         <v>-0.210176899779807</v>
       </c>
-      <c r="ABD16" s="1">
+      <c r="ABD16" s="3">
         <v>5.1604912787697399E-5</v>
       </c>
-      <c r="ABE16">
+      <c r="ABE16" s="2">
         <v>-0.83642954164163397</v>
       </c>
-      <c r="ABF16">
+      <c r="ABF16" s="2">
         <v>1.03209825575395E-4</v>
       </c>
-      <c r="ABG16">
+      <c r="ABG16" s="2">
         <v>-0.68650168953405</v>
       </c>
-      <c r="ABH16">
+      <c r="ABH16" s="2">
         <v>4.6444421508927701E-4</v>
       </c>
-      <c r="ABI16">
+      <c r="ABI16" s="2">
         <v>0.74368562517436299</v>
       </c>
-      <c r="ABJ16">
-        <v>0</v>
-      </c>
-      <c r="ABK16">
+      <c r="ABJ16" s="2">
+        <v>0</v>
+      </c>
+      <c r="ABK16" s="2">
         <v>-0.311523781414489</v>
       </c>
-      <c r="ABL16">
-        <v>0</v>
-      </c>
-      <c r="ABM16">
+      <c r="ABL16" s="2">
+        <v>0</v>
+      </c>
+      <c r="ABM16" s="2">
         <v>-1.1534343453262299</v>
       </c>
-      <c r="ABN16" s="1">
+      <c r="ABN16" s="3">
         <v>5.1604912787697399E-5</v>
       </c>
-      <c r="ABO16">
+      <c r="ABO16" s="2">
         <v>-0.74369406874305199</v>
       </c>
-      <c r="ABP16">
+      <c r="ABP16" s="2">
         <v>5.1604912787697396E-4</v>
       </c>
-      <c r="ABQ16">
+      <c r="ABQ16" s="2">
         <v>0.83492815031744005</v>
       </c>
-      <c r="ABR16" s="1">
+      <c r="ABR16" s="3">
         <v>5.1604912787697399E-5</v>
       </c>
-      <c r="ABS16">
+      <c r="ABS16" s="2">
         <v>-0.46536768712210203</v>
       </c>
-      <c r="ABT16">
+      <c r="ABT16" s="2">
         <v>8.7728351739085604E-4</v>
       </c>
-      <c r="ABU16">
+      <c r="ABU16" s="2">
         <v>2.7620783124833399</v>
       </c>
-      <c r="ABV16">
+      <c r="ABV16" s="2">
         <v>1.5481473836309199E-4</v>
       </c>
-      <c r="ABW16">
+      <c r="ABW16" s="2">
         <v>-0.316469365346285</v>
       </c>
-      <c r="ABX16">
-        <v>0</v>
-      </c>
-      <c r="ABY16">
+      <c r="ABX16" s="2">
+        <v>0</v>
+      </c>
+      <c r="ABY16" s="2">
         <v>-1.4059735754900999</v>
       </c>
-      <c r="ABZ16">
+      <c r="ABZ16" s="2">
         <v>3.0962947672618399E-4</v>
       </c>
-      <c r="ACA16">
+      <c r="ACA16" s="2">
         <v>0.31445248787206298</v>
       </c>
-      <c r="ACB16">
-        <v>0</v>
-      </c>
-      <c r="ACC16">
+      <c r="ACB16" s="2">
+        <v>0</v>
+      </c>
+      <c r="ACC16" s="2">
         <v>-0.95567468661923205</v>
       </c>
-      <c r="ACD16" s="1">
+      <c r="ACD16" s="3">
         <v>5.1604912787697399E-5</v>
       </c>
-      <c r="ACE16">
+      <c r="ACE16" s="2">
         <v>-0.60616187253495402</v>
       </c>
-      <c r="ACF16">
+      <c r="ACF16" s="2">
         <v>1.0837031685416499E-3</v>
       </c>
-      <c r="ACG16">
+      <c r="ACG16" s="2">
         <v>2.9614411875290201</v>
       </c>
-      <c r="ACH16">
+      <c r="ACH16" s="2">
         <v>8.7728351739085604E-4</v>
       </c>
-      <c r="ACI16">
+      <c r="ACI16" s="2">
         <v>2.70614961702399</v>
       </c>
-      <c r="ACJ16">
-        <v>0</v>
-      </c>
-      <c r="ACK16">
+      <c r="ACJ16" s="2">
+        <v>0</v>
+      </c>
+      <c r="ACK16" s="2">
         <v>-0.81610889859253</v>
       </c>
-      <c r="ACL16">
+      <c r="ACL16" s="2">
         <v>3.0962947672618399E-4</v>
       </c>
-      <c r="ACM16">
+      <c r="ACM16" s="2">
         <v>0.47992260823646099</v>
       </c>
-      <c r="ACN16">
-        <v>0</v>
-      </c>
-      <c r="ACO16">
+      <c r="ACN16" s="2">
+        <v>0</v>
+      </c>
+      <c r="ACO16" s="2">
         <v>-0.90357868670869601</v>
       </c>
-      <c r="ACP16">
+      <c r="ACP16" s="2">
         <v>5.1604912787697396E-4</v>
       </c>
-      <c r="ACQ16">
+      <c r="ACQ16" s="2">
         <v>0.96437456339653105</v>
       </c>
-      <c r="ACR16">
+      <c r="ACR16" s="2">
         <v>6.7086386624006596E-4</v>
       </c>
-      <c r="ACS16">
+      <c r="ACS16" s="2">
         <v>1.80806804620226</v>
       </c>
-      <c r="ACT16">
+      <c r="ACT16" s="2">
         <v>3.0962947672618399E-4</v>
       </c>
-      <c r="ACU16">
+      <c r="ACU16" s="2">
         <v>0.44062997283533401</v>
       </c>
-      <c r="ACV16">
+      <c r="ACV16" s="2">
         <v>2.5802456393848698E-4</v>
       </c>
-      <c r="ACW16">
+      <c r="ACW16" s="2">
         <v>0.15415176513492501</v>
       </c>
-      <c r="ACX16">
+      <c r="ACX16" s="2">
         <v>3.0962947672618399E-4</v>
       </c>
-      <c r="ACY16">
+      <c r="ACY16" s="2">
         <v>0.42336483153283999</v>
       </c>
-      <c r="ACZ16">
+      <c r="ACZ16" s="2">
         <v>2.5802456393848698E-4</v>
       </c>
-      <c r="ADA16">
+      <c r="ADA16" s="2">
         <v>0.221207226621215</v>
       </c>
-      <c r="ADB16">
+      <c r="ADB16" s="2">
         <v>5.6765404066467097E-4</v>
       </c>
-      <c r="ADC16">
+      <c r="ADC16" s="2">
         <v>1.3763742560441099</v>
       </c>
-      <c r="ADD16">
+      <c r="ADD16" s="2">
         <v>2.5802456393848698E-4</v>
       </c>
-      <c r="ADE16">
+      <c r="ADE16" s="2">
         <v>0.13187787038712701</v>
       </c>
-      <c r="ADF16">
-        <v>0</v>
-      </c>
-      <c r="ADG16">
+      <c r="ADF16" s="2">
+        <v>0</v>
+      </c>
+      <c r="ADG16" s="2">
         <v>-0.86189169035859803</v>
       </c>
-      <c r="ADH16">
-        <v>0</v>
-      </c>
-      <c r="ADI16">
+      <c r="ADH16" s="2">
+        <v>0</v>
+      </c>
+      <c r="ADI16" s="2">
         <v>-0.43967231929178302</v>
       </c>
-      <c r="ADJ16">
+      <c r="ADJ16" s="2">
         <v>2.5802456393848698E-4</v>
       </c>
-      <c r="ADK16">
+      <c r="ADK16" s="2">
         <v>0.23009679509441799</v>
       </c>
-      <c r="ADL16">
+      <c r="ADL16" s="2">
         <v>2.5802456393848698E-4</v>
       </c>
-      <c r="ADM16">
+      <c r="ADM16" s="2">
         <v>0.26310494915359001</v>
       </c>
-      <c r="ADN16" s="1">
+      <c r="ADN16" s="3">
         <v>5.1604912787697399E-5</v>
       </c>
-      <c r="ADO16">
+      <c r="ADO16" s="2">
         <v>-0.61878085873159405</v>
       </c>
-      <c r="ADP16" s="1">
+      <c r="ADP16" s="3">
         <v>5.1604912787697399E-5</v>
       </c>
-      <c r="ADQ16">
+      <c r="ADQ16" s="2">
         <v>-0.72879731593328601</v>
       </c>
-      <c r="ADR16">
+      <c r="ADR16" s="2">
         <v>2.0641965115079E-4</v>
       </c>
-      <c r="ADS16">
+      <c r="ADS16" s="2">
         <v>-5.3203269641168199E-2</v>
       </c>
-      <c r="ADT16">
+      <c r="ADT16" s="2">
         <v>6.7086386624006596E-4</v>
       </c>
-      <c r="ADU16">
+      <c r="ADU16" s="2">
         <v>1.4541335203685499</v>
       </c>
-      <c r="ADV16">
-        <v>0</v>
-      </c>
-      <c r="ADW16">
+      <c r="ADV16" s="2">
+        <v>0</v>
+      </c>
+      <c r="ADW16" s="2">
         <v>-0.77820570242439602</v>
       </c>
-      <c r="ADX16" s="1">
+      <c r="ADX16" s="3">
         <v>5.1604912787697399E-5</v>
       </c>
-      <c r="ADY16">
+      <c r="ADY16" s="2">
         <v>-1.2035450073325</v>
       </c>
-      <c r="ADZ16">
+      <c r="ADZ16" s="2">
         <v>2.5802456393848698E-4</v>
       </c>
-      <c r="AEA16">
+      <c r="AEA16" s="2">
         <v>0.285936692344329</v>
       </c>
-      <c r="AEB16">
-        <v>0</v>
-      </c>
-      <c r="AEC16">
+      <c r="AEB16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AEC16" s="2">
         <v>-0.68841786522347304</v>
       </c>
-      <c r="AED16">
+      <c r="AED16" s="2">
         <v>4.6444421508927701E-4</v>
       </c>
-      <c r="AEE16">
+      <c r="AEE16" s="2">
         <v>1.7304777239625999</v>
       </c>
-      <c r="AEF16">
+      <c r="AEF16" s="2">
         <v>7.2246877902776296E-4</v>
       </c>
-      <c r="AEG16">
+      <c r="AEG16" s="2">
         <v>1.8266655636482301</v>
       </c>
-      <c r="AEH16">
+      <c r="AEH16" s="2">
         <v>1.03209825575395E-4</v>
       </c>
-      <c r="AEI16">
+      <c r="AEI16" s="2">
         <v>-0.62072898317374903</v>
       </c>
-      <c r="AEJ16">
+      <c r="AEJ16" s="2">
         <v>2.5802456393848698E-4</v>
       </c>
-      <c r="AEK16">
+      <c r="AEK16" s="2">
         <v>0.37338038930209</v>
       </c>
-      <c r="AEL16">
+      <c r="AEL16" s="2">
         <v>2.5802456393848698E-4</v>
       </c>
-      <c r="AEM16">
+      <c r="AEM16" s="2">
         <v>0.30465638805747403</v>
       </c>
-      <c r="AEN16">
-        <v>0</v>
-      </c>
-      <c r="AEO16">
+      <c r="AEN16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AEO16" s="2">
         <v>-0.69523498658774396</v>
       </c>
-      <c r="AEP16">
-        <v>0</v>
-      </c>
-      <c r="AEQ16">
+      <c r="AEP16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AEQ16" s="2">
         <v>-1.0775668949756201</v>
       </c>
-      <c r="AER16">
+      <c r="AER16" s="2">
         <v>1.03209825575395E-4</v>
       </c>
-      <c r="AES16">
+      <c r="AES16" s="2">
         <v>-0.64544052142709796</v>
       </c>
-      <c r="AET16">
+      <c r="AET16" s="2">
         <v>3.0962947672618399E-4</v>
       </c>
-      <c r="AEU16">
+      <c r="AEU16" s="2">
         <v>0.63181860276951796</v>
       </c>
-      <c r="AEV16">
+      <c r="AEV16" s="2">
         <v>1.5481473836309199E-4</v>
       </c>
-      <c r="AEW16">
+      <c r="AEW16" s="2">
         <v>-0.30040674356910302</v>
       </c>
-      <c r="AEX16">
+      <c r="AEX16" s="2">
         <v>1.5481473836309199E-4</v>
       </c>
-      <c r="AEY16">
+      <c r="AEY16" s="2">
         <v>-8.62881706501335E-2</v>
       </c>
-      <c r="AEZ16">
+      <c r="AEZ16" s="2">
         <v>7.2246877902776296E-4</v>
       </c>
-      <c r="AFA16">
+      <c r="AFA16" s="2">
         <v>2.3038678515969999</v>
       </c>
-      <c r="AFB16">
+      <c r="AFB16" s="2">
         <v>2.0641965115079E-4</v>
       </c>
-      <c r="AFC16">
+      <c r="AFC16" s="2">
         <v>6.8154699222689004E-3</v>
       </c>
-      <c r="AFD16">
+      <c r="AFD16" s="2">
         <v>6.7086386624006596E-4</v>
       </c>
-      <c r="AFE16">
+      <c r="AFE16" s="2">
         <v>2.45600879663303</v>
       </c>
-      <c r="AFF16">
+      <c r="AFF16" s="2">
         <v>1.03209825575395E-4</v>
       </c>
-      <c r="AFG16">
+      <c r="AFG16" s="2">
         <v>-0.70059734967074505</v>
       </c>
-      <c r="AFH16">
-        <v>0</v>
-      </c>
-      <c r="AFI16">
+      <c r="AFH16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AFI16" s="2">
         <v>-0.46806132418626101</v>
       </c>
-      <c r="AFJ16">
+      <c r="AFJ16" s="2">
         <v>9.2888843017855304E-4</v>
       </c>
-      <c r="AFK16">
+      <c r="AFK16" s="2">
         <v>2.4683249105126199</v>
       </c>
-      <c r="AFL16">
-        <v>0</v>
-      </c>
-      <c r="AFM16">
+      <c r="AFL16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AFM16" s="2">
         <v>-0.56057798850525598</v>
       </c>
-      <c r="AFN16">
-        <v>0</v>
-      </c>
-      <c r="AFO16">
+      <c r="AFN16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AFO16" s="2">
         <v>-0.90225745442624905</v>
       </c>
-      <c r="AFP16">
-        <v>0</v>
-      </c>
-      <c r="AFQ16">
+      <c r="AFP16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AFQ16" s="2">
         <v>-0.96555800929792301</v>
       </c>
-      <c r="AFR16">
+      <c r="AFR16" s="2">
         <v>2.0641965115079E-4</v>
       </c>
-      <c r="AFS16">
+      <c r="AFS16" s="2">
         <v>4.7792678427274901E-2</v>
       </c>
-      <c r="AFT16">
+      <c r="AFT16" s="2">
         <v>4.6444421508927701E-4</v>
       </c>
-      <c r="AFU16">
+      <c r="AFU16" s="2">
         <v>1.9135396955002899</v>
       </c>
-      <c r="AFV16">
+      <c r="AFV16" s="2">
         <v>1.03209825575395E-4</v>
       </c>
-      <c r="AFW16">
+      <c r="AFW16" s="2">
         <v>-0.582947918997064</v>
       </c>
-      <c r="AFX16">
-        <v>0</v>
-      </c>
-      <c r="AFY16">
+      <c r="AFX16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AFY16" s="2">
         <v>-0.54568505457431404</v>
       </c>
-      <c r="AFZ16">
+      <c r="AFZ16" s="2">
         <v>3.6123438951388202E-4</v>
       </c>
-      <c r="AGA16">
+      <c r="AGA16" s="2">
         <v>0.77010252651453803</v>
       </c>
-      <c r="AGB16">
+      <c r="AGB16" s="2">
         <v>1.03209825575395E-4</v>
       </c>
-      <c r="AGC16">
+      <c r="AGC16" s="2">
         <v>-0.59974015694084704</v>
       </c>
-      <c r="AGD16">
-        <v>0</v>
-      </c>
-      <c r="AGE16">
+      <c r="AGD16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AGE16" s="2">
         <v>-0.584082646191044</v>
       </c>
-      <c r="AGF16">
+      <c r="AGF16" s="2">
         <v>2.0641965115079E-4</v>
       </c>
-      <c r="AGG16">
+      <c r="AGG16" s="2">
         <v>8.58158834601606E-2</v>
       </c>
-      <c r="AGH16">
+      <c r="AGH16" s="2">
         <v>2.5802456393848698E-4</v>
       </c>
-      <c r="AGI16">
+      <c r="AGI16" s="2">
         <v>0.34560249010747601</v>
       </c>
-      <c r="AGJ16">
-        <v>0</v>
-      </c>
-      <c r="AGK16">
+      <c r="AGJ16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AGK16" s="2">
         <v>-0.57444588056026702</v>
       </c>
-      <c r="AGL16">
+      <c r="AGL16" s="2">
         <v>1.03209825575395E-4</v>
       </c>
-      <c r="AGM16">
+      <c r="AGM16" s="2">
         <v>-0.40293560373480403</v>
       </c>
-      <c r="AGN16">
-        <v>0</v>
-      </c>
-      <c r="AGO16">
+      <c r="AGN16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AGO16" s="2">
         <v>-0.75410280616690795</v>
       </c>
-      <c r="AGP16">
+      <c r="AGP16" s="2">
         <v>1.03209825575395E-4</v>
       </c>
-      <c r="AGQ16">
+      <c r="AGQ16" s="2">
         <v>-0.63672576594192698</v>
       </c>
-      <c r="AGR16">
+      <c r="AGR16" s="2">
         <v>3.0962947672618399E-4</v>
       </c>
-      <c r="AGS16">
+      <c r="AGS16" s="2">
         <v>0.84709384075526695</v>
       </c>
-      <c r="AGT16">
+      <c r="AGT16" s="2">
         <v>1.03209825575395E-4</v>
       </c>
-      <c r="AGU16">
+      <c r="AGU16" s="2">
         <v>-0.57978546227549699</v>
       </c>
-      <c r="AGV16">
+      <c r="AGV16" s="2">
         <v>2.0641965115079E-4</v>
       </c>
-      <c r="AGW16">
+      <c r="AGW16" s="2">
         <v>0.116272767141504</v>
       </c>
-      <c r="AGX16">
-        <v>0</v>
-      </c>
-      <c r="AGY16">
+      <c r="AGX16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AGY16" s="2">
         <v>-1.11500140997036</v>
       </c>
-      <c r="AGZ16">
+      <c r="AGZ16" s="2">
         <v>3.0962947672618399E-4</v>
       </c>
-      <c r="AHA16">
+      <c r="AHA16" s="2">
         <v>0.81149529136061704</v>
       </c>
-      <c r="AHB16">
+      <c r="AHB16" s="2">
         <v>4.6444421508927701E-4</v>
       </c>
-      <c r="AHC16">
+      <c r="AHC16" s="2">
         <v>1.0001848915248599</v>
       </c>
-      <c r="AHD16">
+      <c r="AHD16" s="2">
         <v>2.0641965115079E-4</v>
       </c>
-      <c r="AHE16">
+      <c r="AHE16" s="2">
         <v>9.2481273912531498E-2</v>
       </c>
-      <c r="AHF16" s="1">
+      <c r="AHF16" s="3">
         <v>5.1604912787697399E-5</v>
       </c>
-      <c r="AHG16">
+      <c r="AHG16" s="2">
         <v>-0.69955057877920201</v>
       </c>
-      <c r="AHH16">
+      <c r="AHH16" s="2">
         <v>2.5802456393848698E-4</v>
       </c>
-      <c r="AHI16">
+      <c r="AHI16" s="2">
         <v>0.27713986773434102</v>
       </c>
-      <c r="AHJ16">
-        <v>0</v>
-      </c>
-      <c r="AHK16">
+      <c r="AHJ16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AHK16" s="2">
         <v>-1.2111126812899</v>
       </c>
-      <c r="AHL16">
+      <c r="AHL16" s="2">
         <v>1.03209825575395E-4</v>
       </c>
-      <c r="AHM16">
+      <c r="AHM16" s="2">
         <v>-0.47236996029375999</v>
       </c>
-      <c r="AHN16">
-        <v>0</v>
-      </c>
-      <c r="AHO16">
+      <c r="AHN16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AHO16" s="2">
         <v>-0.772946476590053</v>
       </c>
-      <c r="AHP16">
+      <c r="AHP16" s="2">
         <v>4.1283930230157897E-4</v>
       </c>
-      <c r="AHQ16">
+      <c r="AHQ16" s="2">
         <v>1.8245142708536599</v>
       </c>
-      <c r="AHR16" s="1">
+      <c r="AHR16" s="3">
         <v>5.1604912787697399E-5</v>
       </c>
-      <c r="AHS16">
+      <c r="AHS16" s="2">
         <v>-1.03077592382282</v>
       </c>
-      <c r="AHT16">
+      <c r="AHT16" s="2">
         <v>7.2246877902776296E-4</v>
       </c>
-      <c r="AHU16">
+      <c r="AHU16" s="2">
         <v>2.6805386404599201</v>
       </c>
-      <c r="AHV16">
+      <c r="AHV16" s="2">
         <v>1.03209825575395E-4</v>
       </c>
-      <c r="AHW16">
+      <c r="AHW16" s="2">
         <v>-0.57257538184071</v>
       </c>
-      <c r="AHX16">
+      <c r="AHX16" s="2">
         <v>1.5481473836309199E-4</v>
       </c>
-      <c r="AHY16">
+      <c r="AHY16" s="2">
         <v>-0.13215008345245399</v>
       </c>
-      <c r="AHZ16">
+      <c r="AHZ16" s="2">
         <v>2.0641965115079E-4</v>
       </c>
-      <c r="AIA16">
+      <c r="AIA16" s="2">
         <v>0.109925854843245</v>
       </c>
-      <c r="AIB16" s="1">
+      <c r="AIB16" s="3">
         <v>5.1604912787697399E-5</v>
       </c>
-      <c r="AIC16">
+      <c r="AIC16" s="2">
         <v>-0.64137599360180098</v>
       </c>
-      <c r="AID16">
+      <c r="AID16" s="2">
         <v>3.0962947672618399E-4</v>
       </c>
-      <c r="AIE16">
+      <c r="AIE16" s="2">
         <v>0.70195174136803695</v>
       </c>
-      <c r="AIF16">
-        <v>0</v>
-      </c>
-      <c r="AIG16">
+      <c r="AIF16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AIG16" s="2">
         <v>-1.4875290253351601</v>
       </c>
-      <c r="AIH16">
+      <c r="AIH16" s="2">
         <v>1.5481473836309199E-4</v>
       </c>
-      <c r="AII16">
+      <c r="AII16" s="2">
         <v>-0.16710178222077299</v>
       </c>
-      <c r="AIJ16">
+      <c r="AIJ16" s="2">
         <v>4.6444421508927701E-4</v>
       </c>
-      <c r="AIK16">
+      <c r="AIK16" s="2">
         <v>1.2073927003193601</v>
       </c>
-      <c r="AIL16">
+      <c r="AIL16" s="2">
         <v>1.5481473836309199E-4</v>
       </c>
-      <c r="AIM16">
+      <c r="AIM16" s="2">
         <v>-0.16954791759698101</v>
       </c>
-      <c r="AIN16">
-        <v>0</v>
-      </c>
-      <c r="AIO16">
+      <c r="AIN16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AIO16" s="2">
         <v>-0.78063547170581304</v>
       </c>
-      <c r="AIP16" s="1">
+      <c r="AIP16" s="3">
         <v>5.1604912787697399E-5</v>
       </c>
-      <c r="AIQ16">
+      <c r="AIQ16" s="2">
         <v>-0.82746650803448896</v>
       </c>
-      <c r="AIR16">
+      <c r="AIR16" s="2">
         <v>1.5481473836309199E-4</v>
       </c>
-      <c r="AIS16">
+      <c r="AIS16" s="2">
         <v>-0.17488201192682601</v>
       </c>
-      <c r="AIT16" s="1">
+      <c r="AIT16" s="3">
         <v>5.1604912787697399E-5</v>
       </c>
-      <c r="AIU16">
+      <c r="AIU16" s="2">
         <v>-0.39427402901400099</v>
       </c>
-      <c r="AIV16">
+      <c r="AIV16" s="2">
         <v>4.1283930230157897E-4</v>
       </c>
-      <c r="AIW16">
+      <c r="AIW16" s="2">
         <v>1.2906207466724799</v>
       </c>
-      <c r="AIX16">
+      <c r="AIX16" s="2">
         <v>6.1925895345236895E-4</v>
       </c>
-      <c r="AIY16">
+      <c r="AIY16" s="2">
         <v>2.2260011559912001</v>
       </c>
-      <c r="AIZ16" s="1">
+      <c r="AIZ16" s="3">
         <v>5.1604912787697399E-5</v>
       </c>
-      <c r="AJA16">
+      <c r="AJA16" s="2">
         <v>-0.55931187759848</v>
       </c>
-      <c r="AJB16">
+      <c r="AJB16" s="2">
         <v>6.7086386624006596E-4</v>
       </c>
-      <c r="AJC16">
+      <c r="AJC16" s="2">
         <v>2.7742725229427498</v>
       </c>
-      <c r="AJD16">
+      <c r="AJD16" s="2">
         <v>2.5802456393848698E-4</v>
       </c>
-      <c r="AJE16">
+      <c r="AJE16" s="2">
         <v>0.338995707274658</v>
       </c>
-      <c r="AJF16">
-        <v>0</v>
-      </c>
-      <c r="AJG16">
+      <c r="AJF16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJG16" s="2">
         <v>-0.57104576079984704</v>
       </c>
-      <c r="AJH16">
+      <c r="AJH16" s="2">
         <v>5.6765404066467097E-4</v>
       </c>
-      <c r="AJI16">
+      <c r="AJI16" s="2">
         <v>1.9340688181407699</v>
       </c>
-      <c r="AJJ16">
+      <c r="AJJ16" s="2">
         <v>2.5802456393848698E-4</v>
       </c>
-      <c r="AJK16">
+      <c r="AJK16" s="2">
         <v>0.60866881036477005</v>
       </c>
-      <c r="AJL16">
-        <v>0</v>
-      </c>
-      <c r="AJM16">
+      <c r="AJL16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJM16" s="2">
         <v>-0.34521719048131899</v>
       </c>
-      <c r="AJN16">
+      <c r="AJN16" s="2">
         <v>1.03209825575395E-4</v>
       </c>
-      <c r="AJO16">
+      <c r="AJO16" s="2">
         <v>-0.56708735394406595</v>
       </c>
-      <c r="AJP16" s="1">
+      <c r="AJP16" s="3">
         <v>5.1604912787697399E-5</v>
       </c>
-      <c r="AJQ16">
+      <c r="AJQ16" s="2">
         <v>-0.81454325990435295</v>
       </c>
-      <c r="AJR16">
+      <c r="AJR16" s="2">
         <v>2.0641965115079E-4</v>
       </c>
-      <c r="AJS16">
+      <c r="AJS16" s="2">
         <v>0.29188039529549897</v>
       </c>
-      <c r="AJT16">
-        <v>0</v>
-      </c>
-      <c r="AJU16">
+      <c r="AJT16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJU16" s="2">
         <v>-0.62242188034234103</v>
       </c>
-      <c r="AJV16">
+      <c r="AJV16" s="2">
         <v>6.7086386624006596E-4</v>
       </c>
-      <c r="AJW16">
+      <c r="AJW16" s="2">
         <v>2.3070339291701401</v>
       </c>
-      <c r="AJX16">
+      <c r="AJX16" s="2">
         <v>1.5481473836309199E-4</v>
       </c>
-      <c r="AJY16">
+      <c r="AJY16" s="2">
         <v>-0.109000003114971</v>
       </c>
-      <c r="AJZ16">
-        <v>0</v>
-      </c>
-      <c r="AKA16">
+      <c r="AJZ16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AKA16" s="2">
         <v>-1.5404121760093901</v>
       </c>
-      <c r="AKB16" s="1">
+      <c r="AKB16" s="3">
         <v>5.1604912787697399E-5</v>
       </c>
-      <c r="AKC16">
+      <c r="AKC16" s="2">
         <v>-0.68651122676713805</v>
       </c>
-      <c r="AKD16">
+      <c r="AKD16" s="2">
         <v>2.5802456393848698E-4</v>
       </c>
-      <c r="AKE16">
+      <c r="AKE16" s="2">
         <v>0.79673705446809695</v>
       </c>
-      <c r="AKF16">
+      <c r="AKF16" s="2">
         <v>1.03209825575395E-4</v>
       </c>
-      <c r="AKG16">
+      <c r="AKG16" s="2">
         <v>-0.204269051310492</v>
       </c>
-      <c r="AKH16">
+      <c r="AKH16" s="2">
         <v>2.0641965115079E-4</v>
       </c>
-      <c r="AKI16">
+      <c r="AKI16" s="2">
         <v>0.22509714427969399</v>
       </c>
-      <c r="AKJ16">
+      <c r="AKJ16" s="2">
         <v>1.5481473836309199E-4</v>
       </c>
-      <c r="AKK16">
+      <c r="AKK16" s="2">
         <v>-0.104097523282422</v>
       </c>
-      <c r="AKL16">
+      <c r="AKL16" s="2">
         <v>4.6444421508927701E-4</v>
       </c>
-      <c r="AKM16">
+      <c r="AKM16" s="2">
         <v>1.5485224270170801</v>
       </c>
-      <c r="AKN16">
-        <v>0</v>
-      </c>
-      <c r="AKO16">
+      <c r="AKN16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AKO16" s="2">
         <v>-0.546305664549121</v>
       </c>
-      <c r="AKP16">
+      <c r="AKP16" s="2">
         <v>2.0641965115079E-4</v>
       </c>
-      <c r="AKQ16">
+      <c r="AKQ16" s="2">
         <v>0.18368944607979601</v>
       </c>
-      <c r="AKR16" s="1">
+      <c r="AKR16" s="3">
         <v>5.1604912787697399E-5</v>
       </c>
-      <c r="AKS16">
+      <c r="AKS16" s="2">
         <v>-0.606048858716704</v>
       </c>
-      <c r="AKT16">
-        <v>0</v>
-      </c>
-      <c r="AKU16">
+      <c r="AKT16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AKU16" s="2">
         <v>-0.90880518038559199</v>
       </c>
-      <c r="AKV16">
+      <c r="AKV16" s="2">
         <v>2.0641965115079E-4</v>
       </c>
-      <c r="AKW16">
+      <c r="AKW16" s="2">
         <v>0.30379487913742698</v>
       </c>
-      <c r="AKX16">
-        <v>0</v>
-      </c>
-      <c r="AKY16">
+      <c r="AKX16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AKY16" s="2">
         <v>-0.95034224613004703</v>
       </c>
-      <c r="AKZ16">
+      <c r="AKZ16" s="2">
         <v>1.03209825575395E-4</v>
       </c>
-      <c r="ALA16">
+      <c r="ALA16" s="2">
         <v>-0.43985022100085402</v>
       </c>
-      <c r="ALB16">
+      <c r="ALB16" s="2">
         <v>1.5481473836309199E-4</v>
       </c>
-      <c r="ALC16">
+      <c r="ALC16" s="2">
         <v>-5.3062541292533003E-2</v>
       </c>
-      <c r="ALD16">
+      <c r="ALD16" s="2">
         <v>1.03209825575395E-4</v>
       </c>
-      <c r="ALE16">
+      <c r="ALE16" s="2">
         <v>-0.42178096112244601</v>
       </c>
-      <c r="ALF16">
-        <v>0</v>
-      </c>
-      <c r="ALG16">
+      <c r="ALF16" s="2">
+        <v>0</v>
+      </c>
+      <c r="ALG16" s="2">
         <v>-0.38469577617869599</v>
       </c>
-      <c r="ALH16">
+      <c r="ALH16" s="2">
         <v>2.5802456393848698E-4</v>
       </c>
-      <c r="ALI16">
+      <c r="ALI16" s="2">
         <v>0.47432197216976502</v>
       </c>
-      <c r="ALJ16">
+      <c r="ALJ16" s="2">
         <v>3.0962947672618399E-4</v>
       </c>
-      <c r="ALK16">
+      <c r="ALK16" s="2">
         <v>1.0775190055536701</v>
       </c>
-      <c r="ALL16">
+      <c r="ALL16" s="2">
         <v>3.0962947672618399E-4</v>
       </c>
-      <c r="ALM16">
+      <c r="ALM16" s="2">
         <v>0.81810488243649304</v>
       </c>
-      <c r="ALN16">
+      <c r="ALN16" s="2">
         <v>2.5802456393848698E-4</v>
       </c>
-      <c r="ALO16">
+      <c r="ALO16" s="2">
         <v>0.42546987807598902</v>
       </c>
-      <c r="ALP16">
+      <c r="ALP16" s="2">
         <v>2.0641965115079E-4</v>
       </c>
-      <c r="ALQ16">
+      <c r="ALQ16" s="2">
         <v>0.22209297073533699</v>
       </c>
-      <c r="ALR16">
+      <c r="ALR16" s="2">
         <v>1.03209825575395E-4</v>
       </c>
-      <c r="ALS16">
+      <c r="ALS16" s="2">
         <v>-0.35642978253325303</v>
       </c>
-      <c r="ALT16">
+      <c r="ALT16" s="2">
         <v>1.5481473836309199E-4</v>
       </c>
-      <c r="ALU16">
+      <c r="ALU16" s="2">
         <v>-5.8149019815221803E-2</v>
       </c>
-      <c r="ALV16">
+      <c r="ALV16" s="2">
         <v>1.03209825575395E-4</v>
       </c>
-      <c r="ALW16">
+      <c r="ALW16" s="2">
         <v>-0.38524233846816403</v>
       </c>
-      <c r="ALX16">
-        <v>0</v>
-      </c>
-      <c r="ALY16">
+      <c r="ALX16" s="2">
+        <v>0</v>
+      </c>
+      <c r="ALY16" s="2">
         <v>-0.65970590058517398</v>
       </c>
-      <c r="ALZ16">
-        <v>0</v>
-      </c>
-      <c r="AMA16">
+      <c r="ALZ16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AMA16" s="2">
         <v>-0.57140147686437204</v>
       </c>
-      <c r="AMB16">
+      <c r="AMB16" s="2">
         <v>3.0962947672618399E-4</v>
       </c>
-      <c r="AMC16">
+      <c r="AMC16" s="2">
         <v>0.81000513591799606</v>
       </c>
-      <c r="AMD16">
-        <v>0</v>
-      </c>
-      <c r="AME16">
+      <c r="AMD16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AME16" s="2">
         <v>-0.60886025320077497</v>
       </c>
-      <c r="AMF16">
-        <v>0</v>
-      </c>
-      <c r="AMG16">
+      <c r="AMF16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AMG16" s="2">
         <v>-0.60213705153891095</v>
       </c>
-      <c r="AMH16">
+      <c r="AMH16" s="2">
         <v>2.0641965115079E-4</v>
       </c>
-      <c r="AMI16">
+      <c r="AMI16" s="2">
         <v>0.42755390668746301</v>
       </c>
-      <c r="AMJ16">
+      <c r="AMJ16" s="2">
         <v>2.5802456393848698E-4</v>
       </c>
-      <c r="AMK16">
+      <c r="AMK16" s="2">
         <v>0.42384380420655099</v>
       </c>
-      <c r="AML16">
+      <c r="AML16" s="2">
         <v>3.0962947672618399E-4</v>
       </c>
-      <c r="AMM16">
+      <c r="AMM16" s="2">
         <v>0.96303445708389901</v>
       </c>
-      <c r="AMN16">
+      <c r="AMN16" s="2">
         <v>2.0641965115079E-4</v>
       </c>
-      <c r="AMO16">
+      <c r="AMO16" s="2">
         <v>0.276849421956398</v>
       </c>
-      <c r="AMP16" s="1">
+      <c r="AMP16" s="3">
         <v>5.1604912787697399E-5</v>
       </c>
-      <c r="AMQ16">
+      <c r="AMQ16" s="2">
         <v>-0.614411171767964</v>
       </c>
-      <c r="AMR16">
-        <v>0</v>
-      </c>
-      <c r="AMS16">
+      <c r="AMR16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AMS16" s="2">
         <v>-0.97919290153808003</v>
       </c>
-      <c r="AMT16">
-        <v>0</v>
-      </c>
-      <c r="AMU16">
+      <c r="AMT16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AMU16" s="2">
         <v>-1.2212065680389399</v>
       </c>
-      <c r="AMV16">
-        <v>0</v>
-      </c>
-      <c r="AMW16">
+      <c r="AMV16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AMW16" s="2">
         <v>-0.89299665277326001</v>
       </c>
-      <c r="AMX16">
+      <c r="AMX16" s="2">
         <v>3.6123438951388202E-4</v>
       </c>
-      <c r="AMY16">
+      <c r="AMY16" s="2">
         <v>1.84936580755102</v>
       </c>
-      <c r="AMZ16">
-        <v>0</v>
-      </c>
-      <c r="ANA16">
+      <c r="AMZ16" s="2">
+        <v>0</v>
+      </c>
+      <c r="ANA16" s="2">
         <v>-1.09118391335204</v>
       </c>
-      <c r="ANB16" s="1">
+      <c r="ANB16" s="3">
         <v>5.1604912787697399E-5</v>
       </c>
-      <c r="ANC16">
+      <c r="ANC16" s="2">
         <v>-0.991844254322788</v>
       </c>
-      <c r="AND16">
+      <c r="AND16" s="2">
         <v>5.6765404066467097E-4</v>
       </c>
-      <c r="ANE16">
+      <c r="ANE16" s="2">
         <v>2.5030801405979601</v>
       </c>
-      <c r="ANF16">
+      <c r="ANF16" s="2">
         <v>3.0962947672618399E-4</v>
       </c>
-      <c r="ANG16">
+      <c r="ANG16" s="2">
         <v>0.81063347456101797</v>
       </c>
-      <c r="ANH16">
+      <c r="ANH16" s="2">
         <v>1.03209825575395E-4</v>
       </c>
-      <c r="ANI16">
+      <c r="ANI16" s="2">
         <v>-0.18605467316829699</v>
       </c>
-      <c r="ANJ16">
+      <c r="ANJ16" s="2">
         <v>4.1283930230157897E-4</v>
       </c>
-      <c r="ANK16">
+      <c r="ANK16" s="2">
         <v>1.69997179895199</v>
       </c>
-      <c r="ANL16">
+      <c r="ANL16" s="2">
         <v>2.0641965115079E-4</v>
       </c>
-      <c r="ANM16">
+      <c r="ANM16" s="2">
         <v>0.36568020351935698</v>
       </c>
-      <c r="ANN16">
+      <c r="ANN16" s="2">
         <v>1.5481473836309199E-4</v>
       </c>
-      <c r="ANO16">
+      <c r="ANO16" s="2">
         <v>-3.3884708444810699E-3</v>
       </c>
-      <c r="ANP16" s="1">
+      <c r="ANP16" s="3">
         <v>5.1604912787697399E-5</v>
       </c>
-      <c r="ANQ16">
+      <c r="ANQ16" s="2">
         <v>-0.50145658041102004</v>
       </c>
-      <c r="ANR16">
+      <c r="ANR16" s="2">
         <v>1.5481473836309199E-4</v>
       </c>
-      <c r="ANS16">
+      <c r="ANS16" s="2">
         <v>9.4643999165773898E-4</v>
       </c>
-      <c r="ANT16">
+      <c r="ANT16" s="2">
         <v>1.03209825575395E-4</v>
       </c>
-      <c r="ANU16">
+      <c r="ANU16" s="2">
         <v>-0.13115120775887701</v>
       </c>
-      <c r="ANV16">
+      <c r="ANV16" s="2">
         <v>3.6123438951388202E-4</v>
       </c>
-      <c r="ANW16">
+      <c r="ANW16" s="2">
         <v>1.03727736652766</v>
       </c>
-      <c r="ANX16">
+      <c r="ANX16" s="2">
         <v>2.5802456393848698E-4</v>
       </c>
-      <c r="ANY16">
+      <c r="ANY16" s="2">
         <v>0.46294936675284099</v>
       </c>
-      <c r="ANZ16">
-        <v>0</v>
-      </c>
-      <c r="AOA16">
+      <c r="ANZ16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AOA16" s="2">
         <v>-0.38376030806369399</v>
       </c>
-      <c r="AOB16">
+      <c r="AOB16" s="2">
         <v>1.03209825575395E-4</v>
       </c>
-      <c r="AOC16">
+      <c r="AOC16" s="2">
         <v>-0.31493743444125799</v>
       </c>
-      <c r="AOD16">
+      <c r="AOD16" s="2">
         <v>4.6444421508927701E-4</v>
       </c>
-      <c r="AOE16">
+      <c r="AOE16" s="2">
         <v>1.3151168812074101</v>
       </c>
-      <c r="AOF16">
+      <c r="AOF16" s="2">
         <v>3.0962947672618399E-4</v>
       </c>
-      <c r="AOG16">
+      <c r="AOG16" s="2">
         <v>1.55417411447735</v>
       </c>
-      <c r="AOH16" s="1">
+      <c r="AOH16" s="3">
         <v>5.1604912787697399E-5</v>
       </c>
-      <c r="AOI16">
+      <c r="AOI16" s="2">
         <v>-0.57662373073587803</v>
       </c>
-      <c r="AOJ16">
+      <c r="AOJ16" s="2">
         <v>1.03209825575395E-4</v>
       </c>
-      <c r="AOK16">
+      <c r="AOK16" s="2">
         <v>-0.251793074853216</v>
       </c>
-      <c r="AOL16">
+      <c r="AOL16" s="2">
         <v>3.0962947672618399E-4</v>
       </c>
-      <c r="AOM16">
+      <c r="AOM16" s="2">
         <v>0.93929845050480798</v>
       </c>
-      <c r="AON16">
+      <c r="AON16" s="2">
         <v>5.1604912787697396E-4</v>
       </c>
-      <c r="AOO16">
+      <c r="AOO16" s="2">
         <v>1.9853524599668599</v>
       </c>
-      <c r="AOP16">
+      <c r="AOP16" s="2">
         <v>2.0641965115079E-4</v>
       </c>
-      <c r="AOQ16">
+      <c r="AOQ16" s="2">
         <v>0.58264112630980502</v>
       </c>
-      <c r="AOR16" s="1">
+      <c r="AOR16" s="3">
         <v>5.1604912787697399E-5</v>
       </c>
-      <c r="AOS16">
+      <c r="AOS16" s="2">
         <v>-0.48438105897192701</v>
       </c>
     </row>
@@ -61728,7 +61736,82 @@
         <v>-0.326739608707655</v>
       </c>
     </row>
+    <row r="20" spans="1:1085" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>562</v>
+      </c>
+      <c r="B20">
+        <f>AVERAGE(B4:B18)</f>
+        <v>5.60989373745319E-2</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="C20:Q20" si="0">AVERAGE(D4:D18)</f>
+        <v>3.8499435383924932E-2</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>3.5486969955414269E-2</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>2.338421946120265E-2</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>1.4030593267428676E-2</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>1.3981554358555043E-2</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>1.3223795921367432E-2</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>1.1503742462599918E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1085" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>563</v>
+      </c>
+      <c r="B21">
+        <f>_xlfn.STDEV.S(B4:B18)</f>
+        <v>1.5886574573211912E-2</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="C21:Q21" si="1">_xlfn.STDEV.S(D4:D18)</f>
+        <v>1.1162742861389286E-2</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>6.4443912652816619E-3</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>9.8133228342547306E-3</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>5.1817616656379909E-3</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>5.5994423233685434E-3</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="1"/>
+        <v>2.8146104665171092E-3</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="1"/>
+        <v>4.4945705695754665E-3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>